--- a/MTP_fitting/pair_test.xlsx
+++ b/MTP_fitting/pair_test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/MTP_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/MTP_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C2A241-2EE6-6E4B-BA3F-3727267561B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31706BF-DE56-DF4F-AECB-625B0C82A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
+    <workbookView minimized="1" xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3897,307 +3897,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-7491940000000000</c:v>
+                  <c:v>601315000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7491940000000000</c:v>
+                  <c:v>601315000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4343540000000000</c:v>
+                  <c:v>346378000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2494660000000000</c:v>
+                  <c:v>197707000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1418850000000000</c:v>
+                  <c:v>111784000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-798817000000000</c:v>
+                  <c:v>62585800000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-444998000000000</c:v>
+                  <c:v>34686900000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-245172000000000</c:v>
+                  <c:v>19023600000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-133529000000000</c:v>
+                  <c:v>10320300000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-71852100000000</c:v>
+                  <c:v>5536090000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-38178400000000</c:v>
+                  <c:v>2935280000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20019000000000</c:v>
+                  <c:v>1537660000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10351900000000</c:v>
+                  <c:v>795525000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5275120000000</c:v>
+                  <c:v>406309000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2646850000000</c:v>
+                  <c:v>204783000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1306560000000</c:v>
+                  <c:v>101811000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-633871000000</c:v>
+                  <c:v>49911500000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-301907000000</c:v>
+                  <c:v>24119700000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-140998000000</c:v>
+                  <c:v>11486300000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-64478500000</c:v>
+                  <c:v>5389370000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-28826700000</c:v>
+                  <c:v>2491010000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12576500000</c:v>
+                  <c:v>1134150000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5342960000</c:v>
+                  <c:v>508653000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2204770000</c:v>
+                  <c:v>224730000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-880999000</c:v>
+                  <c:v>97817100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-339601000</c:v>
+                  <c:v>41943200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-125673000</c:v>
+                  <c:v>17711900</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-44361400</c:v>
+                  <c:v>7359980</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-14803400</c:v>
+                  <c:v>3004690</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4607470</c:v>
+                  <c:v>1201780</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1307960</c:v>
+                  <c:v>468832</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>-324218</c:v>
+                  <c:v>177187</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>-62710.7</c:v>
+                  <c:v>64213.5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>-5146.34</c:v>
+                  <c:v>21963.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>2905.99</c:v>
+                  <c:v>6901</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>2028.29</c:v>
+                  <c:v>1885.3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>805.88699999999994</c:v>
+                  <c:v>380.66300000000001</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>230.048</c:v>
+                  <c:v>5.5625999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>36.805</c:v>
+                  <c:v>-52.241700000000002</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>-12.1576</c:v>
+                  <c:v>-42.516300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>-20.258500000000002</c:v>
+                  <c:v>-28.9909</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>-20.0474</c:v>
+                  <c:v>-21.6084</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>-19.055299999999999</c:v>
+                  <c:v>-18.5578</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>-18.323799999999999</c:v>
+                  <c:v>-17.3917</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>-17.807099999999998</c:v>
+                  <c:v>-16.831</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>-17.434000000000001</c:v>
+                  <c:v>-16.427299999999999</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>-17.173400000000001</c:v>
+                  <c:v>-16.084399999999999</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>-16.9969</c:v>
+                  <c:v>-15.8005</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>-16.872</c:v>
+                  <c:v>-15.5763</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>-16.769500000000001</c:v>
+                  <c:v>-15.4009</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>-16.6693</c:v>
+                  <c:v>-15.2578</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>-16.5608</c:v>
+                  <c:v>-15.1327</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>-16.440799999999999</c:v>
+                  <c:v>-15.0159</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>-16.3109</c:v>
+                  <c:v>-14.902799999999999</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>-16.1753</c:v>
+                  <c:v>-14.792</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>-16.039000000000001</c:v>
+                  <c:v>-14.6843</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>-15.906499999999999</c:v>
+                  <c:v>-14.5814</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>-15.781499999999999</c:v>
+                  <c:v>-14.4854</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>-15.665900000000001</c:v>
+                  <c:v>-14.3985</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>-15.5604</c:v>
+                  <c:v>-14.3226</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>-15.464600000000001</c:v>
+                  <c:v>-14.2591</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>-15.3772</c:v>
+                  <c:v>-14.208600000000001</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>-15.2971</c:v>
+                  <c:v>-14.1708</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>-15.222899999999999</c:v>
+                  <c:v>-14.1442</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>-15.153700000000001</c:v>
+                  <c:v>-14.126300000000001</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>-15.088900000000001</c:v>
+                  <c:v>-14.1136</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>-15.027799999999999</c:v>
+                  <c:v>-14.101800000000001</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>-14.9702</c:v>
+                  <c:v>-14.0869</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>-14.915900000000001</c:v>
+                  <c:v>-14.065</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>-14.864800000000001</c:v>
+                  <c:v>-14.033200000000001</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>-14.816800000000001</c:v>
+                  <c:v>-13.989800000000001</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>-14.772</c:v>
+                  <c:v>-13.9344</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>-14.7302</c:v>
+                  <c:v>-13.867800000000001</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>-14.6914</c:v>
+                  <c:v>-13.7918</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>-14.6555</c:v>
+                  <c:v>-13.709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>-14.622</c:v>
+                  <c:v>-13.623100000000001</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>-14.5906</c:v>
+                  <c:v>-13.5365</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>-14.560600000000001</c:v>
+                  <c:v>-13.452500000000001</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>-14.531499999999999</c:v>
+                  <c:v>-13.373900000000001</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>-14.503</c:v>
+                  <c:v>-13.302899999999999</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>-14.475099999999999</c:v>
+                  <c:v>-13.2416</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>-14.4481</c:v>
+                  <c:v>-13.1914</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>-14.422700000000001</c:v>
+                  <c:v>-13.153700000000001</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>-14.4003</c:v>
+                  <c:v>-13.1294</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>-14.382099999999999</c:v>
+                  <c:v>-13.1188</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>-14.3696</c:v>
+                  <c:v>-13.1219</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>-14.363799999999999</c:v>
+                  <c:v>-13.137499999999999</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>-14.365399999999999</c:v>
+                  <c:v>-13.1638</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>-14.3743</c:v>
+                  <c:v>-13.1976</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>-14.389699999999999</c:v>
+                  <c:v>-13.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>-14.4102</c:v>
+                  <c:v>-13.271699999999999</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>-14.4335</c:v>
+                  <c:v>-13.303599999999999</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>-14.4574</c:v>
+                  <c:v>-13.3271</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>-14.479200000000001</c:v>
+                  <c:v>-13.340199999999999</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>-14.496600000000001</c:v>
+                  <c:v>-13.342599999999999</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>-14.5078</c:v>
+                  <c:v>-13.3354</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>-14.5121</c:v>
+                  <c:v>-13.321300000000001</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>-14.51</c:v>
+                  <c:v>-13.303900000000001</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>-14.504200000000001</c:v>
+                  <c:v>-13.288399999999999</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>-14.500400000000001</c:v>
+                  <c:v>-13.281700000000001</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>-14.500400000000001</c:v>
+                  <c:v>-13.281700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,307 +4750,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-7491940000000000</c:v>
+                  <c:v>601315000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7491940000000000</c:v>
+                  <c:v>601315000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4343540000000000</c:v>
+                  <c:v>346378000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2494660000000000</c:v>
+                  <c:v>197707000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1418850000000000</c:v>
+                  <c:v>111784000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-798817000000000</c:v>
+                  <c:v>62585800000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-444998000000000</c:v>
+                  <c:v>34686900000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-245172000000000</c:v>
+                  <c:v>19023600000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-133529000000000</c:v>
+                  <c:v>10320300000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-71852100000000</c:v>
+                  <c:v>5536090000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-38178400000000</c:v>
+                  <c:v>2935280000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20019000000000</c:v>
+                  <c:v>1537660000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10351900000000</c:v>
+                  <c:v>795525000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5275120000000</c:v>
+                  <c:v>406309000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2646850000000</c:v>
+                  <c:v>204783000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1306560000000</c:v>
+                  <c:v>101811000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-633871000000</c:v>
+                  <c:v>49911500000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-301907000000</c:v>
+                  <c:v>24119700000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-140998000000</c:v>
+                  <c:v>11486300000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-64478500000</c:v>
+                  <c:v>5389370000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-28826700000</c:v>
+                  <c:v>2491010000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12576500000</c:v>
+                  <c:v>1134150000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5342960000</c:v>
+                  <c:v>508653000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2204770000</c:v>
+                  <c:v>224730000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-880999000</c:v>
+                  <c:v>97817100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-339601000</c:v>
+                  <c:v>41943200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-125673000</c:v>
+                  <c:v>17711900</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-44361400</c:v>
+                  <c:v>7359980</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-14803400</c:v>
+                  <c:v>3004690</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4607470</c:v>
+                  <c:v>1201780</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1307960</c:v>
+                  <c:v>468832</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>-324218</c:v>
+                  <c:v>177187</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>-62710.7</c:v>
+                  <c:v>64213.5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>-5146.34</c:v>
+                  <c:v>21963.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>2905.99</c:v>
+                  <c:v>6901</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>2028.29</c:v>
+                  <c:v>1885.3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>805.88699999999994</c:v>
+                  <c:v>380.66300000000001</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>230.048</c:v>
+                  <c:v>5.5625999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>36.805</c:v>
+                  <c:v>-52.241700000000002</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>-12.1576</c:v>
+                  <c:v>-42.516300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>-20.258500000000002</c:v>
+                  <c:v>-28.9909</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>-20.0474</c:v>
+                  <c:v>-21.6084</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>-19.055299999999999</c:v>
+                  <c:v>-18.5578</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>-18.323799999999999</c:v>
+                  <c:v>-17.3917</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>-17.807099999999998</c:v>
+                  <c:v>-16.831</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>-17.434000000000001</c:v>
+                  <c:v>-16.427299999999999</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>-17.173400000000001</c:v>
+                  <c:v>-16.084399999999999</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>-16.9969</c:v>
+                  <c:v>-15.8005</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>-16.872</c:v>
+                  <c:v>-15.5763</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>-16.769500000000001</c:v>
+                  <c:v>-15.4009</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>-16.6693</c:v>
+                  <c:v>-15.2578</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>-16.5608</c:v>
+                  <c:v>-15.1327</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>-16.440799999999999</c:v>
+                  <c:v>-15.0159</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>-16.3109</c:v>
+                  <c:v>-14.902799999999999</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>-16.1753</c:v>
+                  <c:v>-14.792</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>-16.039000000000001</c:v>
+                  <c:v>-14.6843</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>-15.906499999999999</c:v>
+                  <c:v>-14.5814</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>-15.781499999999999</c:v>
+                  <c:v>-14.4854</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>-15.665900000000001</c:v>
+                  <c:v>-14.3985</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>-15.5604</c:v>
+                  <c:v>-14.3226</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>-15.464600000000001</c:v>
+                  <c:v>-14.2591</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>-15.3772</c:v>
+                  <c:v>-14.208600000000001</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>-15.2971</c:v>
+                  <c:v>-14.1708</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>-15.222899999999999</c:v>
+                  <c:v>-14.1442</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>-15.153700000000001</c:v>
+                  <c:v>-14.126300000000001</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>-15.088900000000001</c:v>
+                  <c:v>-14.1136</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>-15.027799999999999</c:v>
+                  <c:v>-14.101800000000001</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>-14.9702</c:v>
+                  <c:v>-14.0869</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>-14.915900000000001</c:v>
+                  <c:v>-14.065</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>-14.864800000000001</c:v>
+                  <c:v>-14.033200000000001</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>-14.816800000000001</c:v>
+                  <c:v>-13.989800000000001</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>-14.772</c:v>
+                  <c:v>-13.9344</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>-14.7302</c:v>
+                  <c:v>-13.867800000000001</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>-14.6914</c:v>
+                  <c:v>-13.7918</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>-14.6555</c:v>
+                  <c:v>-13.709300000000001</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>-14.622</c:v>
+                  <c:v>-13.623100000000001</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>-14.5906</c:v>
+                  <c:v>-13.5365</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>-14.560600000000001</c:v>
+                  <c:v>-13.452500000000001</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>-14.531499999999999</c:v>
+                  <c:v>-13.373900000000001</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>-14.503</c:v>
+                  <c:v>-13.302899999999999</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>-14.475099999999999</c:v>
+                  <c:v>-13.2416</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>-14.4481</c:v>
+                  <c:v>-13.1914</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>-14.422700000000001</c:v>
+                  <c:v>-13.153700000000001</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>-14.4003</c:v>
+                  <c:v>-13.1294</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>-14.382099999999999</c:v>
+                  <c:v>-13.1188</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>-14.3696</c:v>
+                  <c:v>-13.1219</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>-14.363799999999999</c:v>
+                  <c:v>-13.137499999999999</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>-14.365399999999999</c:v>
+                  <c:v>-13.1638</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>-14.3743</c:v>
+                  <c:v>-13.1976</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>-14.389699999999999</c:v>
+                  <c:v>-13.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>-14.4102</c:v>
+                  <c:v>-13.271699999999999</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>-14.4335</c:v>
+                  <c:v>-13.303599999999999</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>-14.4574</c:v>
+                  <c:v>-13.3271</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>-14.479200000000001</c:v>
+                  <c:v>-13.340199999999999</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>-14.496600000000001</c:v>
+                  <c:v>-13.342599999999999</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>-14.5078</c:v>
+                  <c:v>-13.3354</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>-14.5121</c:v>
+                  <c:v>-13.321300000000001</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>-14.51</c:v>
+                  <c:v>-13.303900000000001</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>-14.504200000000001</c:v>
+                  <c:v>-13.288399999999999</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>-14.500400000000001</c:v>
+                  <c:v>-13.281700000000001</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>-14.500400000000001</c:v>
+                  <c:v>-13.281700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,7 +5142,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
-          <c:min val="-20"/>
+          <c:min val="-50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5607,301 +5607,301 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>-7491939999999985</c:v>
+                  <c:v>601315000000013.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7491939999999985</c:v>
+                  <c:v>601315000000013.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4343539999999985.5</c:v>
+                  <c:v>346378000000013.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2494659999999985.5</c:v>
+                  <c:v>197707000000013.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1418849999999985.5</c:v>
+                  <c:v>111784000000013.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-798816999999985.5</c:v>
+                  <c:v>62585800000013.281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-444997999999985.5</c:v>
+                  <c:v>34686900000013.281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-245171999999985.5</c:v>
+                  <c:v>19023600000013.281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-133528999999985.5</c:v>
+                  <c:v>10320300000013.281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-71852099999985.5</c:v>
+                  <c:v>5536090000013.2812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-38178399999985.5</c:v>
+                  <c:v>2935280000013.2817</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20018999999985.5</c:v>
+                  <c:v>1537660000013.2817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10351899999985.5</c:v>
+                  <c:v>795525000013.28174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5275119999985.5</c:v>
+                  <c:v>406309000013.28168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2646849999985.4995</c:v>
+                  <c:v>204783000013.28171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1306559999985.4995</c:v>
+                  <c:v>101811000013.28169</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-633870999985.49963</c:v>
+                  <c:v>49911500013.2817</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-301906999985.49957</c:v>
+                  <c:v>24119700013.2817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-140997999985.4996</c:v>
+                  <c:v>11486300013.2817</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-64478499985.499603</c:v>
+                  <c:v>5389370013.2817001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-28826699985.499599</c:v>
+                  <c:v>2491010013.2817001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12576499985.499599</c:v>
+                  <c:v>1134150013.2816999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5342959985.4996004</c:v>
+                  <c:v>508653013.28170002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2204769985.4995999</c:v>
+                  <c:v>224730013.28169999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-880998985.49960005</c:v>
+                  <c:v>97817113.2817</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-339600985.49959999</c:v>
+                  <c:v>41943213.2817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-125672985.49959999</c:v>
+                  <c:v>17711913.2817</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-44361385.499600001</c:v>
+                  <c:v>7359993.2817000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-14803385.499600001</c:v>
+                  <c:v>3004703.2817000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4607455.4995999997</c:v>
+                  <c:v>1201793.2816999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1307945.4996</c:v>
+                  <c:v>468845.28169999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-324203.49959999998</c:v>
+                  <c:v>177200.28169999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-62696.1996</c:v>
+                  <c:v>64226.7817</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5131.8396000000002</c:v>
+                  <c:v>21976.4817</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2920.4903999999997</c:v>
+                  <c:v>6914.2816999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2042.7903999999999</c:v>
+                  <c:v>1898.5817</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>820.38739999999996</c:v>
+                  <c:v>393.94470000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>244.54840000000002</c:v>
+                  <c:v>18.8443</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.305399999999999</c:v>
+                  <c:v>-38.96</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3428000000000004</c:v>
+                  <c:v>-29.2346</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-5.7581000000000007</c:v>
+                  <c:v>-15.709199999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.5469999999999988</c:v>
+                  <c:v>-8.3266999999999989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4.5548999999999982</c:v>
+                  <c:v>-5.2760999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.8233999999999977</c:v>
+                  <c:v>-4.1099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.3066999999999975</c:v>
+                  <c:v>-3.5492999999999988</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.9336000000000002</c:v>
+                  <c:v>-3.1455999999999982</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.673</c:v>
+                  <c:v>-2.802699999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.4964999999999993</c:v>
+                  <c:v>-2.5187999999999988</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.371599999999999</c:v>
+                  <c:v>-2.2945999999999991</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.2690999999999999</c:v>
+                  <c:v>-2.1191999999999993</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.1688999999999989</c:v>
+                  <c:v>-1.9760999999999989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.0603999999999996</c:v>
+                  <c:v>-1.8509999999999991</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.9403999999999986</c:v>
+                  <c:v>-1.7341999999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.8104999999999993</c:v>
+                  <c:v>-1.6210999999999984</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.6748999999999992</c:v>
+                  <c:v>-1.5102999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.5386000000000006</c:v>
+                  <c:v>-1.4025999999999996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.4060999999999986</c:v>
+                  <c:v>-1.2996999999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.2810999999999986</c:v>
+                  <c:v>-1.2036999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.1654999999999998</c:v>
+                  <c:v>-1.1167999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.0599999999999987</c:v>
+                  <c:v>-1.0408999999999988</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.96419999999999995</c:v>
+                  <c:v>-0.97739999999999938</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.87679999999999936</c:v>
+                  <c:v>-0.92689999999999984</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.79669999999999952</c:v>
+                  <c:v>-0.88909999999999911</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.72249999999999837</c:v>
+                  <c:v>-0.86249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.65329999999999977</c:v>
+                  <c:v>-0.8445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.5884999999999998</c:v>
+                  <c:v>-0.8318999999999992</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.52739999999999831</c:v>
+                  <c:v>-0.82010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.46979999999999933</c:v>
+                  <c:v>-0.80519999999999925</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.41549999999999976</c:v>
+                  <c:v>-0.78329999999999878</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.36439999999999984</c:v>
+                  <c:v>-0.75150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.31639999999999979</c:v>
+                  <c:v>-0.70809999999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.2715999999999994</c:v>
+                  <c:v>-0.65269999999999939</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.22979999999999912</c:v>
+                  <c:v>-0.58610000000000007</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.19099999999999895</c:v>
+                  <c:v>-0.51009999999999955</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.15509999999999913</c:v>
+                  <c:v>-0.42759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.12159999999999904</c:v>
+                  <c:v>-0.34140000000000015</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-9.0199999999999392E-2</c:v>
+                  <c:v>-0.25479999999999947</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-6.0200000000000031E-2</c:v>
+                  <c:v>-0.17079999999999984</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-3.1099999999998573E-2</c:v>
+                  <c:v>-9.220000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.5999999999992696E-3</c:v>
+                  <c:v>-2.1199999999998553E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5300000000001432E-2</c:v>
+                  <c:v>4.0100000000000691E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.2300000000000679E-2</c:v>
+                  <c:v>9.0300000000000935E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7700000000000102E-2</c:v>
+                  <c:v>0.12800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.10010000000000119</c:v>
+                  <c:v>0.15230000000000032</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1183000000000014</c:v>
+                  <c:v>0.16290000000000049</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13080000000000069</c:v>
+                  <c:v>0.15980000000000061</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.13660000000000139</c:v>
+                  <c:v>0.14420000000000144</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13500000000000156</c:v>
+                  <c:v>0.11790000000000056</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.12610000000000099</c:v>
+                  <c:v>8.4100000000001174E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.11070000000000135</c:v>
+                  <c:v>4.6700000000001296E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.0200000000001168E-2</c:v>
+                  <c:v>1.0000000000001563E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.6900000000000404E-2</c:v>
+                  <c:v>-2.1899999999998698E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.3000000000001037E-2</c:v>
+                  <c:v>-4.5399999999998997E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.120000000000033E-2</c:v>
+                  <c:v>-5.8499999999998664E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8000000000000256E-3</c:v>
+                  <c:v>-6.08999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-7.3999999999987409E-3</c:v>
+                  <c:v>-5.3699999999999193E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.1699999999999378E-2</c:v>
+                  <c:v>-3.960000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-9.5999999999989427E-3</c:v>
+                  <c:v>-2.2199999999999775E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-3.8000000000000256E-3</c:v>
+                  <c:v>-6.699999999998596E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -10590,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFC2F2-B2E1-BA4C-83BC-6A37C3092F9C}">
   <dimension ref="B1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R9" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="Q11" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10731,14 +10731,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>-7491940000000000</v>
+        <v>601315000000000</v>
       </c>
       <c r="X5" s="1">
-        <v>-1.57642E+18</v>
+        <v>1.28059E+17</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ref="AC5:AC68" si="0">W5-$W$105</f>
-        <v>-7491939999999985</v>
+        <v>601315000000013.25</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
@@ -10774,14 +10774,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>-7491940000000000</v>
+        <v>601315000000000</v>
       </c>
       <c r="X6" s="1">
-        <v>-1.57642E+18</v>
+        <v>1.28059E+17</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="0"/>
-        <v>-7491939999999985</v>
+        <v>601315000000013.25</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -10817,14 +10817,14 @@
         <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>-4343540000000000</v>
+        <v>346378000000000</v>
       </c>
       <c r="X7" s="1">
-        <v>-1.3943E+18</v>
+        <v>1.12471E+17</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="0"/>
-        <v>-4343539999999985.5</v>
+        <v>346378000000013.31</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -10860,14 +10860,14 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
-        <v>-2494660000000000</v>
+        <v>197707000000000</v>
       </c>
       <c r="X8" s="1">
-        <v>-1.08634E+18</v>
+        <v>8.70293E+16</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="0"/>
-        <v>-2494659999999985.5</v>
+        <v>197707000000013.28</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
@@ -10903,14 +10903,14 @@
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>-1418850000000000</v>
+        <v>111784000000000</v>
       </c>
       <c r="X9" s="1">
-        <v>-7.86084E+17</v>
+        <v>6.25564E+16</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" si="0"/>
-        <v>-1418849999999985.5</v>
+        <v>111784000000013.28</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -10946,14 +10946,14 @@
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>-798817000000000</v>
+        <v>62585800000000</v>
       </c>
       <c r="X10" s="1">
-        <v>-5.40757E+17</v>
+        <v>4.27582E+16</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="0"/>
-        <v>-798816999999985.5</v>
+        <v>62585800000013.281</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -10989,14 +10989,14 @@
         <v>6</v>
       </c>
       <c r="W11" s="1">
-        <v>-444998000000000</v>
+        <v>34686900000000</v>
       </c>
       <c r="X11" s="1">
-        <v>-3.58002E+17</v>
+        <v>2.81355E+16</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="0"/>
-        <v>-444997999999985.5</v>
+        <v>34686900000013.281</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
@@ -11032,14 +11032,14 @@
         <v>7</v>
       </c>
       <c r="W12" s="1">
-        <v>-245172000000000</v>
+        <v>19023600000000</v>
       </c>
       <c r="X12" s="1">
-        <v>-2.29727E+17</v>
+        <v>1.79516E+16</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="0"/>
-        <v>-245171999999985.5</v>
+        <v>19023600000013.281</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -11075,14 +11075,14 @@
         <v>8</v>
       </c>
       <c r="W13" s="1">
-        <v>-133529000000000</v>
+        <v>10320300000000</v>
       </c>
       <c r="X13" s="1">
-        <v>-1.43515E+17</v>
+        <v>1.11562E+16</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="0"/>
-        <v>-133528999999985.5</v>
+        <v>10320300000013.281</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
@@ -11118,14 +11118,14 @@
         <v>9</v>
       </c>
       <c r="W14" s="1">
-        <v>-71852100000000</v>
+        <v>5536090000000</v>
       </c>
       <c r="X14" s="1">
-        <v>-8.75319E+16</v>
+        <v>6772900000000000</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="0"/>
-        <v>-71852099999985.5</v>
+        <v>5536090000013.2812</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
@@ -11161,14 +11161,14 @@
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>-38178400000000</v>
+        <v>2935280000000</v>
       </c>
       <c r="X15" s="1">
-        <v>-5.22179E+16</v>
+        <v>4024670000000000</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="0"/>
-        <v>-38178399999985.5</v>
+        <v>2935280000013.2817</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
@@ -11204,14 +11204,14 @@
         <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>-20019000000000</v>
+        <v>1537660000000</v>
       </c>
       <c r="X16" s="1">
-        <v>-3.05046E+16</v>
+        <v>2344050000000000</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="0"/>
-        <v>-20018999999985.5</v>
+        <v>1537660000013.2817</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -11247,14 +11247,14 @@
         <v>12</v>
       </c>
       <c r="W17" s="1">
-        <v>-10351900000000</v>
+        <v>795525000000</v>
       </c>
       <c r="X17" s="1">
-        <v>-1.74625E+16</v>
+        <v>1339290000000000</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="0"/>
-        <v>-10351899999985.5</v>
+        <v>795525000013.28174</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -11290,14 +11290,14 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>-5275120000000</v>
+        <v>406309000000</v>
       </c>
       <c r="X18" s="1">
-        <v>-9799310000000000</v>
+        <v>751129000000000</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="0"/>
-        <v>-5275119999985.5</v>
+        <v>406309000013.28168</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
@@ -11333,14 +11333,14 @@
         <v>14</v>
       </c>
       <c r="W19" s="1">
-        <v>-2646850000000</v>
+        <v>204783000000</v>
       </c>
       <c r="X19" s="1">
-        <v>-5390910000000000</v>
+        <v>413671000000000</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="0"/>
-        <v>-2646849999985.4995</v>
+        <v>204783000013.28171</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
@@ -11376,14 +11376,14 @@
         <v>15</v>
       </c>
       <c r="W20" s="1">
-        <v>-1306560000000</v>
+        <v>101811000000</v>
       </c>
       <c r="X20" s="1">
-        <v>-2906940000000000</v>
+        <v>223766000000000</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="0"/>
-        <v>-1306559999985.4995</v>
+        <v>101811000013.28169</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -11419,14 +11419,14 @@
         <v>16</v>
       </c>
       <c r="W21" s="1">
-        <v>-633871000000</v>
+        <v>49911500000</v>
       </c>
       <c r="X21" s="1">
-        <v>-1535880000000000</v>
+        <v>118900000000000</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" si="0"/>
-        <v>-633870999985.49963</v>
+        <v>49911500013.2817</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
@@ -11462,14 +11462,14 @@
         <v>17</v>
       </c>
       <c r="W22" s="1">
-        <v>-301907000000</v>
+        <v>24119700000</v>
       </c>
       <c r="X22" s="1">
-        <v>-794665000000000</v>
+        <v>62064500000000</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>-301906999985.49957</v>
+        <v>24119700013.2817</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
@@ -11505,14 +11505,14 @@
         <v>18</v>
       </c>
       <c r="W23" s="1">
-        <v>-140998000000</v>
+        <v>11486300000</v>
       </c>
       <c r="X23" s="1">
-        <v>-402336000000000</v>
+        <v>31825700000000</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="0"/>
-        <v>-140997999985.4996</v>
+        <v>11486300013.2817</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
@@ -11548,14 +11548,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <v>-64478500000</v>
+        <v>5389370000</v>
       </c>
       <c r="X24" s="1">
-        <v>-199142000000000</v>
+        <v>16032100000000</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="0"/>
-        <v>-64478499985.499603</v>
+        <v>5389370013.2817001</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
@@ -11591,14 +11591,14 @@
         <v>20</v>
       </c>
       <c r="W25" s="1">
-        <v>-28826700000</v>
+        <v>2491010000</v>
       </c>
       <c r="X25" s="1">
-        <v>-96250000000000</v>
+        <v>7933930000000</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="0"/>
-        <v>-28826699985.499599</v>
+        <v>2491010013.2817001</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -11634,14 +11634,14 @@
         <v>21</v>
       </c>
       <c r="W26" s="1">
-        <v>-12576500000</v>
+        <v>1134150000</v>
       </c>
       <c r="X26" s="1">
-        <v>-45362100000000</v>
+        <v>3857510000000</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="0"/>
-        <v>-12576499985.499599</v>
+        <v>1134150013.2816999</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
@@ -11677,14 +11677,14 @@
         <v>22</v>
       </c>
       <c r="W27" s="1">
-        <v>-5342960000</v>
+        <v>508653000</v>
       </c>
       <c r="X27" s="1">
-        <v>-20811600000000</v>
+        <v>1842920000000</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" si="0"/>
-        <v>-5342959985.4996004</v>
+        <v>508653013.28170002</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
@@ -11720,14 +11720,14 @@
         <v>23</v>
       </c>
       <c r="W28" s="1">
-        <v>-2204770000</v>
+        <v>224730000</v>
       </c>
       <c r="X28" s="1">
-        <v>-9275760000000</v>
+        <v>865333000000</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="0"/>
-        <v>-2204769985.4995999</v>
+        <v>224730013.28169999</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
@@ -11763,14 +11763,14 @@
         <v>24</v>
       </c>
       <c r="W29" s="1">
-        <v>-880999000</v>
+        <v>97817100</v>
       </c>
       <c r="X29" s="1">
-        <v>-4006320000000</v>
+        <v>399448000000</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" si="0"/>
-        <v>-880998985.49960005</v>
+        <v>97817113.2817</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
@@ -11806,14 +11806,14 @@
         <v>25</v>
       </c>
       <c r="W30" s="1">
-        <v>-339601000</v>
+        <v>41943200</v>
       </c>
       <c r="X30" s="1">
-        <v>-1671700000000</v>
+        <v>181332000000</v>
       </c>
       <c r="AC30" s="1">
         <f t="shared" si="0"/>
-        <v>-339600985.49959999</v>
+        <v>41943213.2817</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
@@ -11849,14 +11849,14 @@
         <v>26</v>
       </c>
       <c r="W31" s="1">
-        <v>-125673000</v>
+        <v>17711900</v>
       </c>
       <c r="X31" s="1">
-        <v>-671275000000</v>
+        <v>80969800000</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="0"/>
-        <v>-125672985.49959999</v>
+        <v>17711913.2817</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
@@ -11892,14 +11892,14 @@
         <v>27</v>
       </c>
       <c r="W32" s="1">
-        <v>-44361400</v>
+        <v>7359980</v>
       </c>
       <c r="X32" s="1">
-        <v>-258101000000</v>
+        <v>35563700000</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="0"/>
-        <v>-44361385.499600001</v>
+        <v>7359993.2817000002</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.2">
@@ -11935,14 +11935,14 @@
         <v>28</v>
       </c>
       <c r="W33" s="1">
-        <v>-14803400</v>
+        <v>3004690</v>
       </c>
       <c r="X33" s="1">
-        <v>-94379700000</v>
+        <v>15357200000</v>
       </c>
       <c r="AC33" s="1">
         <f t="shared" si="0"/>
-        <v>-14803385.499600001</v>
+        <v>3004703.2817000002</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -11978,14 +11978,14 @@
         <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>-4607470</v>
+        <v>1201780</v>
       </c>
       <c r="X34" s="1">
-        <v>-32507100000</v>
+        <v>6511280000</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="0"/>
-        <v>-4607455.4995999997</v>
+        <v>1201793.2816999999</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
@@ -12021,14 +12021,14 @@
         <v>30</v>
       </c>
       <c r="W35" s="1">
-        <v>-1307960</v>
+        <v>468832</v>
       </c>
       <c r="X35" s="1">
-        <v>-10391400000</v>
+        <v>2703660000</v>
       </c>
       <c r="AC35" s="1">
         <f t="shared" si="0"/>
-        <v>-1307945.4996</v>
+        <v>468845.28169999999</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.2">
@@ -12064,14 +12064,14 @@
         <v>31</v>
       </c>
       <c r="W36">
-        <v>-324218</v>
+        <v>177187</v>
       </c>
       <c r="X36" s="1">
-        <v>-3006180000</v>
+        <v>1094650000</v>
       </c>
       <c r="AC36" s="1">
         <f t="shared" si="0"/>
-        <v>-324203.49959999998</v>
+        <v>177200.28169999999</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.2">
@@ -12107,14 +12107,14 @@
         <v>32</v>
       </c>
       <c r="W37">
-        <v>-62710.7</v>
+        <v>64213.5</v>
       </c>
       <c r="X37" s="1">
-        <v>-747645000</v>
+        <v>429177000</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="0"/>
-        <v>-62696.1996</v>
+        <v>64226.7817</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.2">
@@ -12150,14 +12150,14 @@
         <v>33</v>
       </c>
       <c r="W38">
-        <v>-5146.34</v>
+        <v>21963.200000000001</v>
       </c>
       <c r="X38" s="1">
-        <v>-138302000</v>
+        <v>161232000</v>
       </c>
       <c r="AC38" s="1">
         <f t="shared" si="0"/>
-        <v>-5131.8396000000002</v>
+        <v>21976.4817</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
@@ -12193,14 +12193,14 @@
         <v>34</v>
       </c>
       <c r="W39">
-        <v>2905.99</v>
+        <v>6901</v>
       </c>
       <c r="X39" s="1">
-        <v>-5648820</v>
+        <v>57087500</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="0"/>
-        <v>2920.4903999999997</v>
+        <v>6914.2816999999995</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
@@ -12236,14 +12236,14 @@
         <v>35</v>
       </c>
       <c r="W40">
-        <v>2028.29</v>
+        <v>1885.3</v>
       </c>
       <c r="X40" s="1">
-        <v>10384200</v>
+        <v>18526500</v>
       </c>
       <c r="AC40" s="1">
         <f t="shared" si="0"/>
-        <v>2042.7903999999999</v>
+        <v>1898.5817</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
@@ -12279,14 +12279,14 @@
         <v>36</v>
       </c>
       <c r="W41">
-        <v>805.88699999999994</v>
+        <v>380.66300000000001</v>
       </c>
       <c r="X41" s="1">
-        <v>6322790</v>
+        <v>5212170</v>
       </c>
       <c r="AC41" s="1">
         <f t="shared" si="0"/>
-        <v>820.38739999999996</v>
+        <v>393.94470000000001</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
@@ -12322,14 +12322,14 @@
         <v>37</v>
       </c>
       <c r="W42">
-        <v>230.048</v>
+        <v>5.5625999999999998</v>
       </c>
       <c r="X42" s="1">
-        <v>2453930</v>
+        <v>1087120</v>
       </c>
       <c r="AC42" s="1">
         <f t="shared" si="0"/>
-        <v>244.54840000000002</v>
+        <v>18.8443</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
@@ -12365,14 +12365,14 @@
         <v>38</v>
       </c>
       <c r="W43">
-        <v>36.805</v>
+        <v>-52.241700000000002</v>
       </c>
       <c r="X43">
-        <v>717400</v>
+        <v>36261.599999999999</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="0"/>
-        <v>51.305399999999999</v>
+        <v>-38.96</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
@@ -12408,14 +12408,14 @@
         <v>39</v>
       </c>
       <c r="W44">
-        <v>-12.1576</v>
+        <v>-42.516300000000001</v>
       </c>
       <c r="X44">
-        <v>150367</v>
+        <v>-120603</v>
       </c>
       <c r="AC44" s="1">
         <f t="shared" si="0"/>
-        <v>2.3428000000000004</v>
+        <v>-29.2346</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
@@ -12451,14 +12451,14 @@
         <v>40</v>
       </c>
       <c r="W45">
-        <v>-20.258500000000002</v>
+        <v>-28.9909</v>
       </c>
       <c r="X45">
-        <v>12528.1</v>
+        <v>-83637.399999999994</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="0"/>
-        <v>-5.7581000000000007</v>
+        <v>-15.709199999999999</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
@@ -12494,14 +12494,14 @@
         <v>41</v>
       </c>
       <c r="W46">
-        <v>-20.0474</v>
+        <v>-21.6084</v>
       </c>
       <c r="X46">
-        <v>-8224.8799999999992</v>
+        <v>-38644.1</v>
       </c>
       <c r="AC46" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5469999999999988</v>
+        <v>-8.3266999999999989</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
@@ -12537,14 +12537,14 @@
         <v>42</v>
       </c>
       <c r="W47">
-        <v>-19.055299999999999</v>
+        <v>-18.5578</v>
       </c>
       <c r="X47">
-        <v>-7321.64</v>
+        <v>-15045.5</v>
       </c>
       <c r="AC47" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5548999999999982</v>
+        <v>-5.2760999999999996</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
@@ -12580,14 +12580,14 @@
         <v>43</v>
       </c>
       <c r="W48">
-        <v>-18.323799999999999</v>
+        <v>-17.3917</v>
       </c>
       <c r="X48">
-        <v>-5196.13</v>
+        <v>-6323.61</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8233999999999977</v>
+        <v>-4.1099999999999994</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
@@ -12623,14 +12623,14 @@
         <v>44</v>
       </c>
       <c r="W49">
-        <v>-17.807099999999998</v>
+        <v>-16.831</v>
       </c>
       <c r="X49">
-        <v>-3836.65</v>
+        <v>-3934.27</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3066999999999975</v>
+        <v>-3.5492999999999988</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
@@ -12666,14 +12666,14 @@
         <v>45</v>
       </c>
       <c r="W50">
-        <v>-17.434000000000001</v>
+        <v>-16.427299999999999</v>
       </c>
       <c r="X50">
-        <v>-2799.23</v>
+        <v>-3314.37</v>
       </c>
       <c r="AC50" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9336000000000002</v>
+        <v>-3.1455999999999982</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -12709,14 +12709,14 @@
         <v>46</v>
       </c>
       <c r="W51">
-        <v>-17.173400000000001</v>
+        <v>-16.084399999999999</v>
       </c>
       <c r="X51">
-        <v>-1950.86</v>
+        <v>-2877.41</v>
       </c>
       <c r="AC51" s="1">
         <f t="shared" si="0"/>
-        <v>-2.673</v>
+        <v>-2.802699999999998</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
@@ -12752,14 +12752,14 @@
         <v>47</v>
       </c>
       <c r="W52">
-        <v>-16.9969</v>
+        <v>-15.8005</v>
       </c>
       <c r="X52">
-        <v>-1357.16</v>
+        <v>-2364.71</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4964999999999993</v>
+        <v>-2.5187999999999988</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
@@ -12795,14 +12795,14 @@
         <v>48</v>
       </c>
       <c r="W53">
-        <v>-16.872</v>
+        <v>-15.5763</v>
       </c>
       <c r="X53">
-        <v>-1044.3499999999999</v>
+        <v>-1880.7</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="0"/>
-        <v>-2.371599999999999</v>
+        <v>-2.2945999999999991</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
@@ -12838,14 +12838,14 @@
         <v>49</v>
       </c>
       <c r="W54">
-        <v>-16.769500000000001</v>
+        <v>-15.4009</v>
       </c>
       <c r="X54">
-        <v>-961.79899999999998</v>
+        <v>-1523.03</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2690999999999999</v>
+        <v>-2.1191999999999993</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
@@ -12881,14 +12881,14 @@
         <v>50</v>
       </c>
       <c r="W55">
-        <v>-16.6693</v>
+        <v>-15.2578</v>
       </c>
       <c r="X55">
-        <v>-1025.32</v>
+        <v>-1310.94</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1688999999999989</v>
+        <v>-1.9760999999999989</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
@@ -12924,14 +12924,14 @@
         <v>51</v>
       </c>
       <c r="W56">
-        <v>-16.5608</v>
+        <v>-15.1327</v>
       </c>
       <c r="X56">
-        <v>-1155.68</v>
+        <v>-1212.48</v>
       </c>
       <c r="AC56" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0603999999999996</v>
+        <v>-1.8509999999999991</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
@@ -12967,14 +12967,14 @@
         <v>52</v>
       </c>
       <c r="W57">
-        <v>-16.440799999999999</v>
+        <v>-15.0159</v>
       </c>
       <c r="X57">
-        <v>-1294.1199999999999</v>
+        <v>-1181.07</v>
       </c>
       <c r="AC57" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9403999999999986</v>
+        <v>-1.7341999999999995</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
@@ -13010,14 +13010,14 @@
         <v>53</v>
       </c>
       <c r="W58">
-        <v>-16.3109</v>
+        <v>-14.902799999999999</v>
       </c>
       <c r="X58">
-        <v>-1403.44</v>
+        <v>-1176.6400000000001</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8104999999999993</v>
+        <v>-1.6210999999999984</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
@@ -13053,14 +13053,14 @@
         <v>54</v>
       </c>
       <c r="W59">
-        <v>-16.1753</v>
+        <v>-14.792</v>
       </c>
       <c r="X59">
-        <v>-1464.51</v>
+        <v>-1171.97</v>
       </c>
       <c r="AC59" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6748999999999992</v>
+        <v>-1.5102999999999991</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
@@ -13096,14 +13096,14 @@
         <v>55</v>
       </c>
       <c r="W60">
-        <v>-16.039000000000001</v>
+        <v>-14.6843</v>
       </c>
       <c r="X60">
-        <v>-1472.51</v>
+        <v>-1151.3699999999999</v>
       </c>
       <c r="AC60" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5386000000000006</v>
+        <v>-1.4025999999999996</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
@@ -13139,14 +13139,14 @@
         <v>56</v>
       </c>
       <c r="W61">
-        <v>-15.906499999999999</v>
+        <v>-14.5814</v>
       </c>
       <c r="X61">
-        <v>-1433.52</v>
+        <v>-1106.99</v>
       </c>
       <c r="AC61" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4060999999999986</v>
+        <v>-1.2996999999999996</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
@@ -13182,14 +13182,14 @@
         <v>57</v>
       </c>
       <c r="W62">
-        <v>-15.781499999999999</v>
+        <v>-14.4854</v>
       </c>
       <c r="X62">
-        <v>-1360.56</v>
+        <v>-1035.76</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2810999999999986</v>
+        <v>-1.2036999999999995</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
@@ -13225,14 +13225,14 @@
         <v>58</v>
       </c>
       <c r="W63">
-        <v>-15.665900000000001</v>
+        <v>-14.3985</v>
       </c>
       <c r="X63">
-        <v>-1269.29</v>
+        <v>-937.81799999999998</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1654999999999998</v>
+        <v>-1.1167999999999996</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
@@ -13268,14 +13268,14 @@
         <v>59</v>
       </c>
       <c r="W64">
-        <v>-15.5604</v>
+        <v>-14.3226</v>
       </c>
       <c r="X64">
-        <v>-1174.03</v>
+        <v>-816.23599999999999</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0599999999999987</v>
+        <v>-1.0408999999999988</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
@@ -13311,14 +13311,14 @@
         <v>60</v>
       </c>
       <c r="W65">
-        <v>-15.464600000000001</v>
+        <v>-14.2591</v>
       </c>
       <c r="X65">
-        <v>-1085.1099999999999</v>
+        <v>-677.351</v>
       </c>
       <c r="AC65" s="1">
         <f t="shared" si="0"/>
-        <v>-0.96419999999999995</v>
+        <v>-0.97739999999999938</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -13354,14 +13354,14 @@
         <v>61</v>
       </c>
       <c r="W66">
-        <v>-15.3772</v>
+        <v>-14.208600000000001</v>
       </c>
       <c r="X66">
-        <v>-1007.95</v>
+        <v>-531.06299999999999</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="0"/>
-        <v>-0.87679999999999936</v>
+        <v>-0.92689999999999984</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13397,14 +13397,14 @@
         <v>62</v>
       </c>
       <c r="W67">
-        <v>-15.2971</v>
+        <v>-14.1708</v>
       </c>
       <c r="X67">
-        <v>-943.73599999999999</v>
+        <v>-390.44299999999998</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79669999999999952</v>
+        <v>-0.88909999999999911</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
@@ -13440,14 +13440,14 @@
         <v>63</v>
       </c>
       <c r="W68">
-        <v>-15.222899999999999</v>
+        <v>-14.1442</v>
       </c>
       <c r="X68">
-        <v>-890.85900000000004</v>
+        <v>-270.435</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="0"/>
-        <v>-0.72249999999999837</v>
+        <v>-0.86249999999999893</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -13483,14 +13483,14 @@
         <v>64</v>
       </c>
       <c r="W69">
-        <v>-15.153700000000001</v>
+        <v>-14.126300000000001</v>
       </c>
       <c r="X69">
-        <v>-846.54600000000005</v>
+        <v>-185.733</v>
       </c>
       <c r="AC69" s="1">
         <f t="shared" ref="AC69:AC104" si="5">W69-$W$105</f>
-        <v>-0.65329999999999977</v>
+        <v>-0.8445999999999998</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
@@ -13526,14 +13526,14 @@
         <v>65</v>
       </c>
       <c r="W70">
-        <v>-15.088900000000001</v>
+        <v>-14.1136</v>
       </c>
       <c r="X70">
-        <v>-808.00900000000001</v>
+        <v>-148.267</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" si="5"/>
-        <v>-0.5884999999999998</v>
+        <v>-0.8318999999999992</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -13569,14 +13569,14 @@
         <v>66</v>
       </c>
       <c r="W71">
-        <v>-15.027799999999999</v>
+        <v>-14.101800000000001</v>
       </c>
       <c r="X71">
-        <v>-773.01</v>
+        <v>-164.91200000000001</v>
       </c>
       <c r="AC71" s="1">
         <f t="shared" si="5"/>
-        <v>-0.52739999999999831</v>
+        <v>-0.82010000000000005</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -13612,14 +13612,14 @@
         <v>67</v>
       </c>
       <c r="W72">
-        <v>-14.9702</v>
+        <v>-14.0869</v>
       </c>
       <c r="X72">
-        <v>-739.92200000000003</v>
+        <v>-236.00700000000001</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" si="5"/>
-        <v>-0.46979999999999933</v>
+        <v>-0.80519999999999925</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -13655,14 +13655,14 @@
         <v>68</v>
       </c>
       <c r="W73">
-        <v>-14.915900000000001</v>
+        <v>-14.065</v>
       </c>
       <c r="X73">
-        <v>-707.55200000000002</v>
+        <v>-355.05099999999999</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="5"/>
-        <v>-0.41549999999999976</v>
+        <v>-0.78329999999999878</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -13698,14 +13698,14 @@
         <v>69</v>
       </c>
       <c r="W74">
-        <v>-14.864800000000001</v>
+        <v>-14.033200000000001</v>
       </c>
       <c r="X74">
-        <v>-674.98</v>
+        <v>-509.65300000000002</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" si="5"/>
-        <v>-0.36439999999999984</v>
+        <v>-0.75150000000000006</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -13741,14 +13741,14 @@
         <v>70</v>
       </c>
       <c r="W75">
-        <v>-14.816800000000001</v>
+        <v>-13.989800000000001</v>
       </c>
       <c r="X75">
-        <v>-641.54999999999995</v>
+        <v>-683.471</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="5"/>
-        <v>-0.31639999999999979</v>
+        <v>-0.70809999999999995</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
@@ -13784,14 +13784,14 @@
         <v>71</v>
       </c>
       <c r="W76">
-        <v>-14.772</v>
+        <v>-13.9344</v>
       </c>
       <c r="X76">
-        <v>-607.04</v>
+        <v>-858.67</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.2715999999999994</v>
+        <v>-0.65269999999999939</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
@@ -13827,14 +13827,14 @@
         <v>72</v>
       </c>
       <c r="W77">
-        <v>-14.7302</v>
+        <v>-13.867800000000001</v>
       </c>
       <c r="X77">
-        <v>-571.899</v>
+        <v>-1018.36</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="5"/>
-        <v>-0.22979999999999912</v>
+        <v>-0.58610000000000007</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
@@ -13870,14 +13870,14 @@
         <v>73</v>
       </c>
       <c r="W78">
-        <v>-14.6914</v>
+        <v>-13.7918</v>
       </c>
       <c r="X78">
-        <v>-537.40200000000004</v>
+        <v>-1148.55</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="5"/>
-        <v>-0.19099999999999895</v>
+        <v>-0.51009999999999955</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -13913,14 +13913,14 @@
         <v>74</v>
       </c>
       <c r="W79">
-        <v>-14.6555</v>
+        <v>-13.709300000000001</v>
       </c>
       <c r="X79">
-        <v>-505.56900000000002</v>
+        <v>-1239.3599999999999</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="5"/>
-        <v>-0.15509999999999913</v>
+        <v>-0.42759999999999998</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
@@ -13956,14 +13956,14 @@
         <v>75</v>
       </c>
       <c r="W80">
-        <v>-14.622</v>
+        <v>-13.623100000000001</v>
       </c>
       <c r="X80">
-        <v>-478.76</v>
+        <v>-1285.3599999999999</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="5"/>
-        <v>-0.12159999999999904</v>
+        <v>-0.34140000000000015</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
@@ -13999,14 +13999,14 @@
         <v>76</v>
       </c>
       <c r="W81">
-        <v>-14.5906</v>
+        <v>-13.5365</v>
       </c>
       <c r="X81">
-        <v>-458.976</v>
+        <v>-1285.22</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="5"/>
-        <v>-9.0199999999999392E-2</v>
+        <v>-0.25479999999999947</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
@@ -14042,14 +14042,14 @@
         <v>77</v>
       </c>
       <c r="W82">
-        <v>-14.560600000000001</v>
+        <v>-13.452500000000001</v>
       </c>
       <c r="X82">
-        <v>-447.01600000000002</v>
+        <v>-1240.74</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="5"/>
-        <v>-6.0200000000000031E-2</v>
+        <v>-0.17079999999999984</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
@@ -14085,14 +14085,14 @@
         <v>78</v>
       </c>
       <c r="W83">
-        <v>-14.531499999999999</v>
+        <v>-13.373900000000001</v>
       </c>
       <c r="X83">
-        <v>-441.71699999999998</v>
+        <v>-1155.72</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1099999999998573E-2</v>
+        <v>-9.220000000000006E-2</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
@@ -14128,14 +14128,14 @@
         <v>79</v>
       </c>
       <c r="W84">
-        <v>-14.503</v>
+        <v>-13.302899999999999</v>
       </c>
       <c r="X84">
-        <v>-439.56700000000001</v>
+        <v>-1034.83</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" si="5"/>
-        <v>-2.5999999999992696E-3</v>
+        <v>-2.1199999999998553E-2</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.2">
@@ -14171,14 +14171,14 @@
         <v>80</v>
       </c>
       <c r="W85">
-        <v>-14.475099999999999</v>
+        <v>-13.2416</v>
       </c>
       <c r="X85">
-        <v>-434.86799999999999</v>
+        <v>-882.74800000000005</v>
       </c>
       <c r="AC85" s="1">
         <f t="shared" si="5"/>
-        <v>2.5300000000001432E-2</v>
+        <v>4.0100000000000691E-2</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.2">
@@ -14214,14 +14214,14 @@
         <v>81</v>
       </c>
       <c r="W86">
-        <v>-14.4481</v>
+        <v>-13.1914</v>
       </c>
       <c r="X86">
-        <v>-420.54599999999999</v>
+        <v>-703.93299999999999</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="5"/>
-        <v>5.2300000000000679E-2</v>
+        <v>9.0300000000000935E-2</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
@@ -14257,14 +14257,14 @@
         <v>82</v>
       </c>
       <c r="W87">
-        <v>-14.422700000000001</v>
+        <v>-13.153700000000001</v>
       </c>
       <c r="X87">
-        <v>-389.46899999999999</v>
+        <v>-502.99700000000001</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" si="5"/>
-        <v>7.7700000000000102E-2</v>
+        <v>0.12800000000000011</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
@@ -14300,14 +14300,14 @@
         <v>83</v>
       </c>
       <c r="W88">
-        <v>-14.4003</v>
+        <v>-13.1294</v>
       </c>
       <c r="X88">
-        <v>-336.03800000000001</v>
+        <v>-285.72899999999998</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="5"/>
-        <v>0.10010000000000119</v>
+        <v>0.15230000000000032</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
@@ -14343,14 +14343,14 @@
         <v>84</v>
       </c>
       <c r="W89">
-        <v>-14.382099999999999</v>
+        <v>-13.1188</v>
       </c>
       <c r="X89">
-        <v>-257.66899999999998</v>
+        <v>-60.465000000000003</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" si="5"/>
-        <v>0.1183000000000014</v>
+        <v>0.16290000000000049</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
@@ -14386,14 +14386,14 @@
         <v>85</v>
       </c>
       <c r="W90">
-        <v>-14.3696</v>
+        <v>-13.1219</v>
       </c>
       <c r="X90">
-        <v>-155.81800000000001</v>
+        <v>160.76300000000001</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="5"/>
-        <v>0.13080000000000069</v>
+        <v>0.15980000000000061</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
@@ -14429,14 +14429,14 @@
         <v>86</v>
       </c>
       <c r="W91">
-        <v>-14.363799999999999</v>
+        <v>-13.137499999999999</v>
       </c>
       <c r="X91">
-        <v>-36.307699999999997</v>
+        <v>361.94799999999998</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="5"/>
-        <v>0.13660000000000139</v>
+        <v>0.14420000000000144</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.2">
@@ -14472,14 +14472,14 @@
         <v>87</v>
       </c>
       <c r="W92">
-        <v>-14.365399999999999</v>
+        <v>-13.1638</v>
       </c>
       <c r="X92">
-        <v>91.156599999999997</v>
+        <v>524.32399999999996</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" si="5"/>
-        <v>0.13500000000000156</v>
+        <v>0.11790000000000056</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
@@ -14515,14 +14515,14 @@
         <v>88</v>
       </c>
       <c r="W93">
-        <v>-14.3743</v>
+        <v>-13.1976</v>
       </c>
       <c r="X93">
-        <v>214.202</v>
+        <v>629.28399999999999</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" si="5"/>
-        <v>0.12610000000000099</v>
+        <v>8.4100000000001174E-2</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.2">
@@ -14558,14 +14558,14 @@
         <v>89</v>
       </c>
       <c r="W94">
-        <v>-14.389699999999999</v>
+        <v>-13.234999999999999</v>
       </c>
       <c r="X94">
-        <v>319.50799999999998</v>
+        <v>662.57899999999995</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" si="5"/>
-        <v>0.11070000000000135</v>
+        <v>4.6700000000001296E-2</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
@@ -14601,14 +14601,14 @@
         <v>90</v>
       </c>
       <c r="W95">
-        <v>-14.4102</v>
+        <v>-13.271699999999999</v>
       </c>
       <c r="X95">
-        <v>394.721</v>
+        <v>618.65499999999997</v>
       </c>
       <c r="AC95" s="1">
         <f t="shared" si="5"/>
-        <v>9.0200000000001168E-2</v>
+        <v>1.0000000000001563E-2</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
@@ -14644,14 +14644,14 @@
         <v>91</v>
       </c>
       <c r="W96">
-        <v>-14.4335</v>
+        <v>-13.303599999999999</v>
       </c>
       <c r="X96">
-        <v>430.209</v>
+        <v>503.61500000000001</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="5"/>
-        <v>6.6900000000000404E-2</v>
+        <v>-2.1899999999998698E-2</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
@@ -14687,14 +14687,14 @@
         <v>92</v>
       </c>
       <c r="W97">
-        <v>-14.4574</v>
+        <v>-13.3271</v>
       </c>
       <c r="X97">
-        <v>420.44499999999999</v>
+        <v>335.423</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="5"/>
-        <v>4.3000000000001037E-2</v>
+        <v>-4.5399999999998997E-2</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
@@ -14730,14 +14730,14 @@
         <v>93</v>
       </c>
       <c r="W98">
-        <v>-14.479200000000001</v>
+        <v>-13.340199999999999</v>
       </c>
       <c r="X98">
-        <v>364.96600000000001</v>
+        <v>140.82300000000001</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="5"/>
-        <v>2.120000000000033E-2</v>
+        <v>-5.8499999999998664E-2</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
@@ -14773,14 +14773,14 @@
         <v>94</v>
       </c>
       <c r="W99">
-        <v>-14.496600000000001</v>
+        <v>-13.342599999999999</v>
       </c>
       <c r="X99">
-        <v>269.20299999999997</v>
+        <v>-50.086399999999998</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="5"/>
-        <v>3.8000000000000256E-3</v>
+        <v>-6.08999999999984E-2</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
@@ -14816,14 +14816,14 @@
         <v>95</v>
       </c>
       <c r="W100">
-        <v>-14.5078</v>
+        <v>-13.3354</v>
       </c>
       <c r="X100">
-        <v>145.63900000000001</v>
+        <v>-209.15799999999999</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="5"/>
-        <v>-7.3999999999987409E-3</v>
+        <v>-5.3699999999999193E-2</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
@@ -14859,14 +14859,14 @@
         <v>96</v>
       </c>
       <c r="W101">
-        <v>-14.5121</v>
+        <v>-13.321300000000001</v>
       </c>
       <c r="X101">
-        <v>15.6905</v>
+        <v>-311.79899999999998</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" si="5"/>
-        <v>-1.1699999999999378E-2</v>
+        <v>-3.960000000000008E-2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
@@ -14902,14 +14902,14 @@
         <v>97</v>
       </c>
       <c r="W102">
-        <v>-14.51</v>
+        <v>-13.303900000000001</v>
       </c>
       <c r="X102">
-        <v>-87.621799999999993</v>
+        <v>-332.28100000000001</v>
       </c>
       <c r="AC102" s="1">
         <f t="shared" si="5"/>
-        <v>-9.5999999999989427E-3</v>
+        <v>-2.2199999999999775E-2</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
@@ -14945,14 +14945,14 @@
         <v>98</v>
       </c>
       <c r="W103">
-        <v>-14.504200000000001</v>
+        <v>-13.288399999999999</v>
       </c>
       <c r="X103">
-        <v>-116.089</v>
+        <v>-236.92699999999999</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" si="5"/>
-        <v>-3.8000000000000256E-3</v>
+        <v>-6.699999999998596E-3</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
@@ -14988,10 +14988,10 @@
         <v>99</v>
       </c>
       <c r="W104">
-        <v>-14.500400000000001</v>
+        <v>-13.281700000000001</v>
       </c>
       <c r="X104" s="1">
-        <v>-4.6804500000000002E-11</v>
+        <v>-6.3657000000000003E-11</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" si="5"/>
@@ -15031,7 +15031,7 @@
         <v>100</v>
       </c>
       <c r="W105">
-        <v>-14.500400000000001</v>
+        <v>-13.281700000000001</v>
       </c>
       <c r="X105">
         <v>0</v>

--- a/MTP_fitting/pair_test.xlsx
+++ b/MTP_fitting/pair_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/MTP_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/MTP_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31706BF-DE56-DF4F-AECB-625B0C82A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C67EE-C381-2E47-82A5-550F31D48737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
   </bookViews>
@@ -3897,307 +3897,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>601315000000000</c:v>
+                  <c:v>211649000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601315000000000</c:v>
+                  <c:v>211649000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346378000000000</c:v>
+                  <c:v>120133000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197707000000000</c:v>
+                  <c:v>67556900000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111784000000000</c:v>
+                  <c:v>37625900000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62585800000000</c:v>
+                  <c:v>20747100000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34686900000000</c:v>
+                  <c:v>11321700000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19023600000000</c:v>
+                  <c:v>6111850000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10320300000000</c:v>
+                  <c:v>3262420000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5536090000000</c:v>
+                  <c:v>1721100000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2935280000000</c:v>
+                  <c:v>896890000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1537660000000</c:v>
+                  <c:v>461419000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>795525000000</c:v>
+                  <c:v>234211000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>406309000000</c:v>
+                  <c:v>117216000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>204783000000</c:v>
+                  <c:v>57798700000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101811000000</c:v>
+                  <c:v>28058800000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49911500000</c:v>
+                  <c:v>13399200000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24119700000</c:v>
+                  <c:v>6288840000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11486300000</c:v>
+                  <c:v>2898340000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5389370000</c:v>
+                  <c:v>1310450000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2491010000</c:v>
+                  <c:v>580759000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1134150000</c:v>
+                  <c:v>252079000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>508653000</c:v>
+                  <c:v>107098000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224730000</c:v>
+                  <c:v>44527000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97817100</c:v>
+                  <c:v>18120700</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41943200</c:v>
+                  <c:v>7225610</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17711900</c:v>
+                  <c:v>2828480</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7359980</c:v>
+                  <c:v>1089980</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3004690</c:v>
+                  <c:v>414776</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1201780</c:v>
+                  <c:v>156177</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>468832</c:v>
+                  <c:v>58091.7</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>177187</c:v>
+                  <c:v>21154.6</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>64213.5</c:v>
+                  <c:v>7379.99</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>21963.200000000001</c:v>
+                  <c:v>2355.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>6901</c:v>
+                  <c:v>612.005</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>1885.3</c:v>
+                  <c:v>69.631600000000006</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>380.66300000000001</c:v>
+                  <c:v>-59.914099999999998</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>5.5625999999999998</c:v>
+                  <c:v>-66.369399999999999</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>-52.241700000000002</c:v>
+                  <c:v>-48.064799999999998</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>-42.516300000000001</c:v>
+                  <c:v>-32.532499999999999</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>-28.9909</c:v>
+                  <c:v>-23.734500000000001</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>-21.6084</c:v>
+                  <c:v>-19.634499999999999</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>-18.5578</c:v>
+                  <c:v>-17.881599999999999</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>-17.3917</c:v>
+                  <c:v>-17.0532</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>-16.831</c:v>
+                  <c:v>-16.5215</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>-16.427299999999999</c:v>
+                  <c:v>-16.088699999999999</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>-16.084399999999999</c:v>
+                  <c:v>-15.7225</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>-15.8005</c:v>
+                  <c:v>-15.427199999999999</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>-15.5763</c:v>
+                  <c:v>-15.1999</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>-15.4009</c:v>
+                  <c:v>-15.026300000000001</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>-15.2578</c:v>
+                  <c:v>-14.887700000000001</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>-15.1327</c:v>
+                  <c:v>-14.7675</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>-15.0159</c:v>
+                  <c:v>-14.6541</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>-14.902799999999999</c:v>
+                  <c:v>-14.540900000000001</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>-14.792</c:v>
+                  <c:v>-14.4261</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>-14.6843</c:v>
+                  <c:v>-14.3102</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>-14.5814</c:v>
+                  <c:v>-14.1959</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>-14.4854</c:v>
+                  <c:v>-14.0863</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>-14.3985</c:v>
+                  <c:v>-13.9849</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>-14.3226</c:v>
+                  <c:v>-13.8947</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>-14.2591</c:v>
+                  <c:v>-13.818199999999999</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>-14.208600000000001</c:v>
+                  <c:v>-13.756500000000001</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>-14.1708</c:v>
+                  <c:v>-13.7097</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>-14.1442</c:v>
+                  <c:v>-13.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>-14.126300000000001</c:v>
+                  <c:v>-13.654400000000001</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>-14.1136</c:v>
+                  <c:v>-13.6394</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>-14.101800000000001</c:v>
+                  <c:v>-13.626899999999999</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>-14.0869</c:v>
+                  <c:v>-13.612299999999999</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>-14.065</c:v>
+                  <c:v>-13.591200000000001</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>-14.033200000000001</c:v>
+                  <c:v>-13.559900000000001</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>-13.989800000000001</c:v>
+                  <c:v>-13.5161</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>-13.9344</c:v>
+                  <c:v>-13.4588</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>-13.867800000000001</c:v>
+                  <c:v>-13.388400000000001</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>-13.7918</c:v>
+                  <c:v>-13.3066</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>-13.709300000000001</c:v>
+                  <c:v>-13.2158</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>-13.623100000000001</c:v>
+                  <c:v>-13.119300000000001</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>-13.5365</c:v>
+                  <c:v>-13.020300000000001</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>-13.452500000000001</c:v>
+                  <c:v>-12.9222</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>-13.373900000000001</c:v>
+                  <c:v>-12.828200000000001</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>-13.302899999999999</c:v>
+                  <c:v>-12.741099999999999</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>-13.2416</c:v>
+                  <c:v>-12.663500000000001</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>-13.1914</c:v>
+                  <c:v>-12.5976</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>-13.153700000000001</c:v>
+                  <c:v>-12.5451</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>-13.1294</c:v>
+                  <c:v>-12.5077</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>-13.1188</c:v>
+                  <c:v>-12.4862</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>-13.1219</c:v>
+                  <c:v>-12.480700000000001</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>-13.137499999999999</c:v>
+                  <c:v>-12.490500000000001</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>-13.1638</c:v>
+                  <c:v>-12.513500000000001</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>-13.1976</c:v>
+                  <c:v>-12.546200000000001</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>-13.234999999999999</c:v>
+                  <c:v>-12.584300000000001</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>-13.271699999999999</c:v>
+                  <c:v>-12.6229</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>-13.303599999999999</c:v>
+                  <c:v>-12.657</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>-13.3271</c:v>
+                  <c:v>-12.6828</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>-13.340199999999999</c:v>
+                  <c:v>-12.697699999999999</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>-13.342599999999999</c:v>
+                  <c:v>-12.7011</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>-13.3354</c:v>
+                  <c:v>-12.6944</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>-13.321300000000001</c:v>
+                  <c:v>-12.680099999999999</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>-13.303900000000001</c:v>
+                  <c:v>-12.6624</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>-13.288399999999999</c:v>
+                  <c:v>-12.646699999999999</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>-13.281700000000001</c:v>
+                  <c:v>-12.639900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>-13.281700000000001</c:v>
+                  <c:v>-12.639900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,307 +4750,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>601315000000000</c:v>
+                  <c:v>211649000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601315000000000</c:v>
+                  <c:v>211649000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346378000000000</c:v>
+                  <c:v>120133000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197707000000000</c:v>
+                  <c:v>67556900000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111784000000000</c:v>
+                  <c:v>37625900000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62585800000000</c:v>
+                  <c:v>20747100000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34686900000000</c:v>
+                  <c:v>11321700000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19023600000000</c:v>
+                  <c:v>6111850000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10320300000000</c:v>
+                  <c:v>3262420000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5536090000000</c:v>
+                  <c:v>1721100000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2935280000000</c:v>
+                  <c:v>896890000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1537660000000</c:v>
+                  <c:v>461419000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>795525000000</c:v>
+                  <c:v>234211000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>406309000000</c:v>
+                  <c:v>117216000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>204783000000</c:v>
+                  <c:v>57798700000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101811000000</c:v>
+                  <c:v>28058800000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49911500000</c:v>
+                  <c:v>13399200000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24119700000</c:v>
+                  <c:v>6288840000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11486300000</c:v>
+                  <c:v>2898340000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5389370000</c:v>
+                  <c:v>1310450000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2491010000</c:v>
+                  <c:v>580759000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1134150000</c:v>
+                  <c:v>252079000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>508653000</c:v>
+                  <c:v>107098000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224730000</c:v>
+                  <c:v>44527000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97817100</c:v>
+                  <c:v>18120700</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41943200</c:v>
+                  <c:v>7225610</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17711900</c:v>
+                  <c:v>2828480</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7359980</c:v>
+                  <c:v>1089980</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3004690</c:v>
+                  <c:v>414776</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1201780</c:v>
+                  <c:v>156177</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>468832</c:v>
+                  <c:v>58091.7</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>177187</c:v>
+                  <c:v>21154.6</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>64213.5</c:v>
+                  <c:v>7379.99</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>21963.200000000001</c:v>
+                  <c:v>2355.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>6901</c:v>
+                  <c:v>612.005</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>1885.3</c:v>
+                  <c:v>69.631600000000006</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>380.66300000000001</c:v>
+                  <c:v>-59.914099999999998</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>5.5625999999999998</c:v>
+                  <c:v>-66.369399999999999</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>-52.241700000000002</c:v>
+                  <c:v>-48.064799999999998</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>-42.516300000000001</c:v>
+                  <c:v>-32.532499999999999</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>-28.9909</c:v>
+                  <c:v>-23.734500000000001</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>-21.6084</c:v>
+                  <c:v>-19.634499999999999</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>-18.5578</c:v>
+                  <c:v>-17.881599999999999</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>-17.3917</c:v>
+                  <c:v>-17.0532</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>-16.831</c:v>
+                  <c:v>-16.5215</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>-16.427299999999999</c:v>
+                  <c:v>-16.088699999999999</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>-16.084399999999999</c:v>
+                  <c:v>-15.7225</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>-15.8005</c:v>
+                  <c:v>-15.427199999999999</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>-15.5763</c:v>
+                  <c:v>-15.1999</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>-15.4009</c:v>
+                  <c:v>-15.026300000000001</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>-15.2578</c:v>
+                  <c:v>-14.887700000000001</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>-15.1327</c:v>
+                  <c:v>-14.7675</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>-15.0159</c:v>
+                  <c:v>-14.6541</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>-14.902799999999999</c:v>
+                  <c:v>-14.540900000000001</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>-14.792</c:v>
+                  <c:v>-14.4261</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>-14.6843</c:v>
+                  <c:v>-14.3102</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>-14.5814</c:v>
+                  <c:v>-14.1959</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>-14.4854</c:v>
+                  <c:v>-14.0863</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>-14.3985</c:v>
+                  <c:v>-13.9849</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>-14.3226</c:v>
+                  <c:v>-13.8947</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>-14.2591</c:v>
+                  <c:v>-13.818199999999999</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>-14.208600000000001</c:v>
+                  <c:v>-13.756500000000001</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>-14.1708</c:v>
+                  <c:v>-13.7097</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>-14.1442</c:v>
+                  <c:v>-13.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>-14.126300000000001</c:v>
+                  <c:v>-13.654400000000001</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>-14.1136</c:v>
+                  <c:v>-13.6394</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>-14.101800000000001</c:v>
+                  <c:v>-13.626899999999999</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>-14.0869</c:v>
+                  <c:v>-13.612299999999999</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>-14.065</c:v>
+                  <c:v>-13.591200000000001</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>-14.033200000000001</c:v>
+                  <c:v>-13.559900000000001</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>-13.989800000000001</c:v>
+                  <c:v>-13.5161</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>-13.9344</c:v>
+                  <c:v>-13.4588</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>-13.867800000000001</c:v>
+                  <c:v>-13.388400000000001</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>-13.7918</c:v>
+                  <c:v>-13.3066</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>-13.709300000000001</c:v>
+                  <c:v>-13.2158</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>-13.623100000000001</c:v>
+                  <c:v>-13.119300000000001</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>-13.5365</c:v>
+                  <c:v>-13.020300000000001</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>-13.452500000000001</c:v>
+                  <c:v>-12.9222</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>-13.373900000000001</c:v>
+                  <c:v>-12.828200000000001</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>-13.302899999999999</c:v>
+                  <c:v>-12.741099999999999</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>-13.2416</c:v>
+                  <c:v>-12.663500000000001</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>-13.1914</c:v>
+                  <c:v>-12.5976</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>-13.153700000000001</c:v>
+                  <c:v>-12.5451</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>-13.1294</c:v>
+                  <c:v>-12.5077</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>-13.1188</c:v>
+                  <c:v>-12.4862</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>-13.1219</c:v>
+                  <c:v>-12.480700000000001</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>-13.137499999999999</c:v>
+                  <c:v>-12.490500000000001</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>-13.1638</c:v>
+                  <c:v>-12.513500000000001</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>-13.1976</c:v>
+                  <c:v>-12.546200000000001</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>-13.234999999999999</c:v>
+                  <c:v>-12.584300000000001</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>-13.271699999999999</c:v>
+                  <c:v>-12.6229</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>-13.303599999999999</c:v>
+                  <c:v>-12.657</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>-13.3271</c:v>
+                  <c:v>-12.6828</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>-13.340199999999999</c:v>
+                  <c:v>-12.697699999999999</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>-13.342599999999999</c:v>
+                  <c:v>-12.7011</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>-13.3354</c:v>
+                  <c:v>-12.6944</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>-13.321300000000001</c:v>
+                  <c:v>-12.680099999999999</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>-13.303900000000001</c:v>
+                  <c:v>-12.6624</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>-13.288399999999999</c:v>
+                  <c:v>-12.646699999999999</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>-13.281700000000001</c:v>
+                  <c:v>-12.639900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>-13.281700000000001</c:v>
+                  <c:v>-12.639900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,301 +5607,301 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>601315000000013.25</c:v>
+                  <c:v>211649000000012.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601315000000013.25</c:v>
+                  <c:v>211649000000012.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346378000000013.31</c:v>
+                  <c:v>120133000000012.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197707000000013.28</c:v>
+                  <c:v>67556900000012.641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111784000000013.28</c:v>
+                  <c:v>37625900000012.641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62585800000013.281</c:v>
+                  <c:v>20747100000012.641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34686900000013.281</c:v>
+                  <c:v>11321700000012.641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19023600000013.281</c:v>
+                  <c:v>6111850000012.6396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10320300000013.281</c:v>
+                  <c:v>3262420000012.6401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5536090000013.2812</c:v>
+                  <c:v>1721100000012.6399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2935280000013.2817</c:v>
+                  <c:v>896890000012.63989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1537660000013.2817</c:v>
+                  <c:v>461419000012.63989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>795525000013.28174</c:v>
+                  <c:v>234211000012.63989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>406309000013.28168</c:v>
+                  <c:v>117216000012.63989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>204783000013.28171</c:v>
+                  <c:v>57798700012.6399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101811000013.28169</c:v>
+                  <c:v>28058800012.6399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49911500013.2817</c:v>
+                  <c:v>13399200012.6399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24119700013.2817</c:v>
+                  <c:v>6288840012.6399002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11486300013.2817</c:v>
+                  <c:v>2898340012.6399002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5389370013.2817001</c:v>
+                  <c:v>1310450012.6399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2491010013.2817001</c:v>
+                  <c:v>580759012.63989997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1134150013.2816999</c:v>
+                  <c:v>252079012.6399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>508653013.28170002</c:v>
+                  <c:v>107098012.6399</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224730013.28169999</c:v>
+                  <c:v>44527012.639899999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97817113.2817</c:v>
+                  <c:v>18120712.639899999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41943213.2817</c:v>
+                  <c:v>7225622.6398999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17711913.2817</c:v>
+                  <c:v>2828492.6398999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7359993.2817000002</c:v>
+                  <c:v>1089992.6399000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3004703.2817000002</c:v>
+                  <c:v>414788.63990000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1201793.2816999999</c:v>
+                  <c:v>156189.63990000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>468845.28169999999</c:v>
+                  <c:v>58104.339899999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>177200.28169999999</c:v>
+                  <c:v>21167.239899999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>64226.7817</c:v>
+                  <c:v>7392.6298999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21976.4817</c:v>
+                  <c:v>2367.8398999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6914.2816999999995</c:v>
+                  <c:v>624.64490000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1898.5817</c:v>
+                  <c:v>82.271500000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>393.94470000000001</c:v>
+                  <c:v>-47.274199999999993</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.8443</c:v>
+                  <c:v>-53.729500000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-38.96</c:v>
+                  <c:v>-35.424899999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-29.2346</c:v>
+                  <c:v>-19.892599999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-15.709199999999999</c:v>
+                  <c:v>-11.0946</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.3266999999999989</c:v>
+                  <c:v>-6.9945999999999984</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.2760999999999996</c:v>
+                  <c:v>-5.241699999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4.1099999999999994</c:v>
+                  <c:v>-4.4132999999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.5492999999999988</c:v>
+                  <c:v>-3.8815999999999988</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.1455999999999982</c:v>
+                  <c:v>-3.4487999999999985</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.802699999999998</c:v>
+                  <c:v>-3.0825999999999993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.5187999999999988</c:v>
+                  <c:v>-2.7872999999999983</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.2945999999999991</c:v>
+                  <c:v>-2.5599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.1191999999999993</c:v>
+                  <c:v>-2.3864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.9760999999999989</c:v>
+                  <c:v>-2.2477999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.8509999999999991</c:v>
+                  <c:v>-2.1275999999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.7341999999999995</c:v>
+                  <c:v>-2.0141999999999989</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.6210999999999984</c:v>
+                  <c:v>-1.9009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.5102999999999991</c:v>
+                  <c:v>-1.7861999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.4025999999999996</c:v>
+                  <c:v>-1.6702999999999992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.2996999999999996</c:v>
+                  <c:v>-1.5559999999999992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.2036999999999995</c:v>
+                  <c:v>-1.4463999999999988</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.1167999999999996</c:v>
+                  <c:v>-1.3449999999999989</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.0408999999999988</c:v>
+                  <c:v>-1.2547999999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.97739999999999938</c:v>
+                  <c:v>-1.1782999999999983</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.92689999999999984</c:v>
+                  <c:v>-1.1166</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.88909999999999911</c:v>
+                  <c:v>-1.069799999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.86249999999999893</c:v>
+                  <c:v>-1.0366999999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.8445999999999998</c:v>
+                  <c:v>-1.0145</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.8318999999999992</c:v>
+                  <c:v>-0.99949999999999939</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.82010000000000005</c:v>
+                  <c:v>-0.98699999999999832</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.80519999999999925</c:v>
+                  <c:v>-0.9723999999999986</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.78329999999999878</c:v>
+                  <c:v>-0.95129999999999981</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.75150000000000006</c:v>
+                  <c:v>-0.91999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.70809999999999995</c:v>
+                  <c:v>-0.87619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.65269999999999939</c:v>
+                  <c:v>-0.8188999999999993</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.58610000000000007</c:v>
+                  <c:v>-0.74849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.51009999999999955</c:v>
+                  <c:v>-0.66669999999999874</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.42759999999999998</c:v>
+                  <c:v>-0.57589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.34140000000000015</c:v>
+                  <c:v>-0.47940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.25479999999999947</c:v>
+                  <c:v>-0.38039999999999985</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.17079999999999984</c:v>
+                  <c:v>-0.28229999999999933</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-9.220000000000006E-2</c:v>
+                  <c:v>-0.18829999999999991</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.1199999999998553E-2</c:v>
+                  <c:v>-0.10119999999999862</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0100000000000691E-2</c:v>
+                  <c:v>-2.3600000000000065E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.0300000000000935E-2</c:v>
+                  <c:v>4.2300000000000892E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.12800000000000011</c:v>
+                  <c:v>9.4800000000001106E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.15230000000000032</c:v>
+                  <c:v>0.13220000000000098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.16290000000000049</c:v>
+                  <c:v>0.15370000000000061</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.15980000000000061</c:v>
+                  <c:v>0.15920000000000023</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.14420000000000144</c:v>
+                  <c:v>0.14939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.11790000000000056</c:v>
+                  <c:v>0.12640000000000029</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.4100000000001174E-2</c:v>
+                  <c:v>9.3700000000000117E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.6700000000001296E-2</c:v>
+                  <c:v>5.5600000000000094E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0000000000001563E-2</c:v>
+                  <c:v>1.7000000000001236E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.1899999999998698E-2</c:v>
+                  <c:v>-1.7099999999999227E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-4.5399999999998997E-2</c:v>
+                  <c:v>-4.2899999999999494E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-5.8499999999998664E-2</c:v>
+                  <c:v>-5.7799999999998519E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.08999999999984E-2</c:v>
+                  <c:v>-6.1199999999999477E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-5.3699999999999193E-2</c:v>
+                  <c:v>-5.4499999999999105E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.960000000000008E-2</c:v>
+                  <c:v>-4.0199999999998681E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.2199999999999775E-2</c:v>
+                  <c:v>-2.2499999999999076E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-6.699999999998596E-3</c:v>
+                  <c:v>-6.7999999999983629E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -10195,15 +10195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10590,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFC2F2-B2E1-BA4C-83BC-6A37C3092F9C}">
   <dimension ref="B1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q11" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10731,14 +10731,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>601315000000000</v>
+        <v>211649000000000</v>
       </c>
       <c r="X5" s="1">
-        <v>1.28059E+17</v>
+        <v>4.62824E+16</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ref="AC5:AC68" si="0">W5-$W$105</f>
-        <v>601315000000013.25</v>
+        <v>211649000000012.62</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
@@ -10774,14 +10774,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>601315000000000</v>
+        <v>211649000000000</v>
       </c>
       <c r="X6" s="1">
-        <v>1.28059E+17</v>
+        <v>4.62824E+16</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="0"/>
-        <v>601315000000013.25</v>
+        <v>211649000000012.62</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -10817,14 +10817,14 @@
         <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>346378000000000</v>
+        <v>120133000000000</v>
       </c>
       <c r="X7" s="1">
-        <v>1.12471E+17</v>
+        <v>4.00469E+16</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="0"/>
-        <v>346378000000013.31</v>
+        <v>120133000000012.64</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -10860,14 +10860,14 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
-        <v>197707000000000</v>
+        <v>67556900000000</v>
       </c>
       <c r="X8" s="1">
-        <v>8.70293E+16</v>
+        <v>3.05253E+16</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="0"/>
-        <v>197707000000013.28</v>
+        <v>67556900000012.641</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
@@ -10903,14 +10903,14 @@
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>111784000000000</v>
+        <v>37625900000000</v>
       </c>
       <c r="X9" s="1">
-        <v>6.25564E+16</v>
+        <v>2.1611E+16</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" si="0"/>
-        <v>111784000000013.28</v>
+        <v>37625900000012.641</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -10946,14 +10946,14 @@
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>62585800000000</v>
+        <v>20747100000000</v>
       </c>
       <c r="X10" s="1">
-        <v>4.27582E+16</v>
+        <v>1.45468E+16</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="0"/>
-        <v>62585800000013.281</v>
+        <v>20747100000012.641</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -10989,14 +10989,14 @@
         <v>6</v>
       </c>
       <c r="W11" s="1">
-        <v>34686900000000</v>
+        <v>11321700000000</v>
       </c>
       <c r="X11" s="1">
-        <v>2.81355E+16</v>
+        <v>9424740000000000</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="0"/>
-        <v>34686900000013.281</v>
+        <v>11321700000012.641</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
@@ -11032,14 +11032,14 @@
         <v>7</v>
       </c>
       <c r="W12" s="1">
-        <v>19023600000000</v>
+        <v>6111850000000</v>
       </c>
       <c r="X12" s="1">
-        <v>1.79516E+16</v>
+        <v>5919600000000000</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="0"/>
-        <v>19023600000013.281</v>
+        <v>6111850000012.6396</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -11075,14 +11075,14 @@
         <v>8</v>
       </c>
       <c r="W13" s="1">
-        <v>10320300000000</v>
+        <v>3262420000000</v>
       </c>
       <c r="X13" s="1">
-        <v>1.11562E+16</v>
+        <v>3620500000000000</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="0"/>
-        <v>10320300000013.281</v>
+        <v>3262420000012.6401</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
@@ -11118,14 +11118,14 @@
         <v>9</v>
       </c>
       <c r="W14" s="1">
-        <v>5536090000000</v>
+        <v>1721100000000</v>
       </c>
       <c r="X14" s="1">
-        <v>6772900000000000</v>
+        <v>2162440000000000</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="0"/>
-        <v>5536090000013.2812</v>
+        <v>1721100000012.6399</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
@@ -11161,14 +11161,14 @@
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>2935280000000</v>
+        <v>896890000000</v>
       </c>
       <c r="X15" s="1">
-        <v>4024670000000000</v>
+        <v>1263670000000000</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="0"/>
-        <v>2935280000013.2817</v>
+        <v>896890000012.63989</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
@@ -11204,14 +11204,14 @@
         <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>1537660000000</v>
+        <v>461419000000</v>
       </c>
       <c r="X16" s="1">
-        <v>2344050000000000</v>
+        <v>723378000000000</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="0"/>
-        <v>1537660000013.2817</v>
+        <v>461419000012.63989</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -11247,14 +11247,14 @@
         <v>12</v>
       </c>
       <c r="W17" s="1">
-        <v>795525000000</v>
+        <v>234211000000</v>
       </c>
       <c r="X17" s="1">
-        <v>1339290000000000</v>
+        <v>405944000000000</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="0"/>
-        <v>795525000013.28174</v>
+        <v>234211000012.63989</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -11290,14 +11290,14 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>406309000000</v>
+        <v>117216000000</v>
       </c>
       <c r="X18" s="1">
-        <v>751129000000000</v>
+        <v>223413000000000</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="0"/>
-        <v>406309000013.28168</v>
+        <v>117216000012.63989</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
@@ -11333,14 +11333,14 @@
         <v>14</v>
       </c>
       <c r="W19" s="1">
-        <v>204783000000</v>
+        <v>57798700000</v>
       </c>
       <c r="X19" s="1">
-        <v>413671000000000</v>
+        <v>120601000000000</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="0"/>
-        <v>204783000013.28171</v>
+        <v>57798700012.6399</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
@@ -11376,14 +11376,14 @@
         <v>15</v>
       </c>
       <c r="W20" s="1">
-        <v>101811000000</v>
+        <v>28058800000</v>
       </c>
       <c r="X20" s="1">
-        <v>223766000000000</v>
+        <v>63849600000000</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="0"/>
-        <v>101811000013.28169</v>
+        <v>28058800012.6399</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -11419,14 +11419,14 @@
         <v>16</v>
       </c>
       <c r="W21" s="1">
-        <v>49911500000</v>
+        <v>13399200000</v>
       </c>
       <c r="X21" s="1">
-        <v>118900000000000</v>
+        <v>33144400000000</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" si="0"/>
-        <v>49911500013.2817</v>
+        <v>13399200012.6399</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
@@ -11462,14 +11462,14 @@
         <v>17</v>
       </c>
       <c r="W22" s="1">
-        <v>24119700000</v>
+        <v>6288840000</v>
       </c>
       <c r="X22" s="1">
-        <v>62064500000000</v>
+        <v>16862500000000</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>24119700013.2817</v>
+        <v>6288840012.6399002</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
@@ -11505,14 +11505,14 @@
         <v>18</v>
       </c>
       <c r="W23" s="1">
-        <v>11486300000</v>
+        <v>2898340000</v>
       </c>
       <c r="X23" s="1">
-        <v>31825700000000</v>
+        <v>8403370000000</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="0"/>
-        <v>11486300013.2817</v>
+        <v>2898340012.6399002</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
@@ -11548,14 +11548,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <v>5389370000</v>
+        <v>1310450000</v>
       </c>
       <c r="X24" s="1">
-        <v>16032100000000</v>
+        <v>4099350000000</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="0"/>
-        <v>5389370013.2817001</v>
+        <v>1310450012.6399</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
@@ -11591,14 +11591,14 @@
         <v>20</v>
       </c>
       <c r="W25" s="1">
-        <v>2491010000</v>
+        <v>580759000</v>
       </c>
       <c r="X25" s="1">
-        <v>7933930000000</v>
+        <v>1956080000000</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="0"/>
-        <v>2491010013.2817001</v>
+        <v>580759012.63989997</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -11634,14 +11634,14 @@
         <v>21</v>
       </c>
       <c r="W26" s="1">
-        <v>1134150000</v>
+        <v>252079000</v>
       </c>
       <c r="X26" s="1">
-        <v>3857510000000</v>
+        <v>912290000000</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="0"/>
-        <v>1134150013.2816999</v>
+        <v>252079012.6399</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
@@ -11677,14 +11677,14 @@
         <v>22</v>
       </c>
       <c r="W27" s="1">
-        <v>508653000</v>
+        <v>107098000</v>
       </c>
       <c r="X27" s="1">
-        <v>1842920000000</v>
+        <v>415569000000</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" si="0"/>
-        <v>508653013.28170002</v>
+        <v>107098012.6399</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
@@ -11720,14 +11720,14 @@
         <v>23</v>
       </c>
       <c r="W28" s="1">
-        <v>224730000</v>
+        <v>44527000</v>
       </c>
       <c r="X28" s="1">
-        <v>865333000000</v>
+        <v>184787000000</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="0"/>
-        <v>224730013.28169999</v>
+        <v>44527012.639899999</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
@@ -11763,14 +11763,14 @@
         <v>24</v>
       </c>
       <c r="W29" s="1">
-        <v>97817100</v>
+        <v>18120700</v>
       </c>
       <c r="X29" s="1">
-        <v>399448000000</v>
+        <v>80188100000</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" si="0"/>
-        <v>97817113.2817</v>
+        <v>18120712.639899999</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
@@ -11806,14 +11806,14 @@
         <v>25</v>
       </c>
       <c r="W30" s="1">
-        <v>41943200</v>
+        <v>7225610</v>
       </c>
       <c r="X30" s="1">
-        <v>181332000000</v>
+        <v>33970000000</v>
       </c>
       <c r="AC30" s="1">
         <f t="shared" si="0"/>
-        <v>41943213.2817</v>
+        <v>7225622.6398999998</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
@@ -11849,14 +11849,14 @@
         <v>26</v>
       </c>
       <c r="W31" s="1">
-        <v>17711900</v>
+        <v>2828480</v>
       </c>
       <c r="X31" s="1">
-        <v>80969800000</v>
+        <v>14064700000</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="0"/>
-        <v>17711913.2817</v>
+        <v>2828492.6398999998</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
@@ -11892,14 +11892,14 @@
         <v>27</v>
       </c>
       <c r="W32" s="1">
-        <v>7359980</v>
+        <v>1089980</v>
       </c>
       <c r="X32" s="1">
-        <v>35563700000</v>
+        <v>5704500000</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="0"/>
-        <v>7359993.2817000002</v>
+        <v>1089992.6399000001</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.2">
@@ -11935,14 +11935,14 @@
         <v>28</v>
       </c>
       <c r="W33" s="1">
-        <v>3004690</v>
+        <v>414776</v>
       </c>
       <c r="X33" s="1">
-        <v>15357200000</v>
+        <v>2274590000</v>
       </c>
       <c r="AC33" s="1">
         <f t="shared" si="0"/>
-        <v>3004703.2817000002</v>
+        <v>414788.63990000001</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -11978,14 +11978,14 @@
         <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>1201780</v>
+        <v>156177</v>
       </c>
       <c r="X34" s="1">
-        <v>6511280000</v>
+        <v>895582000</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="0"/>
-        <v>1201793.2816999999</v>
+        <v>156189.63990000001</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
@@ -12021,14 +12021,14 @@
         <v>30</v>
       </c>
       <c r="W35" s="1">
-        <v>468832</v>
+        <v>58091.7</v>
       </c>
       <c r="X35" s="1">
-        <v>2703660000</v>
+        <v>349523000</v>
       </c>
       <c r="AC35" s="1">
         <f t="shared" si="0"/>
-        <v>468845.28169999999</v>
+        <v>58104.339899999999</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.2">
@@ -12064,14 +12064,14 @@
         <v>31</v>
       </c>
       <c r="W36">
-        <v>177187</v>
+        <v>21154.6</v>
       </c>
       <c r="X36" s="1">
-        <v>1094650000</v>
+        <v>135253000</v>
       </c>
       <c r="AC36" s="1">
         <f t="shared" si="0"/>
-        <v>177200.28169999999</v>
+        <v>21167.239899999997</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.2">
@@ -12107,14 +12107,14 @@
         <v>32</v>
       </c>
       <c r="W37">
-        <v>64213.5</v>
+        <v>7379.99</v>
       </c>
       <c r="X37" s="1">
-        <v>429177000</v>
+        <v>51513100</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="0"/>
-        <v>64226.7817</v>
+        <v>7392.6298999999999</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.2">
@@ -12150,14 +12150,14 @@
         <v>33</v>
       </c>
       <c r="W38">
-        <v>21963.200000000001</v>
+        <v>2355.1999999999998</v>
       </c>
       <c r="X38" s="1">
-        <v>161232000</v>
+        <v>18922300</v>
       </c>
       <c r="AC38" s="1">
         <f t="shared" si="0"/>
-        <v>21976.4817</v>
+        <v>2367.8398999999999</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
@@ -12193,14 +12193,14 @@
         <v>34</v>
       </c>
       <c r="W39">
-        <v>6901</v>
+        <v>612.005</v>
       </c>
       <c r="X39" s="1">
-        <v>57087500</v>
+        <v>6425040</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="0"/>
-        <v>6914.2816999999995</v>
+        <v>624.64490000000001</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
@@ -12236,14 +12236,14 @@
         <v>35</v>
       </c>
       <c r="W40">
-        <v>1885.3</v>
+        <v>69.631600000000006</v>
       </c>
       <c r="X40" s="1">
-        <v>18526500</v>
+        <v>1830730</v>
       </c>
       <c r="AC40" s="1">
         <f t="shared" si="0"/>
-        <v>1898.5817</v>
+        <v>82.271500000000003</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
@@ -12279,14 +12279,14 @@
         <v>36</v>
       </c>
       <c r="W41">
-        <v>380.66300000000001</v>
+        <v>-59.914099999999998</v>
       </c>
       <c r="X41" s="1">
-        <v>5212170</v>
+        <v>299500</v>
       </c>
       <c r="AC41" s="1">
         <f t="shared" si="0"/>
-        <v>393.94470000000001</v>
+        <v>-47.274199999999993</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
@@ -12322,14 +12322,14 @@
         <v>37</v>
       </c>
       <c r="W42">
-        <v>5.5625999999999998</v>
+        <v>-66.369399999999999</v>
       </c>
       <c r="X42" s="1">
-        <v>1087120</v>
+        <v>-104076</v>
       </c>
       <c r="AC42" s="1">
         <f t="shared" si="0"/>
-        <v>18.8443</v>
+        <v>-53.729500000000002</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
@@ -12365,14 +12365,14 @@
         <v>38</v>
       </c>
       <c r="W43">
-        <v>-52.241700000000002</v>
+        <v>-48.064799999999998</v>
       </c>
       <c r="X43">
-        <v>36261.599999999999</v>
+        <v>-141529</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="0"/>
-        <v>-38.96</v>
+        <v>-35.424899999999994</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
@@ -12408,14 +12408,14 @@
         <v>39</v>
       </c>
       <c r="W44">
-        <v>-42.516300000000001</v>
+        <v>-32.532499999999999</v>
       </c>
       <c r="X44">
-        <v>-120603</v>
+        <v>-93533</v>
       </c>
       <c r="AC44" s="1">
         <f t="shared" si="0"/>
-        <v>-29.2346</v>
+        <v>-19.892599999999998</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
@@ -12451,14 +12451,14 @@
         <v>40</v>
       </c>
       <c r="W45">
-        <v>-28.9909</v>
+        <v>-23.734500000000001</v>
       </c>
       <c r="X45">
-        <v>-83637.399999999994</v>
+        <v>-47878.1</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="0"/>
-        <v>-15.709199999999999</v>
+        <v>-11.0946</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
@@ -12494,14 +12494,14 @@
         <v>41</v>
       </c>
       <c r="W46">
-        <v>-21.6084</v>
+        <v>-19.634499999999999</v>
       </c>
       <c r="X46">
-        <v>-38644.1</v>
+        <v>-21303.3</v>
       </c>
       <c r="AC46" s="1">
         <f t="shared" si="0"/>
-        <v>-8.3266999999999989</v>
+        <v>-6.9945999999999984</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
@@ -12537,14 +12537,14 @@
         <v>42</v>
       </c>
       <c r="W47">
-        <v>-18.5578</v>
+        <v>-17.881599999999999</v>
       </c>
       <c r="X47">
-        <v>-15045.5</v>
+        <v>-9475.99</v>
       </c>
       <c r="AC47" s="1">
         <f t="shared" si="0"/>
-        <v>-5.2760999999999996</v>
+        <v>-5.241699999999998</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
@@ -12580,14 +12580,14 @@
         <v>43</v>
       </c>
       <c r="W48">
-        <v>-17.3917</v>
+        <v>-17.0532</v>
       </c>
       <c r="X48">
-        <v>-6323.61</v>
+        <v>-5330.79</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="0"/>
-        <v>-4.1099999999999994</v>
+        <v>-4.4132999999999996</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
@@ -12623,14 +12623,14 @@
         <v>44</v>
       </c>
       <c r="W49">
-        <v>-16.831</v>
+        <v>-16.5215</v>
       </c>
       <c r="X49">
-        <v>-3934.27</v>
+        <v>-4111.0200000000004</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5492999999999988</v>
+        <v>-3.8815999999999988</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
@@ -12666,14 +12666,14 @@
         <v>45</v>
       </c>
       <c r="W50">
-        <v>-16.427299999999999</v>
+        <v>-16.088699999999999</v>
       </c>
       <c r="X50">
-        <v>-3314.37</v>
+        <v>-3578.55</v>
       </c>
       <c r="AC50" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1455999999999982</v>
+        <v>-3.4487999999999985</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -12709,14 +12709,14 @@
         <v>46</v>
       </c>
       <c r="W51">
-        <v>-16.084399999999999</v>
+        <v>-15.7225</v>
       </c>
       <c r="X51">
-        <v>-2877.41</v>
+        <v>-3031.19</v>
       </c>
       <c r="AC51" s="1">
         <f t="shared" si="0"/>
-        <v>-2.802699999999998</v>
+        <v>-3.0825999999999993</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
@@ -12752,14 +12752,14 @@
         <v>47</v>
       </c>
       <c r="W52">
-        <v>-15.8005</v>
+        <v>-15.427199999999999</v>
       </c>
       <c r="X52">
-        <v>-2364.71</v>
+        <v>-2425.9699999999998</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5187999999999988</v>
+        <v>-2.7872999999999983</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
@@ -12795,14 +12795,14 @@
         <v>48</v>
       </c>
       <c r="W53">
-        <v>-15.5763</v>
+        <v>-15.1999</v>
       </c>
       <c r="X53">
-        <v>-1880.7</v>
+        <v>-1882.88</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2945999999999991</v>
+        <v>-2.5599999999999987</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
@@ -12838,14 +12838,14 @@
         <v>49</v>
       </c>
       <c r="W54">
-        <v>-15.4009</v>
+        <v>-15.026300000000001</v>
       </c>
       <c r="X54">
-        <v>-1523.03</v>
+        <v>-1488.65</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1191999999999993</v>
+        <v>-2.3864000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
@@ -12881,14 +12881,14 @@
         <v>50</v>
       </c>
       <c r="W55">
-        <v>-15.2578</v>
+        <v>-14.887700000000001</v>
       </c>
       <c r="X55">
-        <v>-1310.94</v>
+        <v>-1260.3</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9760999999999989</v>
+        <v>-2.2477999999999998</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
@@ -12924,14 +12924,14 @@
         <v>51</v>
       </c>
       <c r="W56">
-        <v>-15.1327</v>
+        <v>-14.7675</v>
       </c>
       <c r="X56">
-        <v>-1212.48</v>
+        <v>-1167.44</v>
       </c>
       <c r="AC56" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8509999999999991</v>
+        <v>-2.1275999999999993</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
@@ -12967,14 +12967,14 @@
         <v>52</v>
       </c>
       <c r="W57">
-        <v>-15.0159</v>
+        <v>-14.6541</v>
       </c>
       <c r="X57">
-        <v>-1181.07</v>
+        <v>-1161.94</v>
       </c>
       <c r="AC57" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7341999999999995</v>
+        <v>-2.0141999999999989</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
@@ -13010,14 +13010,14 @@
         <v>53</v>
       </c>
       <c r="W58">
-        <v>-14.902799999999999</v>
+        <v>-14.540900000000001</v>
       </c>
       <c r="X58">
-        <v>-1176.6400000000001</v>
+        <v>-1197.5</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6210999999999984</v>
+        <v>-1.9009999999999998</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
@@ -13053,14 +13053,14 @@
         <v>54</v>
       </c>
       <c r="W59">
-        <v>-14.792</v>
+        <v>-14.4261</v>
       </c>
       <c r="X59">
-        <v>-1171.97</v>
+        <v>-1238.23</v>
       </c>
       <c r="AC59" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5102999999999991</v>
+        <v>-1.7861999999999991</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
@@ -13096,14 +13096,14 @@
         <v>55</v>
       </c>
       <c r="W60">
-        <v>-14.6843</v>
+        <v>-14.3102</v>
       </c>
       <c r="X60">
-        <v>-1151.3699999999999</v>
+        <v>-1259.93</v>
       </c>
       <c r="AC60" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4025999999999996</v>
+        <v>-1.6702999999999992</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
@@ -13139,14 +13139,14 @@
         <v>56</v>
       </c>
       <c r="W61">
-        <v>-14.5814</v>
+        <v>-14.1959</v>
       </c>
       <c r="X61">
-        <v>-1106.99</v>
+        <v>-1248.3599999999999</v>
       </c>
       <c r="AC61" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2996999999999996</v>
+        <v>-1.5559999999999992</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
@@ -13182,14 +13182,14 @@
         <v>57</v>
       </c>
       <c r="W62">
-        <v>-14.4854</v>
+        <v>-14.0863</v>
       </c>
       <c r="X62">
-        <v>-1035.76</v>
+        <v>-1196.97</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2036999999999995</v>
+        <v>-1.4463999999999988</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
@@ -13225,14 +13225,14 @@
         <v>58</v>
       </c>
       <c r="W63">
-        <v>-14.3985</v>
+        <v>-13.9849</v>
       </c>
       <c r="X63">
-        <v>-937.81799999999998</v>
+        <v>-1105.1600000000001</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1167999999999996</v>
+        <v>-1.3449999999999989</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
@@ -13268,14 +13268,14 @@
         <v>59</v>
       </c>
       <c r="W64">
-        <v>-14.3226</v>
+        <v>-13.8947</v>
       </c>
       <c r="X64">
-        <v>-816.23599999999999</v>
+        <v>-977.298</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0408999999999988</v>
+        <v>-1.2547999999999995</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
@@ -13311,14 +13311,14 @@
         <v>60</v>
       </c>
       <c r="W65">
-        <v>-14.2591</v>
+        <v>-13.818199999999999</v>
       </c>
       <c r="X65">
-        <v>-677.351</v>
+        <v>-822.26599999999996</v>
       </c>
       <c r="AC65" s="1">
         <f t="shared" si="0"/>
-        <v>-0.97739999999999938</v>
+        <v>-1.1782999999999983</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -13354,14 +13354,14 @@
         <v>61</v>
       </c>
       <c r="W66">
-        <v>-14.208600000000001</v>
+        <v>-13.756500000000001</v>
       </c>
       <c r="X66">
-        <v>-531.06299999999999</v>
+        <v>-652.98500000000001</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="0"/>
-        <v>-0.92689999999999984</v>
+        <v>-1.1166</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13397,14 +13397,14 @@
         <v>62</v>
       </c>
       <c r="W67">
-        <v>-14.1708</v>
+        <v>-13.7097</v>
       </c>
       <c r="X67">
-        <v>-390.44299999999998</v>
+        <v>-485.53800000000001</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="0"/>
-        <v>-0.88909999999999911</v>
+        <v>-1.069799999999999</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
@@ -13440,14 +13440,14 @@
         <v>63</v>
       </c>
       <c r="W68">
-        <v>-14.1442</v>
+        <v>-13.676600000000001</v>
       </c>
       <c r="X68">
-        <v>-270.435</v>
+        <v>-337.64600000000002</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="0"/>
-        <v>-0.86249999999999893</v>
+        <v>-1.0366999999999997</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -13483,14 +13483,14 @@
         <v>64</v>
       </c>
       <c r="W69">
-        <v>-14.126300000000001</v>
+        <v>-13.654400000000001</v>
       </c>
       <c r="X69">
-        <v>-185.733</v>
+        <v>-226.50399999999999</v>
       </c>
       <c r="AC69" s="1">
         <f t="shared" ref="AC69:AC104" si="5">W69-$W$105</f>
-        <v>-0.8445999999999998</v>
+        <v>-1.0145</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
@@ -13526,14 +13526,14 @@
         <v>65</v>
       </c>
       <c r="W70">
-        <v>-14.1136</v>
+        <v>-13.6394</v>
       </c>
       <c r="X70">
-        <v>-148.267</v>
+        <v>-166.3</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" si="5"/>
-        <v>-0.8318999999999992</v>
+        <v>-0.99949999999999939</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -13569,14 +13569,14 @@
         <v>66</v>
       </c>
       <c r="W71">
-        <v>-14.101800000000001</v>
+        <v>-13.626899999999999</v>
       </c>
       <c r="X71">
-        <v>-164.91200000000001</v>
+        <v>-165.92</v>
       </c>
       <c r="AC71" s="1">
         <f t="shared" si="5"/>
-        <v>-0.82010000000000005</v>
+        <v>-0.98699999999999832</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -13612,14 +13612,14 @@
         <v>67</v>
       </c>
       <c r="W72">
-        <v>-14.0869</v>
+        <v>-13.612299999999999</v>
       </c>
       <c r="X72">
-        <v>-236.00700000000001</v>
+        <v>-227.36099999999999</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" si="5"/>
-        <v>-0.80519999999999925</v>
+        <v>-0.9723999999999986</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -13655,14 +13655,14 @@
         <v>68</v>
       </c>
       <c r="W73">
-        <v>-14.065</v>
+        <v>-13.591200000000001</v>
       </c>
       <c r="X73">
-        <v>-355.05099999999999</v>
+        <v>-345.26299999999998</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="5"/>
-        <v>-0.78329999999999878</v>
+        <v>-0.95129999999999981</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -13698,14 +13698,14 @@
         <v>69</v>
       </c>
       <c r="W74">
-        <v>-14.033200000000001</v>
+        <v>-13.559900000000001</v>
       </c>
       <c r="X74">
-        <v>-509.65300000000002</v>
+        <v>-507.68299999999999</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" si="5"/>
-        <v>-0.75150000000000006</v>
+        <v>-0.91999999999999993</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -13741,14 +13741,14 @@
         <v>70</v>
       </c>
       <c r="W75">
-        <v>-13.989800000000001</v>
+        <v>-13.5161</v>
       </c>
       <c r="X75">
-        <v>-683.471</v>
+        <v>-697.93299999999999</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="5"/>
-        <v>-0.70809999999999995</v>
+        <v>-0.87619999999999898</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
@@ -13784,14 +13784,14 @@
         <v>71</v>
       </c>
       <c r="W76">
-        <v>-13.9344</v>
+        <v>-13.4588</v>
       </c>
       <c r="X76">
-        <v>-858.67</v>
+        <v>-897.05899999999997</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.65269999999999939</v>
+        <v>-0.8188999999999993</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
@@ -13827,14 +13827,14 @@
         <v>72</v>
       </c>
       <c r="W77">
-        <v>-13.867800000000001</v>
+        <v>-13.388400000000001</v>
       </c>
       <c r="X77">
-        <v>-1018.36</v>
+        <v>-1086.42</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="5"/>
-        <v>-0.58610000000000007</v>
+        <v>-0.74849999999999994</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
@@ -13870,14 +13870,14 @@
         <v>73</v>
       </c>
       <c r="W78">
-        <v>-13.7918</v>
+        <v>-13.3066</v>
       </c>
       <c r="X78">
-        <v>-1148.55</v>
+        <v>-1249.8699999999999</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="5"/>
-        <v>-0.51009999999999955</v>
+        <v>-0.66669999999999874</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -13913,14 +13913,14 @@
         <v>74</v>
       </c>
       <c r="W79">
-        <v>-13.709300000000001</v>
+        <v>-13.2158</v>
       </c>
       <c r="X79">
-        <v>-1239.3599999999999</v>
+        <v>-1375.21</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="5"/>
-        <v>-0.42759999999999998</v>
+        <v>-0.57589999999999897</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
@@ -13956,14 +13956,14 @@
         <v>75</v>
       </c>
       <c r="W80">
-        <v>-13.623100000000001</v>
+        <v>-13.119300000000001</v>
       </c>
       <c r="X80">
-        <v>-1285.3599999999999</v>
+        <v>-1454.7</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="5"/>
-        <v>-0.34140000000000015</v>
+        <v>-0.47940000000000005</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
@@ -13999,14 +13999,14 @@
         <v>76</v>
       </c>
       <c r="W81">
-        <v>-13.5365</v>
+        <v>-13.020300000000001</v>
       </c>
       <c r="X81">
-        <v>-1285.22</v>
+        <v>-1484.86</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25479999999999947</v>
+        <v>-0.38039999999999985</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
@@ -14042,14 +14042,14 @@
         <v>77</v>
       </c>
       <c r="W82">
-        <v>-13.452500000000001</v>
+        <v>-12.9222</v>
       </c>
       <c r="X82">
-        <v>-1240.74</v>
+        <v>-1465.58</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="5"/>
-        <v>-0.17079999999999984</v>
+        <v>-0.28229999999999933</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
@@ -14085,14 +14085,14 @@
         <v>78</v>
       </c>
       <c r="W83">
-        <v>-13.373900000000001</v>
+        <v>-12.828200000000001</v>
       </c>
       <c r="X83">
-        <v>-1155.72</v>
+        <v>-1398.97</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="5"/>
-        <v>-9.220000000000006E-2</v>
+        <v>-0.18829999999999991</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
@@ -14128,14 +14128,14 @@
         <v>79</v>
       </c>
       <c r="W84">
-        <v>-13.302899999999999</v>
+        <v>-12.741099999999999</v>
       </c>
       <c r="X84">
-        <v>-1034.83</v>
+        <v>-1288.29</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" si="5"/>
-        <v>-2.1199999999998553E-2</v>
+        <v>-0.10119999999999862</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.2">
@@ -14171,14 +14171,14 @@
         <v>80</v>
       </c>
       <c r="W85">
-        <v>-13.2416</v>
+        <v>-12.663500000000001</v>
       </c>
       <c r="X85">
-        <v>-882.74800000000005</v>
+        <v>-1137.1300000000001</v>
       </c>
       <c r="AC85" s="1">
         <f t="shared" si="5"/>
-        <v>4.0100000000000691E-2</v>
+        <v>-2.3600000000000065E-2</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.2">
@@ -14214,14 +14214,14 @@
         <v>81</v>
       </c>
       <c r="W86">
-        <v>-13.1914</v>
+        <v>-12.5976</v>
       </c>
       <c r="X86">
-        <v>-703.93299999999999</v>
+        <v>-949.26099999999997</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="5"/>
-        <v>9.0300000000000935E-2</v>
+        <v>4.2300000000000892E-2</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
@@ -14257,14 +14257,14 @@
         <v>82</v>
       </c>
       <c r="W87">
-        <v>-13.153700000000001</v>
+        <v>-12.5451</v>
       </c>
       <c r="X87">
-        <v>-502.99700000000001</v>
+        <v>-729.22699999999998</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" si="5"/>
-        <v>0.12800000000000011</v>
+        <v>9.4800000000001106E-2</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
@@ -14300,14 +14300,14 @@
         <v>83</v>
       </c>
       <c r="W88">
-        <v>-13.1294</v>
+        <v>-12.5077</v>
       </c>
       <c r="X88">
-        <v>-285.72899999999998</v>
+        <v>-483.50400000000002</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="5"/>
-        <v>0.15230000000000032</v>
+        <v>0.13220000000000098</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
@@ -14343,14 +14343,14 @@
         <v>84</v>
       </c>
       <c r="W89">
-        <v>-13.1188</v>
+        <v>-12.4862</v>
       </c>
       <c r="X89">
-        <v>-60.465000000000003</v>
+        <v>-222.035</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" si="5"/>
-        <v>0.16290000000000049</v>
+        <v>0.15370000000000061</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
@@ -14386,14 +14386,14 @@
         <v>85</v>
       </c>
       <c r="W90">
-        <v>-13.1219</v>
+        <v>-12.480700000000001</v>
       </c>
       <c r="X90">
-        <v>160.76300000000001</v>
+        <v>40.558500000000002</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="5"/>
-        <v>0.15980000000000061</v>
+        <v>0.15920000000000023</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
@@ -14429,14 +14429,14 @@
         <v>86</v>
       </c>
       <c r="W91">
-        <v>-13.137499999999999</v>
+        <v>-12.490500000000001</v>
       </c>
       <c r="X91">
-        <v>361.94799999999998</v>
+        <v>284.82499999999999</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="5"/>
-        <v>0.14420000000000144</v>
+        <v>0.14939999999999998</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.2">
@@ -14472,14 +14472,14 @@
         <v>87</v>
       </c>
       <c r="W92">
-        <v>-13.1638</v>
+        <v>-12.513500000000001</v>
       </c>
       <c r="X92">
-        <v>524.32399999999996</v>
+        <v>488.05200000000002</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" si="5"/>
-        <v>0.11790000000000056</v>
+        <v>0.12640000000000029</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
@@ -14515,14 +14515,14 @@
         <v>88</v>
       </c>
       <c r="W93">
-        <v>-13.1976</v>
+        <v>-12.546200000000001</v>
       </c>
       <c r="X93">
-        <v>629.28399999999999</v>
+        <v>627.75</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" si="5"/>
-        <v>8.4100000000001174E-2</v>
+        <v>9.3700000000000117E-2</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.2">
@@ -14558,14 +14558,14 @@
         <v>89</v>
       </c>
       <c r="W94">
-        <v>-13.234999999999999</v>
+        <v>-12.584300000000001</v>
       </c>
       <c r="X94">
-        <v>662.57899999999995</v>
+        <v>686.54300000000001</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" si="5"/>
-        <v>4.6700000000001296E-2</v>
+        <v>5.5600000000000094E-2</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
@@ -14601,14 +14601,14 @@
         <v>90</v>
       </c>
       <c r="W95">
-        <v>-13.271699999999999</v>
+        <v>-12.6229</v>
       </c>
       <c r="X95">
-        <v>618.65499999999997</v>
+        <v>657.16499999999996</v>
       </c>
       <c r="AC95" s="1">
         <f t="shared" si="5"/>
-        <v>1.0000000000001563E-2</v>
+        <v>1.7000000000001236E-2</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
@@ -14644,14 +14644,14 @@
         <v>91</v>
       </c>
       <c r="W96">
-        <v>-13.303599999999999</v>
+        <v>-12.657</v>
       </c>
       <c r="X96">
-        <v>503.61500000000001</v>
+        <v>545.81100000000004</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="5"/>
-        <v>-2.1899999999998698E-2</v>
+        <v>-1.7099999999999227E-2</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
@@ -14687,14 +14687,14 @@
         <v>92</v>
       </c>
       <c r="W97">
-        <v>-13.3271</v>
+        <v>-12.6828</v>
       </c>
       <c r="X97">
-        <v>335.423</v>
+        <v>372.339</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="5"/>
-        <v>-4.5399999999998997E-2</v>
+        <v>-4.2899999999999494E-2</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
@@ -14730,14 +14730,14 @@
         <v>93</v>
       </c>
       <c r="W98">
-        <v>-13.340199999999999</v>
+        <v>-12.697699999999999</v>
       </c>
       <c r="X98">
-        <v>140.82300000000001</v>
+        <v>166.76400000000001</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="5"/>
-        <v>-5.8499999999998664E-2</v>
+        <v>-5.7799999999998519E-2</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
@@ -14773,14 +14773,14 @@
         <v>94</v>
       </c>
       <c r="W99">
-        <v>-13.342599999999999</v>
+        <v>-12.7011</v>
       </c>
       <c r="X99">
-        <v>-50.086399999999998</v>
+        <v>-36.9255</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="5"/>
-        <v>-6.08999999999984E-2</v>
+        <v>-6.1199999999999477E-2</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
@@ -14816,14 +14816,14 @@
         <v>95</v>
       </c>
       <c r="W100">
-        <v>-13.3354</v>
+        <v>-12.6944</v>
       </c>
       <c r="X100">
-        <v>-209.15799999999999</v>
+        <v>-206.95400000000001</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="5"/>
-        <v>-5.3699999999999193E-2</v>
+        <v>-5.4499999999999105E-2</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
@@ -14859,14 +14859,14 @@
         <v>96</v>
       </c>
       <c r="W101">
-        <v>-13.321300000000001</v>
+        <v>-12.680099999999999</v>
       </c>
       <c r="X101">
-        <v>-311.79899999999998</v>
+        <v>-316.23700000000002</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" si="5"/>
-        <v>-3.960000000000008E-2</v>
+        <v>-4.0199999999998681E-2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
@@ -14902,14 +14902,14 @@
         <v>97</v>
       </c>
       <c r="W102">
-        <v>-13.303900000000001</v>
+        <v>-12.6624</v>
       </c>
       <c r="X102">
-        <v>-332.28100000000001</v>
+        <v>-338.34300000000002</v>
       </c>
       <c r="AC102" s="1">
         <f t="shared" si="5"/>
-        <v>-2.2199999999999775E-2</v>
+        <v>-2.2499999999999076E-2</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
@@ -14945,14 +14945,14 @@
         <v>98</v>
       </c>
       <c r="W103">
-        <v>-13.288399999999999</v>
+        <v>-12.646699999999999</v>
       </c>
       <c r="X103">
-        <v>-236.92699999999999</v>
+        <v>-240.797</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" si="5"/>
-        <v>-6.699999999998596E-3</v>
+        <v>-6.7999999999983629E-3</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
@@ -14988,10 +14988,10 @@
         <v>99</v>
       </c>
       <c r="W104">
-        <v>-13.281700000000001</v>
+        <v>-12.639900000000001</v>
       </c>
       <c r="X104" s="1">
-        <v>-6.3657000000000003E-11</v>
+        <v>-6.4543099999999997E-11</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" si="5"/>
@@ -15031,7 +15031,7 @@
         <v>100</v>
       </c>
       <c r="W105">
-        <v>-13.281700000000001</v>
+        <v>-12.639900000000001</v>
       </c>
       <c r="X105">
         <v>0</v>

--- a/MTP_fitting/pair_test.xlsx
+++ b/MTP_fitting/pair_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/MTP_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/MTP_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C67EE-C381-2E47-82A5-550F31D48737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849C0BF-F620-F146-BA86-7840BABA1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
   </bookViews>
@@ -3897,307 +3897,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>211649000000000</c:v>
+                  <c:v>239164000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211649000000000</c:v>
+                  <c:v>239164000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120133000000000</c:v>
+                  <c:v>119261000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67556900000000</c:v>
+                  <c:v>58204200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37625900000000</c:v>
+                  <c:v>27744500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20747100000000</c:v>
+                  <c:v>12885600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11321700000000</c:v>
+                  <c:v>5813990000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6111850000000</c:v>
+                  <c:v>2539470000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3262420000000</c:v>
+                  <c:v>1069070000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1721100000000</c:v>
+                  <c:v>431392000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>896890000000</c:v>
+                  <c:v>165672000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461419000000</c:v>
+                  <c:v>59986600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>234211000000</c:v>
+                  <c:v>20215600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117216000000</c:v>
+                  <c:v>6224570</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57798700000</c:v>
+                  <c:v>1701960</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28058800000</c:v>
+                  <c:v>393404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13399200000</c:v>
+                  <c:v>69131.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6288840000</c:v>
+                  <c:v>6258.23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2898340000</c:v>
+                  <c:v>-619.95100000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1310450000</c:v>
+                  <c:v>718.43799999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>580759000</c:v>
+                  <c:v>2448.6799999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>252079000</c:v>
+                  <c:v>3956.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107098000</c:v>
+                  <c:v>5075.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44527000</c:v>
+                  <c:v>5567.45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18120700</c:v>
+                  <c:v>5383.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7225610</c:v>
+                  <c:v>4686.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2828480</c:v>
+                  <c:v>3734.09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1089980</c:v>
+                  <c:v>2757.48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>414776</c:v>
+                  <c:v>1905.12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>156177</c:v>
+                  <c:v>1240.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58091.7</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>21154.6</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>7379.99</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>2355.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>612.005</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>69.631600000000006</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>-59.914099999999998</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>-66.369399999999999</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>-48.064799999999998</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>-32.532499999999999</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>-23.734500000000001</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>-19.634499999999999</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>-17.881599999999999</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>-17.0532</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>-16.5215</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>-16.088699999999999</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>-15.7225</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>-15.427199999999999</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>-15.1999</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>-15.026300000000001</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>-14.887700000000001</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>-14.7675</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>-14.6541</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>-14.540900000000001</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>-14.4261</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>-14.3102</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>-14.1959</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>-14.0863</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>-13.9849</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>-13.8947</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>-13.818199999999999</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>-13.756500000000001</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>-13.7097</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>-13.676600000000001</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>-13.654400000000001</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>-13.6394</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>-13.626899999999999</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>-13.612299999999999</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>-13.591200000000001</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>-13.559900000000001</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>-13.5161</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>-13.4588</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>-13.388400000000001</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>-13.3066</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>-13.2158</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>-13.119300000000001</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>-13.020300000000001</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>-12.9222</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>-12.828200000000001</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>-12.741099999999999</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>-12.663500000000001</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>-12.5976</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>-12.5451</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>-12.5077</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>-12.4862</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>-12.480700000000001</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>-12.490500000000001</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>-12.513500000000001</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>-12.546200000000001</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>-12.584300000000001</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>-12.6229</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>-12.657</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>-12.6828</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>-12.697699999999999</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>-12.7011</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>-12.6944</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>-12.680099999999999</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>-12.6624</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>-12.646699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>-12.639900000000001</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>-12.639900000000001</c:v>
+                  <c:v>764.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>447.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>249.172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>131.11699999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.998899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.179200000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4396699999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.1002800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.8533600000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-12.155200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-14.1821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-15.504799999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-16.396899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-16.995999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-17.3797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-17.599900000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-17.695499999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-17.696899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-17.6282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-17.508199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17.351800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-17.171399999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-16.977699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-16.779900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-16.586400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-16.403700000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-16.236899999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-16.088899999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-15.9611</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-15.853</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-15.763</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-15.688499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-15.6267</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-15.5748</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-15.530099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-15.490500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-15.454499999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-15.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-15.389699999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-15.3606</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-15.3338</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-15.31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-15.2897</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-15.2735</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-15.2616</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-15.254200000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-15.251200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-15.252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-15.255800000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-15.261699999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-15.2683</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-15.2743</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-15.2784</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-15.279299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-15.276</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-15.267799999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-15.254099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-15.2349</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15.210599999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-15.181900000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-15.1501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-15.116899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-15.084300000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-15.0548</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-15.030900000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-15.0145</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-15.0069</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-15.007400000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-15.0131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-15.017099999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-15.017099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,307 +4750,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>211649000000000</c:v>
+                  <c:v>239164000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211649000000000</c:v>
+                  <c:v>239164000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120133000000000</c:v>
+                  <c:v>119261000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67556900000000</c:v>
+                  <c:v>58204200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37625900000000</c:v>
+                  <c:v>27744500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20747100000000</c:v>
+                  <c:v>12885600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11321700000000</c:v>
+                  <c:v>5813990000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6111850000000</c:v>
+                  <c:v>2539470000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3262420000000</c:v>
+                  <c:v>1069070000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1721100000000</c:v>
+                  <c:v>431392000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>896890000000</c:v>
+                  <c:v>165672000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461419000000</c:v>
+                  <c:v>59986600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>234211000000</c:v>
+                  <c:v>20215600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117216000000</c:v>
+                  <c:v>6224570</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57798700000</c:v>
+                  <c:v>1701960</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28058800000</c:v>
+                  <c:v>393404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13399200000</c:v>
+                  <c:v>69131.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6288840000</c:v>
+                  <c:v>6258.23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2898340000</c:v>
+                  <c:v>-619.95100000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1310450000</c:v>
+                  <c:v>718.43799999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>580759000</c:v>
+                  <c:v>2448.6799999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>252079000</c:v>
+                  <c:v>3956.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107098000</c:v>
+                  <c:v>5075.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44527000</c:v>
+                  <c:v>5567.45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18120700</c:v>
+                  <c:v>5383.21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7225610</c:v>
+                  <c:v>4686.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2828480</c:v>
+                  <c:v>3734.09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1089980</c:v>
+                  <c:v>2757.48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>414776</c:v>
+                  <c:v>1905.12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>156177</c:v>
+                  <c:v>1240.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58091.7</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>21154.6</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>7379.99</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>2355.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>612.005</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>69.631600000000006</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>-59.914099999999998</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>-66.369399999999999</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>-48.064799999999998</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>-32.532499999999999</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>-23.734500000000001</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>-19.634499999999999</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>-17.881599999999999</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>-17.0532</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>-16.5215</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>-16.088699999999999</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>-15.7225</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>-15.427199999999999</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>-15.1999</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>-15.026300000000001</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>-14.887700000000001</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>-14.7675</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>-14.6541</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>-14.540900000000001</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>-14.4261</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>-14.3102</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>-14.1959</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>-14.0863</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>-13.9849</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>-13.8947</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>-13.818199999999999</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>-13.756500000000001</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>-13.7097</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>-13.676600000000001</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>-13.654400000000001</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>-13.6394</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>-13.626899999999999</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>-13.612299999999999</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>-13.591200000000001</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>-13.559900000000001</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>-13.5161</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>-13.4588</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>-13.388400000000001</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>-13.3066</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>-13.2158</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>-13.119300000000001</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>-13.020300000000001</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>-12.9222</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>-12.828200000000001</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>-12.741099999999999</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>-12.663500000000001</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>-12.5976</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>-12.5451</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>-12.5077</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>-12.4862</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>-12.480700000000001</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>-12.490500000000001</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>-12.513500000000001</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>-12.546200000000001</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>-12.584300000000001</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>-12.6229</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>-12.657</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>-12.6828</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>-12.697699999999999</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>-12.7011</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>-12.6944</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>-12.680099999999999</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>-12.6624</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>-12.646699999999999</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>-12.639900000000001</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>-12.639900000000001</c:v>
+                  <c:v>764.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>447.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>249.172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>131.11699999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.998899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.179200000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4396699999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.1002800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.8533600000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-12.155200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-14.1821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-15.504799999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-16.396899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-16.995999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-17.3797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-17.599900000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-17.695499999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-17.696899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-17.6282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-17.508199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17.351800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-17.171399999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-16.977699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-16.779900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-16.586400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-16.403700000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-16.236899999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-16.088899999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-15.9611</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-15.853</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-15.763</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-15.688499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-15.6267</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-15.5748</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-15.530099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-15.490500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-15.454499999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-15.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-15.389699999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-15.3606</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-15.3338</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-15.31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-15.2897</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-15.2735</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-15.2616</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-15.254200000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-15.251200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-15.252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-15.255800000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-15.261699999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-15.2683</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-15.2743</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-15.2784</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-15.279299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-15.276</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-15.267799999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-15.254099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-15.2349</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15.210599999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-15.181900000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-15.1501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-15.116899999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-15.084300000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-15.0548</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-15.030900000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-15.0145</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-15.0069</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-15.007400000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-15.0131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-15.017099999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-15.017099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,301 +5607,301 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>211649000000012.62</c:v>
+                  <c:v>239164000015.01709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211649000000012.62</c:v>
+                  <c:v>239164000015.01709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120133000000012.64</c:v>
+                  <c:v>119261000015.01711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67556900000012.641</c:v>
+                  <c:v>58204200015.017097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37625900000012.641</c:v>
+                  <c:v>27744500015.017101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20747100000012.641</c:v>
+                  <c:v>12885600015.017099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11321700000012.641</c:v>
+                  <c:v>5813990015.0171003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6111850000012.6396</c:v>
+                  <c:v>2539470015.0170999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3262420000012.6401</c:v>
+                  <c:v>1069070015.0171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1721100000012.6399</c:v>
+                  <c:v>431392015.01709998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>896890000012.63989</c:v>
+                  <c:v>165672015.01710001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461419000012.63989</c:v>
+                  <c:v>59986615.017099999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>234211000012.63989</c:v>
+                  <c:v>20215615.017099999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117216000012.63989</c:v>
+                  <c:v>6224585.0170999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57798700012.6399</c:v>
+                  <c:v>1701975.0171000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28058800012.6399</c:v>
+                  <c:v>393419.0171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13399200012.6399</c:v>
+                  <c:v>69146.417099999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6288840012.6399002</c:v>
+                  <c:v>6273.2470999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2898340012.6399002</c:v>
+                  <c:v>-604.93389999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1310450012.6399</c:v>
+                  <c:v>733.45510000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>580759012.63989997</c:v>
+                  <c:v>2463.6970999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>252079012.6399</c:v>
+                  <c:v>3971.6970999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107098012.6399</c:v>
+                  <c:v>5090.0271000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44527012.639899999</c:v>
+                  <c:v>5582.4670999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18120712.639899999</c:v>
+                  <c:v>5398.2271000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7225622.6398999998</c:v>
+                  <c:v>4701.4270999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2828492.6398999998</c:v>
+                  <c:v>3749.1071000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1089992.6399000001</c:v>
+                  <c:v>2772.4971</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>414788.63990000001</c:v>
+                  <c:v>1920.1370999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>156189.63990000001</c:v>
+                  <c:v>1255.1771000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58104.339899999999</c:v>
+                  <c:v>779.52610000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21167.239899999997</c:v>
+                  <c:v>462.73009999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7392.6298999999999</c:v>
+                  <c:v>264.1891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2367.8398999999999</c:v>
+                  <c:v>146.13409999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>624.64490000000001</c:v>
+                  <c:v>79.015999999999991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82.271500000000003</c:v>
+                  <c:v>42.196300000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-47.274199999999993</c:v>
+                  <c:v>22.456769999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-53.729500000000002</c:v>
+                  <c:v>11.91682</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-35.424899999999994</c:v>
+                  <c:v>6.1637399999999989</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-19.892599999999998</c:v>
+                  <c:v>2.8618999999999986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-11.0946</c:v>
+                  <c:v>0.83499999999999908</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-6.9945999999999984</c:v>
+                  <c:v>-0.48770000000000024</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.241699999999998</c:v>
+                  <c:v>-1.3797999999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4.4132999999999996</c:v>
+                  <c:v>-1.9788999999999994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.8815999999999988</c:v>
+                  <c:v>-2.3626000000000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.4487999999999985</c:v>
+                  <c:v>-2.5828000000000024</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.0825999999999993</c:v>
+                  <c:v>-2.6783999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.7872999999999983</c:v>
+                  <c:v>-2.6798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.5599999999999987</c:v>
+                  <c:v>-2.6111000000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.3864000000000001</c:v>
+                  <c:v>-2.4910999999999994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.2477999999999998</c:v>
+                  <c:v>-2.3347000000000016</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.1275999999999993</c:v>
+                  <c:v>-2.1542999999999992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.0141999999999989</c:v>
+                  <c:v>-1.9605999999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.9009999999999998</c:v>
+                  <c:v>-1.7628000000000021</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.7861999999999991</c:v>
+                  <c:v>-1.5693000000000019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.6702999999999992</c:v>
+                  <c:v>-1.3866000000000014</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.5559999999999992</c:v>
+                  <c:v>-1.2197999999999993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.4463999999999988</c:v>
+                  <c:v>-1.0717999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.3449999999999989</c:v>
+                  <c:v>-0.94400000000000084</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.2547999999999995</c:v>
+                  <c:v>-0.83590000000000053</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.1782999999999983</c:v>
+                  <c:v>-0.74590000000000067</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.1166</c:v>
+                  <c:v>-0.67140000000000022</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.069799999999999</c:v>
+                  <c:v>-0.60960000000000036</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.0366999999999997</c:v>
+                  <c:v>-0.55770000000000053</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.0145</c:v>
+                  <c:v>-0.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.99949999999999939</c:v>
+                  <c:v>-0.4734000000000016</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.98699999999999832</c:v>
+                  <c:v>-0.43740000000000023</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.9723999999999986</c:v>
+                  <c:v>-0.40390000000000015</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.95129999999999981</c:v>
+                  <c:v>-0.37260000000000026</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.91999999999999993</c:v>
+                  <c:v>-0.34350000000000058</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.87619999999999898</c:v>
+                  <c:v>-0.31670000000000087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.8188999999999993</c:v>
+                  <c:v>-0.29290000000000127</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.74849999999999994</c:v>
+                  <c:v>-0.27260000000000062</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.66669999999999874</c:v>
+                  <c:v>-0.25640000000000107</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.57589999999999897</c:v>
+                  <c:v>-0.24450000000000038</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.47940000000000005</c:v>
+                  <c:v>-0.23710000000000164</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.38039999999999985</c:v>
+                  <c:v>-0.23410000000000153</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.28229999999999933</c:v>
+                  <c:v>-0.23490000000000144</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.18829999999999991</c:v>
+                  <c:v>-0.23870000000000147</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.10119999999999862</c:v>
+                  <c:v>-0.24460000000000015</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.3600000000000065E-2</c:v>
+                  <c:v>-0.25120000000000076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.2300000000000892E-2</c:v>
+                  <c:v>-0.25720000000000098</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.4800000000001106E-2</c:v>
+                  <c:v>-0.26130000000000031</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13220000000000098</c:v>
+                  <c:v>-0.26219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.15370000000000061</c:v>
+                  <c:v>-0.25890000000000057</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.15920000000000023</c:v>
+                  <c:v>-0.25070000000000014</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.14939999999999998</c:v>
+                  <c:v>-0.2370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12640000000000029</c:v>
+                  <c:v>-0.21780000000000044</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.3700000000000117E-2</c:v>
+                  <c:v>-0.19350000000000023</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.5600000000000094E-2</c:v>
+                  <c:v>-0.16480000000000139</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7000000000001236E-2</c:v>
+                  <c:v>-0.1330000000000009</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.7099999999999227E-2</c:v>
+                  <c:v>-9.9800000000000111E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-4.2899999999999494E-2</c:v>
+                  <c:v>-6.7200000000001481E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-5.7799999999998519E-2</c:v>
+                  <c:v>-3.7700000000000955E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.1199999999999477E-2</c:v>
+                  <c:v>-1.3800000000001589E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-5.4499999999999105E-2</c:v>
+                  <c:v>2.5999999999992696E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.0199999999998681E-2</c:v>
+                  <c:v>1.0199999999999321E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.2499999999999076E-2</c:v>
+                  <c:v>9.6999999999987097E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-6.7999999999983629E-3</c:v>
+                  <c:v>3.9999999999995595E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -10590,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFC2F2-B2E1-BA4C-83BC-6A37C3092F9C}">
   <dimension ref="B1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10731,14 +10731,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>211649000000000</v>
+        <v>239164000000</v>
       </c>
       <c r="X5" s="1">
-        <v>4.62824E+16</v>
+        <v>63835200000000</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ref="AC5:AC68" si="0">W5-$W$105</f>
-        <v>211649000000012.62</v>
+        <v>239164000015.01709</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
@@ -10774,14 +10774,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>211649000000000</v>
+        <v>239164000000</v>
       </c>
       <c r="X6" s="1">
-        <v>4.62824E+16</v>
+        <v>63835200000000</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="0"/>
-        <v>211649000000012.62</v>
+        <v>239164000015.01709</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -10817,14 +10817,14 @@
         <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>120133000000000</v>
+        <v>119261000000</v>
       </c>
       <c r="X7" s="1">
-        <v>4.00469E+16</v>
+        <v>49181400000000</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="0"/>
-        <v>120133000000012.64</v>
+        <v>119261000015.01711</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -10860,14 +10860,14 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
-        <v>67556900000000</v>
+        <v>58204200000</v>
       </c>
       <c r="X8" s="1">
-        <v>3.05253E+16</v>
+        <v>33022300000000</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="0"/>
-        <v>67556900000012.641</v>
+        <v>58204200015.017097</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
@@ -10903,14 +10903,14 @@
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>37625900000000</v>
+        <v>27744500000</v>
       </c>
       <c r="X9" s="1">
-        <v>2.1611E+16</v>
+        <v>20343400000000</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" si="0"/>
-        <v>37625900000012.641</v>
+        <v>27744500015.017101</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -10946,14 +10946,14 @@
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>20747100000000</v>
+        <v>12885600000</v>
       </c>
       <c r="X10" s="1">
-        <v>1.45468E+16</v>
+        <v>11749800000000</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="0"/>
-        <v>20747100000012.641</v>
+        <v>12885600015.017099</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -10989,14 +10989,14 @@
         <v>6</v>
       </c>
       <c r="W11" s="1">
-        <v>11321700000000</v>
+        <v>5813990000</v>
       </c>
       <c r="X11" s="1">
-        <v>9424740000000000</v>
+        <v>6427270000000</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="0"/>
-        <v>11321700000012.641</v>
+        <v>5813990015.0171003</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
@@ -11032,14 +11032,14 @@
         <v>7</v>
       </c>
       <c r="W12" s="1">
-        <v>6111850000000</v>
+        <v>2539470000</v>
       </c>
       <c r="X12" s="1">
-        <v>5919600000000000</v>
+        <v>3344790000000</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="0"/>
-        <v>6111850000012.6396</v>
+        <v>2539470015.0170999</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -11075,14 +11075,14 @@
         <v>8</v>
       </c>
       <c r="W13" s="1">
-        <v>3262420000000</v>
+        <v>1069070000</v>
       </c>
       <c r="X13" s="1">
-        <v>3620500000000000</v>
+        <v>1657880000000</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="0"/>
-        <v>3262420000012.6401</v>
+        <v>1069070015.0171</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
@@ -11118,14 +11118,14 @@
         <v>9</v>
       </c>
       <c r="W14" s="1">
-        <v>1721100000000</v>
+        <v>431392000</v>
       </c>
       <c r="X14" s="1">
-        <v>2162440000000000</v>
+        <v>781610000000</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="0"/>
-        <v>1721100000012.6399</v>
+        <v>431392015.01709998</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
@@ -11161,14 +11161,14 @@
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>896890000000</v>
+        <v>165672000</v>
       </c>
       <c r="X15" s="1">
-        <v>1263670000000000</v>
+        <v>349240000000</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="0"/>
-        <v>896890000012.63989</v>
+        <v>165672015.01710001</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
@@ -11204,14 +11204,14 @@
         <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>461419000000</v>
+        <v>59986600</v>
       </c>
       <c r="X16" s="1">
-        <v>723378000000000</v>
+        <v>147001000000</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="0"/>
-        <v>461419000012.63989</v>
+        <v>59986615.017099999</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -11247,14 +11247,14 @@
         <v>12</v>
       </c>
       <c r="W17" s="1">
-        <v>234211000000</v>
+        <v>20215600</v>
       </c>
       <c r="X17" s="1">
-        <v>405944000000000</v>
+        <v>57751900000</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="0"/>
-        <v>234211000012.63989</v>
+        <v>20215615.017099999</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -11290,14 +11290,14 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>117216000000</v>
+        <v>6224570</v>
       </c>
       <c r="X18" s="1">
-        <v>223413000000000</v>
+        <v>20885500000</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="0"/>
-        <v>117216000012.63989</v>
+        <v>6224585.0170999998</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
@@ -11333,14 +11333,14 @@
         <v>14</v>
       </c>
       <c r="W19" s="1">
-        <v>57798700000</v>
+        <v>1701960</v>
       </c>
       <c r="X19" s="1">
-        <v>120601000000000</v>
+        <v>6806150000</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="0"/>
-        <v>57798700012.6399</v>
+        <v>1701975.0171000001</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
@@ -11376,14 +11376,14 @@
         <v>15</v>
       </c>
       <c r="W20" s="1">
-        <v>28058800000</v>
+        <v>393404</v>
       </c>
       <c r="X20" s="1">
-        <v>63849600000000</v>
+        <v>1929910000</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="0"/>
-        <v>28058800012.6399</v>
+        <v>393419.0171</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -11419,14 +11419,14 @@
         <v>16</v>
       </c>
       <c r="W21" s="1">
-        <v>13399200000</v>
+        <v>69131.399999999994</v>
       </c>
       <c r="X21" s="1">
-        <v>33144400000000</v>
+        <v>445752000</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" si="0"/>
-        <v>13399200012.6399</v>
+        <v>69146.417099999991</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
@@ -11462,14 +11462,14 @@
         <v>17</v>
       </c>
       <c r="W22" s="1">
-        <v>6288840000</v>
+        <v>6258.23</v>
       </c>
       <c r="X22" s="1">
-        <v>16862500000000</v>
+        <v>70351700</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>6288840012.6399002</v>
+        <v>6273.2470999999996</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
@@ -11505,14 +11505,14 @@
         <v>18</v>
       </c>
       <c r="W23" s="1">
-        <v>2898340000</v>
+        <v>-619.95100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>8403370000000</v>
+        <v>14156.7</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="0"/>
-        <v>2898340012.6399002</v>
+        <v>-604.93389999999999</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
@@ -11548,14 +11548,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <v>1310450000</v>
+        <v>718.43799999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>4099350000000</v>
+        <v>-7017230</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="0"/>
-        <v>1310450012.6399</v>
+        <v>733.45510000000002</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
@@ -11591,14 +11591,14 @@
         <v>20</v>
       </c>
       <c r="W25" s="1">
-        <v>580759000</v>
+        <v>2448.6799999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>1956080000000</v>
+        <v>-6661410</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="0"/>
-        <v>580759012.63989997</v>
+        <v>2463.6970999999999</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -11634,14 +11634,14 @@
         <v>21</v>
       </c>
       <c r="W26" s="1">
-        <v>252079000</v>
+        <v>3956.68</v>
       </c>
       <c r="X26" s="1">
-        <v>912290000000</v>
+        <v>-5810920</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="0"/>
-        <v>252079012.6399</v>
+        <v>3971.6970999999999</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
@@ -11677,14 +11677,14 @@
         <v>22</v>
       </c>
       <c r="W27" s="1">
-        <v>107098000</v>
+        <v>5075.01</v>
       </c>
       <c r="X27" s="1">
-        <v>415569000000</v>
+        <v>-3736390</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" si="0"/>
-        <v>107098012.6399</v>
+        <v>5090.0271000000002</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
@@ -11720,14 +11720,14 @@
         <v>23</v>
       </c>
       <c r="W28" s="1">
-        <v>44527000</v>
+        <v>5567.45</v>
       </c>
       <c r="X28" s="1">
-        <v>184787000000</v>
+        <v>-661914</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="0"/>
-        <v>44527012.639899999</v>
+        <v>5582.4670999999998</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
@@ -11763,14 +11763,14 @@
         <v>24</v>
       </c>
       <c r="W29" s="1">
-        <v>18120700</v>
+        <v>5383.21</v>
       </c>
       <c r="X29" s="1">
-        <v>80188100000</v>
+        <v>2337450</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" si="0"/>
-        <v>18120712.639899999</v>
+        <v>5398.2271000000001</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
@@ -11806,14 +11806,14 @@
         <v>25</v>
       </c>
       <c r="W30" s="1">
-        <v>7225610</v>
+        <v>4686.41</v>
       </c>
       <c r="X30" s="1">
-        <v>33970000000</v>
+        <v>4393730</v>
       </c>
       <c r="AC30" s="1">
         <f t="shared" si="0"/>
-        <v>7225622.6398999998</v>
+        <v>4701.4270999999999</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
@@ -11849,14 +11849,14 @@
         <v>26</v>
       </c>
       <c r="W31" s="1">
-        <v>2828480</v>
+        <v>3734.09</v>
       </c>
       <c r="X31" s="1">
-        <v>14064700000</v>
+        <v>5238780</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="0"/>
-        <v>2828492.6398999998</v>
+        <v>3749.1071000000002</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
@@ -11892,14 +11892,14 @@
         <v>27</v>
       </c>
       <c r="W32" s="1">
-        <v>1089980</v>
+        <v>2757.48</v>
       </c>
       <c r="X32" s="1">
-        <v>5704500000</v>
+        <v>5076660</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="0"/>
-        <v>1089992.6399000001</v>
+        <v>2772.4971</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.2">
@@ -11935,14 +11935,14 @@
         <v>28</v>
       </c>
       <c r="W33" s="1">
-        <v>414776</v>
+        <v>1905.12</v>
       </c>
       <c r="X33" s="1">
-        <v>2274590000</v>
+        <v>4306980</v>
       </c>
       <c r="AC33" s="1">
         <f t="shared" si="0"/>
-        <v>414788.63990000001</v>
+        <v>1920.1370999999999</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -11978,14 +11978,14 @@
         <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>156177</v>
+        <v>1240.1600000000001</v>
       </c>
       <c r="X34" s="1">
-        <v>895582000</v>
+        <v>3310820</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="0"/>
-        <v>156189.63990000001</v>
+        <v>1255.1771000000001</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
@@ -12021,14 +12021,14 @@
         <v>30</v>
       </c>
       <c r="W35" s="1">
-        <v>58091.7</v>
+        <v>764.50900000000001</v>
       </c>
       <c r="X35" s="1">
-        <v>349523000</v>
+        <v>2351340</v>
       </c>
       <c r="AC35" s="1">
         <f t="shared" si="0"/>
-        <v>58104.339899999999</v>
+        <v>779.52610000000004</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.2">
@@ -12063,15 +12063,15 @@
       <c r="V36">
         <v>31</v>
       </c>
-      <c r="W36">
-        <v>21154.6</v>
+      <c r="W36" s="1">
+        <v>447.71300000000002</v>
       </c>
       <c r="X36" s="1">
-        <v>135253000</v>
+        <v>1562330</v>
       </c>
       <c r="AC36" s="1">
         <f t="shared" si="0"/>
-        <v>21167.239899999997</v>
+        <v>462.73009999999999</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.2">
@@ -12106,15 +12106,15 @@
       <c r="V37">
         <v>32</v>
       </c>
-      <c r="W37">
-        <v>7379.99</v>
+      <c r="W37" s="1">
+        <v>249.172</v>
       </c>
       <c r="X37" s="1">
-        <v>51513100</v>
+        <v>980155</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="0"/>
-        <v>7392.6298999999999</v>
+        <v>264.1891</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.2">
@@ -12149,15 +12149,15 @@
       <c r="V38">
         <v>33</v>
       </c>
-      <c r="W38">
-        <v>2355.1999999999998</v>
+      <c r="W38" s="1">
+        <v>131.11699999999999</v>
       </c>
       <c r="X38" s="1">
-        <v>18922300</v>
+        <v>585185</v>
       </c>
       <c r="AC38" s="1">
         <f t="shared" si="0"/>
-        <v>2367.8398999999999</v>
+        <v>146.13409999999999</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
@@ -12192,15 +12192,15 @@
       <c r="V39">
         <v>34</v>
       </c>
-      <c r="W39">
-        <v>612.005</v>
+      <c r="W39" s="1">
+        <v>63.998899999999999</v>
       </c>
       <c r="X39" s="1">
-        <v>6425040</v>
+        <v>335254</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="0"/>
-        <v>624.64490000000001</v>
+        <v>79.015999999999991</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
@@ -12235,15 +12235,15 @@
       <c r="V40">
         <v>35</v>
       </c>
-      <c r="W40">
-        <v>69.631600000000006</v>
+      <c r="W40" s="1">
+        <v>27.179200000000002</v>
       </c>
       <c r="X40" s="1">
-        <v>1830730</v>
+        <v>186310</v>
       </c>
       <c r="AC40" s="1">
         <f t="shared" si="0"/>
-        <v>82.271500000000003</v>
+        <v>42.196300000000001</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
@@ -12278,15 +12278,15 @@
       <c r="V41">
         <v>36</v>
       </c>
-      <c r="W41">
-        <v>-59.914099999999998</v>
+      <c r="W41" s="1">
+        <v>7.4396699999999996</v>
       </c>
       <c r="X41" s="1">
-        <v>299500</v>
+        <v>102043</v>
       </c>
       <c r="AC41" s="1">
         <f t="shared" si="0"/>
-        <v>-47.274199999999993</v>
+        <v>22.456769999999999</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
@@ -12321,15 +12321,15 @@
       <c r="V42">
         <v>37</v>
       </c>
-      <c r="W42">
-        <v>-66.369399999999999</v>
+      <c r="W42" s="1">
+        <v>-3.1002800000000001</v>
       </c>
       <c r="X42" s="1">
-        <v>-104076</v>
+        <v>56371.3</v>
       </c>
       <c r="AC42" s="1">
         <f t="shared" si="0"/>
-        <v>-53.729500000000002</v>
+        <v>11.91682</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
@@ -12364,15 +12364,15 @@
       <c r="V43">
         <v>38</v>
       </c>
-      <c r="W43">
-        <v>-48.064799999999998</v>
-      </c>
-      <c r="X43">
-        <v>-141529</v>
+      <c r="W43" s="1">
+        <v>-8.8533600000000003</v>
+      </c>
+      <c r="X43" s="1">
+        <v>32323.3</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="0"/>
-        <v>-35.424899999999994</v>
+        <v>6.1637399999999989</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
@@ -12407,15 +12407,15 @@
       <c r="V44">
         <v>39</v>
       </c>
-      <c r="W44">
-        <v>-32.532499999999999</v>
-      </c>
-      <c r="X44">
-        <v>-93533</v>
+      <c r="W44" s="1">
+        <v>-12.155200000000001</v>
+      </c>
+      <c r="X44" s="1">
+        <v>19715</v>
       </c>
       <c r="AC44" s="1">
         <f t="shared" si="0"/>
-        <v>-19.892599999999998</v>
+        <v>2.8618999999999986</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
@@ -12450,15 +12450,15 @@
       <c r="V45">
         <v>40</v>
       </c>
-      <c r="W45">
-        <v>-23.734500000000001</v>
-      </c>
-      <c r="X45">
-        <v>-47878.1</v>
+      <c r="W45" s="1">
+        <v>-14.1821</v>
+      </c>
+      <c r="X45" s="1">
+        <v>12860.9</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="0"/>
-        <v>-11.0946</v>
+        <v>0.83499999999999908</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
@@ -12493,15 +12493,15 @@
       <c r="V46">
         <v>41</v>
       </c>
-      <c r="W46">
-        <v>-19.634499999999999</v>
-      </c>
-      <c r="X46">
-        <v>-21303.3</v>
+      <c r="W46" s="1">
+        <v>-15.504799999999999</v>
+      </c>
+      <c r="X46" s="1">
+        <v>8801.5400000000009</v>
       </c>
       <c r="AC46" s="1">
         <f t="shared" si="0"/>
-        <v>-6.9945999999999984</v>
+        <v>-0.48770000000000024</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
@@ -12536,15 +12536,15 @@
       <c r="V47">
         <v>42</v>
       </c>
-      <c r="W47">
-        <v>-17.881599999999999</v>
-      </c>
-      <c r="X47">
-        <v>-9475.99</v>
+      <c r="W47" s="1">
+        <v>-16.396899999999999</v>
+      </c>
+      <c r="X47" s="1">
+        <v>6103.4</v>
       </c>
       <c r="AC47" s="1">
         <f t="shared" si="0"/>
-        <v>-5.241699999999998</v>
+        <v>-1.3797999999999995</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
@@ -12579,15 +12579,15 @@
       <c r="V48">
         <v>43</v>
       </c>
-      <c r="W48">
-        <v>-17.0532</v>
-      </c>
-      <c r="X48">
-        <v>-5330.79</v>
+      <c r="W48" s="1">
+        <v>-16.995999999999999</v>
+      </c>
+      <c r="X48" s="1">
+        <v>4121.1899999999996</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4132999999999996</v>
+        <v>-1.9788999999999994</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
@@ -12622,15 +12622,15 @@
       <c r="V49">
         <v>44</v>
       </c>
-      <c r="W49">
-        <v>-16.5215</v>
-      </c>
-      <c r="X49">
-        <v>-4111.0200000000004</v>
+      <c r="W49" s="1">
+        <v>-17.3797</v>
+      </c>
+      <c r="X49" s="1">
+        <v>2580.7199999999998</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="0"/>
-        <v>-3.8815999999999988</v>
+        <v>-2.3626000000000005</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
@@ -12665,15 +12665,15 @@
       <c r="V50">
         <v>45</v>
       </c>
-      <c r="W50">
-        <v>-16.088699999999999</v>
-      </c>
-      <c r="X50">
-        <v>-3578.55</v>
+      <c r="W50" s="1">
+        <v>-17.599900000000002</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1362.62</v>
       </c>
       <c r="AC50" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4487999999999985</v>
+        <v>-2.5828000000000024</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -12708,15 +12708,15 @@
       <c r="V51">
         <v>46</v>
       </c>
-      <c r="W51">
-        <v>-15.7225</v>
-      </c>
-      <c r="X51">
-        <v>-3031.19</v>
+      <c r="W51" s="1">
+        <v>-17.695499999999999</v>
+      </c>
+      <c r="X51" s="1">
+        <v>402.46800000000002</v>
       </c>
       <c r="AC51" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0825999999999993</v>
+        <v>-2.6783999999999999</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
@@ -12751,15 +12751,15 @@
       <c r="V52">
         <v>47</v>
       </c>
-      <c r="W52">
-        <v>-15.427199999999999</v>
-      </c>
-      <c r="X52">
-        <v>-2425.9699999999998</v>
+      <c r="W52" s="1">
+        <v>-17.696899999999999</v>
+      </c>
+      <c r="X52" s="1">
+        <v>-347.25</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7872999999999983</v>
+        <v>-2.6798000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
@@ -12794,15 +12794,15 @@
       <c r="V53">
         <v>48</v>
       </c>
-      <c r="W53">
-        <v>-15.1999</v>
-      </c>
-      <c r="X53">
-        <v>-1882.88</v>
+      <c r="W53" s="1">
+        <v>-17.6282</v>
+      </c>
+      <c r="X53" s="1">
+        <v>-926.45600000000002</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5599999999999987</v>
+        <v>-2.6111000000000004</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
@@ -12837,15 +12837,15 @@
       <c r="V54">
         <v>49</v>
       </c>
-      <c r="W54">
-        <v>-15.026300000000001</v>
-      </c>
-      <c r="X54">
-        <v>-1488.65</v>
+      <c r="W54" s="1">
+        <v>-17.508199999999999</v>
+      </c>
+      <c r="X54" s="1">
+        <v>-1366.81</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3864000000000001</v>
+        <v>-2.4910999999999994</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
@@ -12880,15 +12880,15 @@
       <c r="V55">
         <v>50</v>
       </c>
-      <c r="W55">
-        <v>-14.887700000000001</v>
-      </c>
-      <c r="X55">
-        <v>-1260.3</v>
+      <c r="W55" s="1">
+        <v>-17.351800000000001</v>
+      </c>
+      <c r="X55" s="1">
+        <v>-1690.27</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2477999999999998</v>
+        <v>-2.3347000000000016</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
@@ -12923,15 +12923,15 @@
       <c r="V56">
         <v>51</v>
       </c>
-      <c r="W56">
-        <v>-14.7675</v>
-      </c>
-      <c r="X56">
-        <v>-1167.44</v>
+      <c r="W56" s="1">
+        <v>-17.171399999999998</v>
+      </c>
+      <c r="X56" s="1">
+        <v>-1910.06</v>
       </c>
       <c r="AC56" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1275999999999993</v>
+        <v>-2.1542999999999992</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
@@ -12966,15 +12966,15 @@
       <c r="V57">
         <v>52</v>
       </c>
-      <c r="W57">
-        <v>-14.6541</v>
-      </c>
-      <c r="X57">
-        <v>-1161.94</v>
+      <c r="W57" s="1">
+        <v>-16.977699999999999</v>
+      </c>
+      <c r="X57" s="1">
+        <v>-2034.1</v>
       </c>
       <c r="AC57" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0141999999999989</v>
+        <v>-1.9605999999999995</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
@@ -13009,15 +13009,15 @@
       <c r="V58">
         <v>53</v>
       </c>
-      <c r="W58">
-        <v>-14.540900000000001</v>
-      </c>
-      <c r="X58">
-        <v>-1197.5</v>
+      <c r="W58" s="1">
+        <v>-16.779900000000001</v>
+      </c>
+      <c r="X58" s="1">
+        <v>-2069.11</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9009999999999998</v>
+        <v>-1.7628000000000021</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
@@ -13052,15 +13052,15 @@
       <c r="V59">
         <v>54</v>
       </c>
-      <c r="W59">
-        <v>-14.4261</v>
-      </c>
-      <c r="X59">
-        <v>-1238.23</v>
+      <c r="W59" s="1">
+        <v>-16.586400000000001</v>
+      </c>
+      <c r="X59" s="1">
+        <v>-2024.14</v>
       </c>
       <c r="AC59" s="1">
         <f t="shared" si="0"/>
-        <v>-1.7861999999999991</v>
+        <v>-1.5693000000000019</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
@@ -13095,15 +13095,15 @@
       <c r="V60">
         <v>55</v>
       </c>
-      <c r="W60">
-        <v>-14.3102</v>
-      </c>
-      <c r="X60">
-        <v>-1259.93</v>
+      <c r="W60" s="1">
+        <v>-16.403700000000001</v>
+      </c>
+      <c r="X60" s="1">
+        <v>-1912.21</v>
       </c>
       <c r="AC60" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6702999999999992</v>
+        <v>-1.3866000000000014</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
@@ -13138,15 +13138,15 @@
       <c r="V61">
         <v>56</v>
       </c>
-      <c r="W61">
-        <v>-14.1959</v>
-      </c>
-      <c r="X61">
-        <v>-1248.3599999999999</v>
+      <c r="W61" s="1">
+        <v>-16.236899999999999</v>
+      </c>
+      <c r="X61" s="1">
+        <v>-1750.18</v>
       </c>
       <c r="AC61" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5559999999999992</v>
+        <v>-1.2197999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
@@ -13181,15 +13181,15 @@
       <c r="V62">
         <v>57</v>
       </c>
-      <c r="W62">
-        <v>-14.0863</v>
-      </c>
-      <c r="X62">
-        <v>-1196.97</v>
+      <c r="W62" s="1">
+        <v>-16.088899999999999</v>
+      </c>
+      <c r="X62" s="1">
+        <v>-1557.18</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4463999999999988</v>
+        <v>-1.0717999999999996</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
@@ -13224,15 +13224,15 @@
       <c r="V63">
         <v>58</v>
       </c>
-      <c r="W63">
-        <v>-13.9849</v>
-      </c>
-      <c r="X63">
-        <v>-1105.1600000000001</v>
+      <c r="W63" s="1">
+        <v>-15.9611</v>
+      </c>
+      <c r="X63" s="1">
+        <v>-1352.32</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3449999999999989</v>
+        <v>-0.94400000000000084</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
@@ -13267,15 +13267,15 @@
       <c r="V64">
         <v>59</v>
       </c>
-      <c r="W64">
-        <v>-13.8947</v>
-      </c>
-      <c r="X64">
-        <v>-977.298</v>
+      <c r="W64" s="1">
+        <v>-15.853</v>
+      </c>
+      <c r="X64" s="1">
+        <v>-1152.54</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2547999999999995</v>
+        <v>-0.83590000000000053</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
@@ -13310,15 +13310,15 @@
       <c r="V65">
         <v>60</v>
       </c>
-      <c r="W65">
-        <v>-13.818199999999999</v>
-      </c>
-      <c r="X65">
-        <v>-822.26599999999996</v>
+      <c r="W65" s="1">
+        <v>-15.763</v>
+      </c>
+      <c r="X65" s="1">
+        <v>-970.923</v>
       </c>
       <c r="AC65" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1782999999999983</v>
+        <v>-0.74590000000000067</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -13353,15 +13353,15 @@
       <c r="V66">
         <v>61</v>
       </c>
-      <c r="W66">
-        <v>-13.756500000000001</v>
-      </c>
-      <c r="X66">
-        <v>-652.98500000000001</v>
+      <c r="W66" s="1">
+        <v>-15.688499999999999</v>
+      </c>
+      <c r="X66" s="1">
+        <v>-815.94600000000003</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1166</v>
+        <v>-0.67140000000000022</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13396,15 +13396,15 @@
       <c r="V67">
         <v>62</v>
       </c>
-      <c r="W67">
-        <v>-13.7097</v>
-      </c>
-      <c r="X67">
-        <v>-485.53800000000001</v>
+      <c r="W67" s="1">
+        <v>-15.6267</v>
+      </c>
+      <c r="X67" s="1">
+        <v>-691.41300000000001</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="0"/>
-        <v>-1.069799999999999</v>
+        <v>-0.60960000000000036</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
@@ -13439,15 +13439,15 @@
       <c r="V68">
         <v>63</v>
       </c>
-      <c r="W68">
-        <v>-13.676600000000001</v>
-      </c>
-      <c r="X68">
-        <v>-337.64600000000002</v>
+      <c r="W68" s="1">
+        <v>-15.5748</v>
+      </c>
+      <c r="X68" s="1">
+        <v>-597.04600000000005</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0366999999999997</v>
+        <v>-0.55770000000000053</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -13482,15 +13482,15 @@
       <c r="V69">
         <v>64</v>
       </c>
-      <c r="W69">
-        <v>-13.654400000000001</v>
-      </c>
-      <c r="X69">
-        <v>-226.50399999999999</v>
+      <c r="W69" s="1">
+        <v>-15.530099999999999</v>
+      </c>
+      <c r="X69" s="1">
+        <v>-529.42499999999995</v>
       </c>
       <c r="AC69" s="1">
         <f t="shared" ref="AC69:AC104" si="5">W69-$W$105</f>
-        <v>-1.0145</v>
+        <v>-0.5129999999999999</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
@@ -13525,15 +13525,15 @@
       <c r="V70">
         <v>65</v>
       </c>
-      <c r="W70">
-        <v>-13.6394</v>
-      </c>
-      <c r="X70">
-        <v>-166.3</v>
+      <c r="W70" s="1">
+        <v>-15.490500000000001</v>
+      </c>
+      <c r="X70" s="1">
+        <v>-483.06900000000002</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" si="5"/>
-        <v>-0.99949999999999939</v>
+        <v>-0.4734000000000016</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -13568,15 +13568,15 @@
       <c r="V71">
         <v>66</v>
       </c>
-      <c r="W71">
-        <v>-13.626899999999999</v>
-      </c>
-      <c r="X71">
-        <v>-165.92</v>
+      <c r="W71" s="1">
+        <v>-15.454499999999999</v>
+      </c>
+      <c r="X71" s="1">
+        <v>-451.46199999999999</v>
       </c>
       <c r="AC71" s="1">
         <f t="shared" si="5"/>
-        <v>-0.98699999999999832</v>
+        <v>-0.43740000000000023</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -13611,15 +13611,15 @@
       <c r="V72">
         <v>67</v>
       </c>
-      <c r="W72">
-        <v>-13.612299999999999</v>
-      </c>
-      <c r="X72">
-        <v>-227.36099999999999</v>
+      <c r="W72" s="1">
+        <v>-15.420999999999999</v>
+      </c>
+      <c r="X72" s="1">
+        <v>-427.94499999999999</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" si="5"/>
-        <v>-0.9723999999999986</v>
+        <v>-0.40390000000000015</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -13654,15 +13654,15 @@
       <c r="V73">
         <v>68</v>
       </c>
-      <c r="W73">
-        <v>-13.591200000000001</v>
-      </c>
-      <c r="X73">
-        <v>-345.26299999999998</v>
+      <c r="W73" s="1">
+        <v>-15.389699999999999</v>
+      </c>
+      <c r="X73" s="1">
+        <v>-406.40300000000002</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="5"/>
-        <v>-0.95129999999999981</v>
+        <v>-0.37260000000000026</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -13697,15 +13697,15 @@
       <c r="V74">
         <v>69</v>
       </c>
-      <c r="W74">
-        <v>-13.559900000000001</v>
-      </c>
-      <c r="X74">
-        <v>-507.68299999999999</v>
+      <c r="W74" s="1">
+        <v>-15.3606</v>
+      </c>
+      <c r="X74" s="1">
+        <v>-381.77800000000002</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" si="5"/>
-        <v>-0.91999999999999993</v>
+        <v>-0.34350000000000058</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -13740,15 +13740,15 @@
       <c r="V75">
         <v>70</v>
       </c>
-      <c r="W75">
-        <v>-13.5161</v>
-      </c>
-      <c r="X75">
-        <v>-697.93299999999999</v>
+      <c r="W75" s="1">
+        <v>-15.3338</v>
+      </c>
+      <c r="X75" s="1">
+        <v>-350.404</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="5"/>
-        <v>-0.87619999999999898</v>
+        <v>-0.31670000000000087</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
@@ -13783,15 +13783,15 @@
       <c r="V76">
         <v>71</v>
       </c>
-      <c r="W76">
-        <v>-13.4588</v>
-      </c>
-      <c r="X76">
-        <v>-897.05899999999997</v>
+      <c r="W76" s="1">
+        <v>-15.31</v>
+      </c>
+      <c r="X76" s="1">
+        <v>-310.20499999999998</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.8188999999999993</v>
+        <v>-0.29290000000000127</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
@@ -13826,15 +13826,15 @@
       <c r="V77">
         <v>72</v>
       </c>
-      <c r="W77">
-        <v>-13.388400000000001</v>
-      </c>
-      <c r="X77">
-        <v>-1086.42</v>
+      <c r="W77" s="1">
+        <v>-15.2897</v>
+      </c>
+      <c r="X77" s="1">
+        <v>-260.76900000000001</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="5"/>
-        <v>-0.74849999999999994</v>
+        <v>-0.27260000000000062</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
@@ -13869,15 +13869,15 @@
       <c r="V78">
         <v>73</v>
       </c>
-      <c r="W78">
-        <v>-13.3066</v>
-      </c>
-      <c r="X78">
-        <v>-1249.8699999999999</v>
+      <c r="W78" s="1">
+        <v>-15.2735</v>
+      </c>
+      <c r="X78" s="1">
+        <v>-203.30799999999999</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="5"/>
-        <v>-0.66669999999999874</v>
+        <v>-0.25640000000000107</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -13912,15 +13912,15 @@
       <c r="V79">
         <v>74</v>
       </c>
-      <c r="W79">
-        <v>-13.2158</v>
-      </c>
-      <c r="X79">
-        <v>-1375.21</v>
+      <c r="W79" s="1">
+        <v>-15.2616</v>
+      </c>
+      <c r="X79" s="1">
+        <v>-140.5</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="5"/>
-        <v>-0.57589999999999897</v>
+        <v>-0.24450000000000038</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
@@ -13955,15 +13955,15 @@
       <c r="V80">
         <v>75</v>
       </c>
-      <c r="W80">
-        <v>-13.119300000000001</v>
-      </c>
-      <c r="X80">
-        <v>-1454.7</v>
+      <c r="W80" s="1">
+        <v>-15.254200000000001</v>
+      </c>
+      <c r="X80" s="1">
+        <v>-76.2102</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="5"/>
-        <v>-0.47940000000000005</v>
+        <v>-0.23710000000000164</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
@@ -13998,15 +13998,15 @@
       <c r="V81">
         <v>76</v>
       </c>
-      <c r="W81">
-        <v>-13.020300000000001</v>
-      </c>
-      <c r="X81">
-        <v>-1484.86</v>
+      <c r="W81" s="1">
+        <v>-15.251200000000001</v>
+      </c>
+      <c r="X81" s="1">
+        <v>-15.113300000000001</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="5"/>
-        <v>-0.38039999999999985</v>
+        <v>-0.23410000000000153</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
@@ -14041,15 +14041,15 @@
       <c r="V82">
         <v>77</v>
       </c>
-      <c r="W82">
-        <v>-12.9222</v>
-      </c>
-      <c r="X82">
-        <v>-1465.58</v>
+      <c r="W82" s="1">
+        <v>-15.252000000000001</v>
+      </c>
+      <c r="X82" s="1">
+        <v>37.786099999999998</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="5"/>
-        <v>-0.28229999999999933</v>
+        <v>-0.23490000000000144</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
@@ -14084,15 +14084,15 @@
       <c r="V83">
         <v>78</v>
       </c>
-      <c r="W83">
-        <v>-12.828200000000001</v>
-      </c>
-      <c r="X83">
-        <v>-1398.97</v>
+      <c r="W83" s="1">
+        <v>-15.255800000000001</v>
+      </c>
+      <c r="X83" s="1">
+        <v>77.671000000000006</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="5"/>
-        <v>-0.18829999999999991</v>
+        <v>-0.23870000000000147</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
@@ -14127,15 +14127,15 @@
       <c r="V84">
         <v>79</v>
       </c>
-      <c r="W84">
-        <v>-12.741099999999999</v>
-      </c>
-      <c r="X84">
-        <v>-1288.29</v>
+      <c r="W84" s="1">
+        <v>-15.261699999999999</v>
+      </c>
+      <c r="X84" s="1">
+        <v>100.42400000000001</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" si="5"/>
-        <v>-0.10119999999999862</v>
+        <v>-0.24460000000000015</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.2">
@@ -14170,15 +14170,15 @@
       <c r="V85">
         <v>80</v>
       </c>
-      <c r="W85">
-        <v>-12.663500000000001</v>
-      </c>
-      <c r="X85">
-        <v>-1137.1300000000001</v>
+      <c r="W85" s="1">
+        <v>-15.2683</v>
+      </c>
+      <c r="X85" s="1">
+        <v>103.068</v>
       </c>
       <c r="AC85" s="1">
         <f t="shared" si="5"/>
-        <v>-2.3600000000000065E-2</v>
+        <v>-0.25120000000000076</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.2">
@@ -14213,15 +14213,15 @@
       <c r="V86">
         <v>81</v>
       </c>
-      <c r="W86">
-        <v>-12.5976</v>
-      </c>
-      <c r="X86">
-        <v>-949.26099999999997</v>
+      <c r="W86" s="1">
+        <v>-15.2743</v>
+      </c>
+      <c r="X86" s="1">
+        <v>84.079700000000003</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="5"/>
-        <v>4.2300000000000892E-2</v>
+        <v>-0.25720000000000098</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
@@ -14256,15 +14256,15 @@
       <c r="V87">
         <v>82</v>
       </c>
-      <c r="W87">
-        <v>-12.5451</v>
-      </c>
-      <c r="X87">
-        <v>-729.22699999999998</v>
+      <c r="W87" s="1">
+        <v>-15.2784</v>
+      </c>
+      <c r="X87" s="1">
+        <v>43.552999999999997</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" si="5"/>
-        <v>9.4800000000001106E-2</v>
+        <v>-0.26130000000000031</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
@@ -14299,15 +14299,15 @@
       <c r="V88">
         <v>83</v>
       </c>
-      <c r="W88">
-        <v>-12.5077</v>
-      </c>
-      <c r="X88">
-        <v>-483.50400000000002</v>
+      <c r="W88" s="1">
+        <v>-15.279299999999999</v>
+      </c>
+      <c r="X88" s="1">
+        <v>-16.8035</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="5"/>
-        <v>0.13220000000000098</v>
+        <v>-0.26219999999999999</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
@@ -14342,15 +14342,15 @@
       <c r="V89">
         <v>84</v>
       </c>
-      <c r="W89">
-        <v>-12.4862</v>
-      </c>
-      <c r="X89">
-        <v>-222.035</v>
+      <c r="W89" s="1">
+        <v>-15.276</v>
+      </c>
+      <c r="X89" s="1">
+        <v>-93.786299999999997</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" si="5"/>
-        <v>0.15370000000000061</v>
+        <v>-0.25890000000000057</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
@@ -14385,15 +14385,15 @@
       <c r="V90">
         <v>85</v>
       </c>
-      <c r="W90">
-        <v>-12.480700000000001</v>
-      </c>
-      <c r="X90">
-        <v>40.558500000000002</v>
+      <c r="W90" s="1">
+        <v>-15.267799999999999</v>
+      </c>
+      <c r="X90" s="1">
+        <v>-182.88800000000001</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="5"/>
-        <v>0.15920000000000023</v>
+        <v>-0.25070000000000014</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
@@ -14428,15 +14428,15 @@
       <c r="V91">
         <v>86</v>
       </c>
-      <c r="W91">
-        <v>-12.490500000000001</v>
-      </c>
-      <c r="X91">
-        <v>284.82499999999999</v>
+      <c r="W91" s="1">
+        <v>-15.254099999999999</v>
+      </c>
+      <c r="X91" s="1">
+        <v>-278.48700000000002</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="5"/>
-        <v>0.14939999999999998</v>
+        <v>-0.2370000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.2">
@@ -14471,15 +14471,15 @@
       <c r="V92">
         <v>87</v>
       </c>
-      <c r="W92">
-        <v>-12.513500000000001</v>
-      </c>
-      <c r="X92">
-        <v>488.05200000000002</v>
+      <c r="W92" s="1">
+        <v>-15.2349</v>
+      </c>
+      <c r="X92" s="1">
+        <v>-373.99599999999998</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" si="5"/>
-        <v>0.12640000000000029</v>
+        <v>-0.21780000000000044</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
@@ -14514,15 +14514,15 @@
       <c r="V93">
         <v>88</v>
       </c>
-      <c r="W93">
-        <v>-12.546200000000001</v>
-      </c>
-      <c r="X93">
-        <v>627.75</v>
+      <c r="W93" s="1">
+        <v>-15.210599999999999</v>
+      </c>
+      <c r="X93" s="1">
+        <v>-461.959</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" si="5"/>
-        <v>9.3700000000000117E-2</v>
+        <v>-0.19350000000000023</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.2">
@@ -14557,15 +14557,15 @@
       <c r="V94">
         <v>89</v>
       </c>
-      <c r="W94">
-        <v>-12.584300000000001</v>
-      </c>
-      <c r="X94">
-        <v>686.54300000000001</v>
+      <c r="W94" s="1">
+        <v>-15.181900000000001</v>
+      </c>
+      <c r="X94" s="1">
+        <v>-534.13599999999997</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" si="5"/>
-        <v>5.5600000000000094E-2</v>
+        <v>-0.16480000000000139</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
@@ -14600,15 +14600,15 @@
       <c r="V95">
         <v>90</v>
       </c>
-      <c r="W95">
-        <v>-12.6229</v>
-      </c>
-      <c r="X95">
-        <v>657.16499999999996</v>
+      <c r="W95" s="1">
+        <v>-15.1501</v>
+      </c>
+      <c r="X95" s="1">
+        <v>-581.73400000000004</v>
       </c>
       <c r="AC95" s="1">
         <f t="shared" si="5"/>
-        <v>1.7000000000001236E-2</v>
+        <v>-0.1330000000000009</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
@@ -14643,15 +14643,15 @@
       <c r="V96">
         <v>91</v>
       </c>
-      <c r="W96">
-        <v>-12.657</v>
-      </c>
-      <c r="X96">
-        <v>545.81100000000004</v>
+      <c r="W96" s="1">
+        <v>-15.116899999999999</v>
+      </c>
+      <c r="X96" s="1">
+        <v>-595.93299999999999</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="5"/>
-        <v>-1.7099999999999227E-2</v>
+        <v>-9.9800000000000111E-2</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
@@ -14686,15 +14686,15 @@
       <c r="V97">
         <v>92</v>
       </c>
-      <c r="W97">
-        <v>-12.6828</v>
-      </c>
-      <c r="X97">
-        <v>372.339</v>
+      <c r="W97" s="1">
+        <v>-15.084300000000001</v>
+      </c>
+      <c r="X97" s="1">
+        <v>-568.98900000000003</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="5"/>
-        <v>-4.2899999999999494E-2</v>
+        <v>-6.7200000000001481E-2</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
@@ -14729,15 +14729,15 @@
       <c r="V98">
         <v>93</v>
       </c>
-      <c r="W98">
-        <v>-12.697699999999999</v>
-      </c>
-      <c r="X98">
-        <v>166.76400000000001</v>
+      <c r="W98" s="1">
+        <v>-15.0548</v>
+      </c>
+      <c r="X98" s="1">
+        <v>-496.10500000000002</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="5"/>
-        <v>-5.7799999999998519E-2</v>
+        <v>-3.7700000000000955E-2</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
@@ -14772,15 +14772,15 @@
       <c r="V99">
         <v>94</v>
       </c>
-      <c r="W99">
-        <v>-12.7011</v>
-      </c>
-      <c r="X99">
-        <v>-36.9255</v>
+      <c r="W99" s="1">
+        <v>-15.030900000000001</v>
+      </c>
+      <c r="X99" s="1">
+        <v>-378.20499999999998</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="5"/>
-        <v>-6.1199999999999477E-2</v>
+        <v>-1.3800000000001589E-2</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
@@ -14815,15 +14815,15 @@
       <c r="V100">
         <v>95</v>
       </c>
-      <c r="W100">
-        <v>-12.6944</v>
-      </c>
-      <c r="X100">
-        <v>-206.95400000000001</v>
+      <c r="W100" s="1">
+        <v>-15.0145</v>
+      </c>
+      <c r="X100" s="1">
+        <v>-225.50800000000001</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="5"/>
-        <v>-5.4499999999999105E-2</v>
+        <v>2.5999999999992696E-3</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
@@ -14858,15 +14858,15 @@
       <c r="V101">
         <v>96</v>
       </c>
-      <c r="W101">
-        <v>-12.680099999999999</v>
-      </c>
-      <c r="X101">
-        <v>-316.23700000000002</v>
+      <c r="W101" s="1">
+        <v>-15.0069</v>
+      </c>
+      <c r="X101" s="1">
+        <v>-61.422600000000003</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" si="5"/>
-        <v>-4.0199999999998681E-2</v>
+        <v>1.0199999999999321E-2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
@@ -14901,15 +14901,15 @@
       <c r="V102">
         <v>97</v>
       </c>
-      <c r="W102">
-        <v>-12.6624</v>
-      </c>
-      <c r="X102">
-        <v>-338.34300000000002</v>
+      <c r="W102" s="1">
+        <v>-15.007400000000001</v>
+      </c>
+      <c r="X102" s="1">
+        <v>73.936400000000006</v>
       </c>
       <c r="AC102" s="1">
         <f t="shared" si="5"/>
-        <v>-2.2499999999999076E-2</v>
+        <v>9.6999999999987097E-3</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
@@ -14944,15 +14944,15 @@
       <c r="V103">
         <v>98</v>
       </c>
-      <c r="W103">
-        <v>-12.646699999999999</v>
-      </c>
-      <c r="X103">
-        <v>-240.797</v>
+      <c r="W103" s="1">
+        <v>-15.0131</v>
+      </c>
+      <c r="X103" s="1">
+        <v>121.265</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" si="5"/>
-        <v>-6.7999999999983629E-3</v>
+        <v>3.9999999999995595E-3</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
@@ -14987,11 +14987,11 @@
       <c r="V104">
         <v>99</v>
       </c>
-      <c r="W104">
-        <v>-12.639900000000001</v>
+      <c r="W104" s="1">
+        <v>-15.017099999999999</v>
       </c>
       <c r="X104" s="1">
-        <v>-6.4543099999999997E-11</v>
+        <v>5.0848099999999999E-11</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" si="5"/>
@@ -15030,10 +15030,10 @@
       <c r="V105">
         <v>100</v>
       </c>
-      <c r="W105">
-        <v>-12.639900000000001</v>
-      </c>
-      <c r="X105">
+      <c r="W105" s="1">
+        <v>-15.017099999999999</v>
+      </c>
+      <c r="X105" s="1">
         <v>0</v>
       </c>
       <c r="AC105" s="1">

--- a/MTP_fitting/pair_test.xlsx
+++ b/MTP_fitting/pair_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/MTP_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/MTP_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849C0BF-F620-F146-BA86-7840BABA1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EDABD-E5E3-3843-A1C5-3BA01C1B21EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
+    <workbookView xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3897,307 +3897,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>239164000000</c:v>
+                  <c:v>6230900000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239164000000</c:v>
+                  <c:v>6230900000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119261000000</c:v>
+                  <c:v>3564460000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58204200000</c:v>
+                  <c:v>2018800000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27744500000</c:v>
+                  <c:v>1131540000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12885600000</c:v>
+                  <c:v>627386000000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5813990000</c:v>
+                  <c:v>343937000000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2539470000</c:v>
+                  <c:v>186329000000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1069070000</c:v>
+                  <c:v>99702100000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>431392000</c:v>
+                  <c:v>52661200000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165672000</c:v>
+                  <c:v>27438700000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59986600</c:v>
+                  <c:v>14093400000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20215600</c:v>
+                  <c:v>7130570000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6224570</c:v>
+                  <c:v>3550780000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1701960</c:v>
+                  <c:v>1738680000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>393404</c:v>
+                  <c:v>836329000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69131.399999999994</c:v>
+                  <c:v>394741000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6258.23</c:v>
+                  <c:v>182595000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-619.95100000000002</c:v>
+                  <c:v>82661800000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>718.43799999999999</c:v>
+                  <c:v>36566600000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2448.6799999999998</c:v>
+                  <c:v>15778200000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3956.68</c:v>
+                  <c:v>6627480000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5075.01</c:v>
+                  <c:v>2703590000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5567.45</c:v>
+                  <c:v>1068190000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5383.21</c:v>
+                  <c:v>407448000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4686.41</c:v>
+                  <c:v>149460000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3734.09</c:v>
+                  <c:v>52474300</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2757.48</c:v>
+                  <c:v>17528400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1905.12</c:v>
+                  <c:v>5527900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1240.1600000000001</c:v>
+                  <c:v>1628820</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>764.50900000000001</c:v>
+                  <c:v>441775</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>447.71300000000002</c:v>
+                  <c:v>107749</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>249.172</c:v>
+                  <c:v>22659</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.11699999999999</c:v>
+                  <c:v>3722.13</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63.998899999999999</c:v>
+                  <c:v>307.471</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.179200000000002</c:v>
+                  <c:v>-80.888199999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.4396699999999996</c:v>
+                  <c:v>-55.613399999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.1002800000000001</c:v>
+                  <c:v>-25.459599999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.8533600000000003</c:v>
+                  <c:v>-14.9536</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.155200000000001</c:v>
+                  <c:v>-12.520799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-14.1821</c:v>
+                  <c:v>-12.6234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-15.504799999999999</c:v>
+                  <c:v>-13.485799999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-16.396899999999999</c:v>
+                  <c:v>-14.4648</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-16.995999999999999</c:v>
+                  <c:v>-15.2879</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17.3797</c:v>
+                  <c:v>-15.8721</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-17.599900000000002</c:v>
+                  <c:v>-16.235399999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-17.695499999999999</c:v>
+                  <c:v>-16.4297</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-17.696899999999999</c:v>
+                  <c:v>-16.5044</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-17.6282</c:v>
+                  <c:v>-16.496099999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.508199999999999</c:v>
+                  <c:v>-16.430299999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-17.351800000000001</c:v>
+                  <c:v>-16.325500000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-17.171399999999998</c:v>
+                  <c:v>-16.1965</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-16.977699999999999</c:v>
+                  <c:v>-16.0547</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-16.779900000000001</c:v>
+                  <c:v>-15.9086</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-16.586400000000001</c:v>
+                  <c:v>-15.7643</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.403700000000001</c:v>
+                  <c:v>-15.625299999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.236899999999999</c:v>
+                  <c:v>-15.494300000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-16.088899999999999</c:v>
+                  <c:v>-15.372999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-15.9611</c:v>
+                  <c:v>-15.262700000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.853</c:v>
+                  <c:v>-15.164400000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.763</c:v>
+                  <c:v>-15.0784</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.688499999999999</c:v>
+                  <c:v>-15.0044</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-15.6267</c:v>
+                  <c:v>-14.9413</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-15.5748</c:v>
+                  <c:v>-14.8878</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-15.530099999999999</c:v>
+                  <c:v>-14.8423</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-15.490500000000001</c:v>
+                  <c:v>-14.8033</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-15.454499999999999</c:v>
+                  <c:v>-14.769299999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-15.420999999999999</c:v>
+                  <c:v>-14.739000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-15.389699999999999</c:v>
+                  <c:v>-14.711600000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-15.3606</c:v>
+                  <c:v>-14.686</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-15.3338</c:v>
+                  <c:v>-14.6617</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-15.31</c:v>
+                  <c:v>-14.638</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-15.2897</c:v>
+                  <c:v>-14.6144</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-15.2735</c:v>
+                  <c:v>-14.5908</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-15.2616</c:v>
+                  <c:v>-14.5669</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-15.254200000000001</c:v>
+                  <c:v>-14.542899999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-15.251200000000001</c:v>
+                  <c:v>-14.5191</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-15.252000000000001</c:v>
+                  <c:v>-14.495699999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-15.255800000000001</c:v>
+                  <c:v>-14.4735</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-15.261699999999999</c:v>
+                  <c:v>-14.4526</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-15.2683</c:v>
+                  <c:v>-14.433400000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-15.2743</c:v>
+                  <c:v>-14.415800000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-15.2784</c:v>
+                  <c:v>-14.399699999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-15.279299999999999</c:v>
+                  <c:v>-14.384600000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-15.276</c:v>
+                  <c:v>-14.3698</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-15.267799999999999</c:v>
+                  <c:v>-14.354699999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-15.254099999999999</c:v>
+                  <c:v>-14.338699999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-15.2349</c:v>
+                  <c:v>-14.321400000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-15.210599999999999</c:v>
+                  <c:v>-14.302300000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-15.181900000000001</c:v>
+                  <c:v>-14.281599999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-15.1501</c:v>
+                  <c:v>-14.2593</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-15.116899999999999</c:v>
+                  <c:v>-14.235900000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-15.084300000000001</c:v>
+                  <c:v>-14.2125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-15.0548</c:v>
+                  <c:v>-14.1904</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-15.030900000000001</c:v>
+                  <c:v>-14.1716</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-15.0145</c:v>
+                  <c:v>-14.158300000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-15.0069</c:v>
+                  <c:v>-14.151999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-15.007400000000001</c:v>
+                  <c:v>-14.1533</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-15.0131</c:v>
+                  <c:v>-14.159599999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-15.017099999999999</c:v>
+                  <c:v>-14.164199999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-15.017099999999999</c:v>
+                  <c:v>-14.164199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,307 +4750,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>239164000000</c:v>
+                  <c:v>6230900000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239164000000</c:v>
+                  <c:v>6230900000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119261000000</c:v>
+                  <c:v>3564460000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58204200000</c:v>
+                  <c:v>2018800000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27744500000</c:v>
+                  <c:v>1131540000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12885600000</c:v>
+                  <c:v>627386000000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5813990000</c:v>
+                  <c:v>343937000000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2539470000</c:v>
+                  <c:v>186329000000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1069070000</c:v>
+                  <c:v>99702100000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>431392000</c:v>
+                  <c:v>52661200000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165672000</c:v>
+                  <c:v>27438700000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59986600</c:v>
+                  <c:v>14093400000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20215600</c:v>
+                  <c:v>7130570000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6224570</c:v>
+                  <c:v>3550780000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1701960</c:v>
+                  <c:v>1738680000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>393404</c:v>
+                  <c:v>836329000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69131.399999999994</c:v>
+                  <c:v>394741000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6258.23</c:v>
+                  <c:v>182595000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-619.95100000000002</c:v>
+                  <c:v>82661800000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>718.43799999999999</c:v>
+                  <c:v>36566600000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2448.6799999999998</c:v>
+                  <c:v>15778200000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3956.68</c:v>
+                  <c:v>6627480000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5075.01</c:v>
+                  <c:v>2703590000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5567.45</c:v>
+                  <c:v>1068190000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5383.21</c:v>
+                  <c:v>407448000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4686.41</c:v>
+                  <c:v>149460000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3734.09</c:v>
+                  <c:v>52474300</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2757.48</c:v>
+                  <c:v>17528400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1905.12</c:v>
+                  <c:v>5527900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1240.1600000000001</c:v>
+                  <c:v>1628820</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>764.50900000000001</c:v>
+                  <c:v>441775</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>447.71300000000002</c:v>
+                  <c:v>107749</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>249.172</c:v>
+                  <c:v>22659</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.11699999999999</c:v>
+                  <c:v>3722.13</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63.998899999999999</c:v>
+                  <c:v>307.471</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.179200000000002</c:v>
+                  <c:v>-80.888199999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.4396699999999996</c:v>
+                  <c:v>-55.613399999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.1002800000000001</c:v>
+                  <c:v>-25.459599999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.8533600000000003</c:v>
+                  <c:v>-14.9536</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.155200000000001</c:v>
+                  <c:v>-12.520799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-14.1821</c:v>
+                  <c:v>-12.6234</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-15.504799999999999</c:v>
+                  <c:v>-13.485799999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-16.396899999999999</c:v>
+                  <c:v>-14.4648</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-16.995999999999999</c:v>
+                  <c:v>-15.2879</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17.3797</c:v>
+                  <c:v>-15.8721</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-17.599900000000002</c:v>
+                  <c:v>-16.235399999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-17.695499999999999</c:v>
+                  <c:v>-16.4297</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-17.696899999999999</c:v>
+                  <c:v>-16.5044</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-17.6282</c:v>
+                  <c:v>-16.496099999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.508199999999999</c:v>
+                  <c:v>-16.430299999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-17.351800000000001</c:v>
+                  <c:v>-16.325500000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-17.171399999999998</c:v>
+                  <c:v>-16.1965</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-16.977699999999999</c:v>
+                  <c:v>-16.0547</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-16.779900000000001</c:v>
+                  <c:v>-15.9086</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-16.586400000000001</c:v>
+                  <c:v>-15.7643</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.403700000000001</c:v>
+                  <c:v>-15.625299999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.236899999999999</c:v>
+                  <c:v>-15.494300000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-16.088899999999999</c:v>
+                  <c:v>-15.372999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-15.9611</c:v>
+                  <c:v>-15.262700000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.853</c:v>
+                  <c:v>-15.164400000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.763</c:v>
+                  <c:v>-15.0784</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.688499999999999</c:v>
+                  <c:v>-15.0044</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-15.6267</c:v>
+                  <c:v>-14.9413</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-15.5748</c:v>
+                  <c:v>-14.8878</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-15.530099999999999</c:v>
+                  <c:v>-14.8423</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-15.490500000000001</c:v>
+                  <c:v>-14.8033</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-15.454499999999999</c:v>
+                  <c:v>-14.769299999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-15.420999999999999</c:v>
+                  <c:v>-14.739000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-15.389699999999999</c:v>
+                  <c:v>-14.711600000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-15.3606</c:v>
+                  <c:v>-14.686</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-15.3338</c:v>
+                  <c:v>-14.6617</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-15.31</c:v>
+                  <c:v>-14.638</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-15.2897</c:v>
+                  <c:v>-14.6144</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-15.2735</c:v>
+                  <c:v>-14.5908</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-15.2616</c:v>
+                  <c:v>-14.5669</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-15.254200000000001</c:v>
+                  <c:v>-14.542899999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-15.251200000000001</c:v>
+                  <c:v>-14.5191</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-15.252000000000001</c:v>
+                  <c:v>-14.495699999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-15.255800000000001</c:v>
+                  <c:v>-14.4735</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-15.261699999999999</c:v>
+                  <c:v>-14.4526</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-15.2683</c:v>
+                  <c:v>-14.433400000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-15.2743</c:v>
+                  <c:v>-14.415800000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-15.2784</c:v>
+                  <c:v>-14.399699999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-15.279299999999999</c:v>
+                  <c:v>-14.384600000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-15.276</c:v>
+                  <c:v>-14.3698</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-15.267799999999999</c:v>
+                  <c:v>-14.354699999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-15.254099999999999</c:v>
+                  <c:v>-14.338699999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-15.2349</c:v>
+                  <c:v>-14.321400000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-15.210599999999999</c:v>
+                  <c:v>-14.302300000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-15.181900000000001</c:v>
+                  <c:v>-14.281599999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-15.1501</c:v>
+                  <c:v>-14.2593</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-15.116899999999999</c:v>
+                  <c:v>-14.235900000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-15.084300000000001</c:v>
+                  <c:v>-14.2125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-15.0548</c:v>
+                  <c:v>-14.1904</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-15.030900000000001</c:v>
+                  <c:v>-14.1716</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-15.0145</c:v>
+                  <c:v>-14.158300000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-15.0069</c:v>
+                  <c:v>-14.151999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-15.007400000000001</c:v>
+                  <c:v>-14.1533</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-15.0131</c:v>
+                  <c:v>-14.159599999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-15.017099999999999</c:v>
+                  <c:v>-14.164199999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-15.017099999999999</c:v>
+                  <c:v>-14.164199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,301 +5607,301 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>239164000015.01709</c:v>
+                  <c:v>6230900000000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239164000015.01709</c:v>
+                  <c:v>6230900000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119261000015.01711</c:v>
+                  <c:v>3564460000000014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58204200015.017097</c:v>
+                  <c:v>2018800000000014.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27744500015.017101</c:v>
+                  <c:v>1131540000000014.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12885600015.017099</c:v>
+                  <c:v>627386000000014.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5813990015.0171003</c:v>
+                  <c:v>343937000000014.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2539470015.0170999</c:v>
+                  <c:v>186329000000014.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1069070015.0171</c:v>
+                  <c:v>99702100000014.172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>431392015.01709998</c:v>
+                  <c:v>52661200000014.164</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165672015.01710001</c:v>
+                  <c:v>27438700000014.164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59986615.017099999</c:v>
+                  <c:v>14093400000014.164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20215615.017099999</c:v>
+                  <c:v>7130570000014.1641</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6224585.0170999998</c:v>
+                  <c:v>3550780000014.1641</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1701975.0171000001</c:v>
+                  <c:v>1738680000014.1643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>393419.0171</c:v>
+                  <c:v>836329000014.16418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69146.417099999991</c:v>
+                  <c:v>394741000014.16418</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6273.2470999999996</c:v>
+                  <c:v>182595000014.16422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-604.93389999999999</c:v>
+                  <c:v>82661800014.1642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>733.45510000000002</c:v>
+                  <c:v>36566600014.1642</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2463.6970999999999</c:v>
+                  <c:v>15778200014.1642</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3971.6970999999999</c:v>
+                  <c:v>6627480014.1641998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5090.0271000000002</c:v>
+                  <c:v>2703590014.1641998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5582.4670999999998</c:v>
+                  <c:v>1068190014.1641999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5398.2271000000001</c:v>
+                  <c:v>407448014.16420001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4701.4270999999999</c:v>
+                  <c:v>149460014.16420001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3749.1071000000002</c:v>
+                  <c:v>52474314.1642</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2772.4971</c:v>
+                  <c:v>17528414.1642</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1920.1370999999999</c:v>
+                  <c:v>5527914.1642000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1255.1771000000001</c:v>
+                  <c:v>1628834.1642</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>779.52610000000004</c:v>
+                  <c:v>441789.1642</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>462.73009999999999</c:v>
+                  <c:v>107763.1642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>264.1891</c:v>
+                  <c:v>22673.164199999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>146.13409999999999</c:v>
+                  <c:v>3736.2942000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>79.015999999999991</c:v>
+                  <c:v>321.6352</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42.196300000000001</c:v>
+                  <c:v>-66.724000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.456769999999999</c:v>
+                  <c:v>-41.449199999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.91682</c:v>
+                  <c:v>-11.295399999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.1637399999999989</c:v>
+                  <c:v>-0.78940000000000055</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8618999999999986</c:v>
+                  <c:v>1.6433999999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.83499999999999908</c:v>
+                  <c:v>1.5407999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.48770000000000024</c:v>
+                  <c:v>0.67839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.3797999999999995</c:v>
+                  <c:v>-0.30060000000000109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.9788999999999994</c:v>
+                  <c:v>-1.1237000000000013</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.3626000000000005</c:v>
+                  <c:v>-1.7079000000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.5828000000000024</c:v>
+                  <c:v>-2.0711999999999993</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.6783999999999999</c:v>
+                  <c:v>-2.2655000000000012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.6798000000000002</c:v>
+                  <c:v>-2.3402000000000012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.6111000000000004</c:v>
+                  <c:v>-2.3318999999999992</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.4910999999999994</c:v>
+                  <c:v>-2.2660999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.3347000000000016</c:v>
+                  <c:v>-2.1613000000000024</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.1542999999999992</c:v>
+                  <c:v>-2.0323000000000011</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.9605999999999995</c:v>
+                  <c:v>-1.8905000000000012</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.7628000000000021</c:v>
+                  <c:v>-1.7444000000000006</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.5693000000000019</c:v>
+                  <c:v>-1.6001000000000012</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.3866000000000014</c:v>
+                  <c:v>-1.4611000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.2197999999999993</c:v>
+                  <c:v>-1.3301000000000016</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.0717999999999996</c:v>
+                  <c:v>-1.2088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.94400000000000084</c:v>
+                  <c:v>-1.0985000000000014</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.83590000000000053</c:v>
+                  <c:v>-1.0002000000000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.74590000000000067</c:v>
+                  <c:v>-0.91420000000000101</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.67140000000000022</c:v>
+                  <c:v>-0.84020000000000117</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.60960000000000036</c:v>
+                  <c:v>-0.77710000000000079</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.55770000000000053</c:v>
+                  <c:v>-0.72360000000000113</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.5129999999999999</c:v>
+                  <c:v>-0.67810000000000059</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.4734000000000016</c:v>
+                  <c:v>-0.63910000000000089</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.43740000000000023</c:v>
+                  <c:v>-0.60510000000000019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.40390000000000015</c:v>
+                  <c:v>-0.57480000000000153</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.37260000000000026</c:v>
+                  <c:v>-0.54740000000000144</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.34350000000000058</c:v>
+                  <c:v>-0.52180000000000071</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.31670000000000087</c:v>
+                  <c:v>-0.4975000000000005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.29290000000000127</c:v>
+                  <c:v>-0.47380000000000067</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.27260000000000062</c:v>
+                  <c:v>-0.4502000000000006</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.25640000000000107</c:v>
+                  <c:v>-0.42660000000000053</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.24450000000000038</c:v>
+                  <c:v>-0.40270000000000117</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.23710000000000164</c:v>
+                  <c:v>-0.37870000000000026</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.23410000000000153</c:v>
+                  <c:v>-0.35490000000000066</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.23490000000000144</c:v>
+                  <c:v>-0.33150000000000013</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.23870000000000147</c:v>
+                  <c:v>-0.30930000000000035</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.24460000000000015</c:v>
+                  <c:v>-0.2884000000000011</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.25120000000000076</c:v>
+                  <c:v>-0.26920000000000144</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.25720000000000098</c:v>
+                  <c:v>-0.2516000000000016</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.26130000000000031</c:v>
+                  <c:v>-0.23550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.26219999999999999</c:v>
+                  <c:v>-0.22040000000000148</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.25890000000000057</c:v>
+                  <c:v>-0.20560000000000045</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.25070000000000014</c:v>
+                  <c:v>-0.19050000000000011</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.2370000000000001</c:v>
+                  <c:v>-0.1745000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.21780000000000044</c:v>
+                  <c:v>-0.15720000000000134</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.19350000000000023</c:v>
+                  <c:v>-0.13810000000000144</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.16480000000000139</c:v>
+                  <c:v>-0.11739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.1330000000000009</c:v>
+                  <c:v>-9.5100000000000406E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-9.9800000000000111E-2</c:v>
+                  <c:v>-7.1700000000001651E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-6.7200000000001481E-2</c:v>
+                  <c:v>-4.830000000000112E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.7700000000000955E-2</c:v>
+                  <c:v>-2.6200000000001111E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.3800000000001589E-2</c:v>
+                  <c:v>-7.4000000000005173E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.5999999999992696E-3</c:v>
+                  <c:v>5.8999999999986841E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0199999999999321E-2</c:v>
+                  <c:v>1.2199999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.6999999999987097E-3</c:v>
+                  <c:v>1.0899999999999466E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>4.5999999999999375E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -10590,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFC2F2-B2E1-BA4C-83BC-6A37C3092F9C}">
   <dimension ref="B1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" topLeftCell="O14" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10731,14 +10731,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>239164000000</v>
+        <v>6230900000000000</v>
       </c>
       <c r="X5" s="1">
-        <v>63835200000000</v>
+        <v>1.3428E+18</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC68" si="0">W5-$W$105</f>
-        <v>239164000015.01709</v>
+        <f>W5-$W$105</f>
+        <v>6230900000000014</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
@@ -10763,7 +10763,7 @@
         <v>30019800000000</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" ref="S6:S69" si="1">M6-D6</f>
+        <f t="shared" ref="S6:S69" si="0">M6-D6</f>
         <v>0</v>
       </c>
       <c r="U6">
@@ -10774,14 +10774,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>239164000000</v>
+        <v>6230900000000000</v>
       </c>
       <c r="X6" s="1">
-        <v>63835200000000</v>
+        <v>1.3428E+18</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="0"/>
-        <v>239164000015.01709</v>
+        <f t="shared" ref="AC6:AC68" si="1">W6-$W$105</f>
+        <v>6230900000000014</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -10806,7 +10806,7 @@
         <v>10584400000000</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7">
@@ -10817,14 +10817,14 @@
         <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>119261000000</v>
+        <v>3564460000000000</v>
       </c>
       <c r="X7" s="1">
-        <v>49181400000000</v>
+        <v>1.17265E+18</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="0"/>
-        <v>119261000015.01711</v>
+        <f t="shared" si="1"/>
+        <v>3564460000000014</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -10849,7 +10849,7 @@
         <v>3602400000000</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8">
@@ -10860,14 +10860,14 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
-        <v>58204200000</v>
+        <v>2018800000000000</v>
       </c>
       <c r="X8" s="1">
-        <v>33022300000000</v>
+        <v>9.01573E+17</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="0"/>
-        <v>58204200015.017097</v>
+        <f t="shared" si="1"/>
+        <v>2018800000000014.2</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
@@ -10892,7 +10892,7 @@
         <v>1180230000000</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9">
@@ -10903,14 +10903,14 @@
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>27744500000</v>
+        <v>1131540000000000</v>
       </c>
       <c r="X9" s="1">
-        <v>20343400000000</v>
+        <v>6.43372E+17</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="0"/>
-        <v>27744500015.017101</v>
+        <f t="shared" si="1"/>
+        <v>1131540000000014.2</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -10935,7 +10935,7 @@
         <v>371026000000</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10">
@@ -10946,14 +10946,14 @@
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>12885600000</v>
+        <v>627386000000000</v>
       </c>
       <c r="X10" s="1">
-        <v>11749800000000</v>
+        <v>4.36184E+17</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="0"/>
-        <v>12885600015.017099</v>
+        <f t="shared" si="1"/>
+        <v>627386000000014.12</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -10978,7 +10978,7 @@
         <v>111507000000</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11">
@@ -10989,14 +10989,14 @@
         <v>6</v>
       </c>
       <c r="W11" s="1">
-        <v>5813990000</v>
+        <v>343937000000000</v>
       </c>
       <c r="X11" s="1">
-        <v>6427270000000</v>
+        <v>2.84396E+17</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="0"/>
-        <v>5813990015.0171003</v>
+        <f t="shared" si="1"/>
+        <v>343937000000014.19</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
@@ -11021,7 +11021,7 @@
         <v>31900600000</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12">
@@ -11032,14 +11032,14 @@
         <v>7</v>
       </c>
       <c r="W12" s="1">
-        <v>2539470000</v>
+        <v>186329000000000</v>
       </c>
       <c r="X12" s="1">
-        <v>3344790000000</v>
+        <v>1.79595E+17</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="0"/>
-        <v>2539470015.0170999</v>
+        <f t="shared" si="1"/>
+        <v>186329000000014.16</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -11064,7 +11064,7 @@
         <v>8643620000</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13">
@@ -11075,14 +11075,14 @@
         <v>8</v>
       </c>
       <c r="W13" s="1">
-        <v>1069070000</v>
+        <v>99702100000000</v>
       </c>
       <c r="X13" s="1">
-        <v>1657880000000</v>
+        <v>1.10325E+17</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="0"/>
-        <v>1069070015.0171</v>
+        <f t="shared" si="1"/>
+        <v>99702100000014.172</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
@@ -11107,7 +11107,7 @@
         <v>2204700000</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
@@ -11118,14 +11118,14 @@
         <v>9</v>
       </c>
       <c r="W14" s="1">
-        <v>431392000</v>
+        <v>52661200000000</v>
       </c>
       <c r="X14" s="1">
-        <v>781610000000</v>
+        <v>6.61088E+16</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="0"/>
-        <v>431392015.01709998</v>
+        <f t="shared" si="1"/>
+        <v>52661200000014.164</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
@@ -11150,7 +11150,7 @@
         <v>525412000</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15">
@@ -11161,14 +11161,14 @@
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>165672000</v>
+        <v>27438700000000</v>
       </c>
       <c r="X15" s="1">
-        <v>349240000000</v>
+        <v>3.87099E+16</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="0"/>
-        <v>165672015.01710001</v>
+        <f t="shared" si="1"/>
+        <v>27438700000014.164</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
@@ -11193,7 +11193,7 @@
         <v>115869000</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16">
@@ -11204,14 +11204,14 @@
         <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>59986600</v>
+        <v>14093400000000</v>
       </c>
       <c r="X16" s="1">
-        <v>147001000000</v>
+        <v>2.21736E+16</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="0"/>
-        <v>59986615.017099999</v>
+        <f t="shared" si="1"/>
+        <v>14093400000014.164</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -11236,7 +11236,7 @@
         <v>23340200</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="U17">
@@ -11247,14 +11247,14 @@
         <v>12</v>
       </c>
       <c r="W17" s="1">
-        <v>20215600</v>
+        <v>7130570000000</v>
       </c>
       <c r="X17" s="1">
-        <v>57751900000</v>
+        <v>1.24329E+16</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="0"/>
-        <v>20215615.017099999</v>
+        <f t="shared" si="1"/>
+        <v>7130570000014.1641</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
         <v>4212670</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="U18">
@@ -11290,14 +11290,14 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>6224570</v>
+        <v>3550780000000</v>
       </c>
       <c r="X18" s="1">
-        <v>20885500000</v>
+        <v>6825540000000000</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="0"/>
-        <v>6224585.0170999998</v>
+        <f t="shared" si="1"/>
+        <v>3550780000014.1641</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
@@ -11322,7 +11322,7 @@
         <v>659307</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="U19">
@@ -11333,14 +11333,14 @@
         <v>14</v>
       </c>
       <c r="W19" s="1">
-        <v>1701960</v>
+        <v>1738680000000</v>
       </c>
       <c r="X19" s="1">
-        <v>6806150000</v>
+        <v>3668760000000000</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="0"/>
-        <v>1701975.0171000001</v>
+        <f t="shared" si="1"/>
+        <v>1738680000014.1643</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
@@ -11365,7 +11365,7 @@
         <v>83303.100000000006</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42.100000000005821</v>
       </c>
       <c r="U20">
@@ -11376,14 +11376,14 @@
         <v>15</v>
       </c>
       <c r="W20" s="1">
-        <v>393404</v>
+        <v>836329000000</v>
       </c>
       <c r="X20" s="1">
-        <v>1929910000</v>
+        <v>1930180000000000</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="0"/>
-        <v>393419.0171</v>
+        <f t="shared" si="1"/>
+        <v>836329000014.16418</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -11408,7 +11408,7 @@
         <v>6588.78</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27.840000000000146</v>
       </c>
       <c r="U21">
@@ -11419,14 +11419,14 @@
         <v>16</v>
       </c>
       <c r="W21" s="1">
-        <v>69131.399999999994</v>
+        <v>394741000000</v>
       </c>
       <c r="X21" s="1">
-        <v>445752000</v>
+        <v>993472000000000</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="0"/>
-        <v>69146.417099999991</v>
+        <f t="shared" si="1"/>
+        <v>394741000014.16418</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
@@ -11451,7 +11451,7 @@
         <v>-375.60500000000002</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.06899999999996</v>
       </c>
       <c r="U22">
@@ -11462,14 +11462,14 @@
         <v>17</v>
       </c>
       <c r="W22" s="1">
-        <v>6258.23</v>
+        <v>182595000000</v>
       </c>
       <c r="X22" s="1">
-        <v>70351700</v>
+        <v>499909000000000</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="0"/>
-        <v>6273.2470999999996</v>
+        <f t="shared" si="1"/>
+        <v>182595000014.16422</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
@@ -11494,7 +11494,7 @@
         <v>-306.38</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.370999999999981</v>
       </c>
       <c r="U23">
@@ -11505,14 +11505,14 @@
         <v>18</v>
       </c>
       <c r="W23" s="1">
-        <v>-619.95100000000002</v>
+        <v>82661800000</v>
       </c>
       <c r="X23" s="1">
-        <v>14156.7</v>
+        <v>245701000000000</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="0"/>
-        <v>-604.93389999999999</v>
+        <f t="shared" si="1"/>
+        <v>82661800014.1642</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
@@ -11537,7 +11537,7 @@
         <v>-90.486699999999999</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8228000000000009</v>
       </c>
       <c r="U24">
@@ -11548,14 +11548,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <v>718.43799999999999</v>
+        <v>36566600000</v>
       </c>
       <c r="X24" s="1">
-        <v>-7017230</v>
+        <v>117820000000000</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="0"/>
-        <v>733.45510000000002</v>
+        <f t="shared" si="1"/>
+        <v>36566600014.1642</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
@@ -11580,7 +11580,7 @@
         <v>-28.095700000000001</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8070999999999984</v>
       </c>
       <c r="U25">
@@ -11591,14 +11591,14 @@
         <v>20</v>
       </c>
       <c r="W25" s="1">
-        <v>2448.6799999999998</v>
+        <v>15778200000</v>
       </c>
       <c r="X25" s="1">
-        <v>-6661410</v>
+        <v>55047000000000</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="0"/>
-        <v>2463.6970999999999</v>
+        <f t="shared" si="1"/>
+        <v>15778200014.1642</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -11623,7 +11623,7 @@
         <v>-16.058199999999999</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.898299999999999</v>
       </c>
       <c r="U26">
@@ -11634,14 +11634,14 @@
         <v>21</v>
       </c>
       <c r="W26" s="1">
-        <v>3956.68</v>
+        <v>6627480000</v>
       </c>
       <c r="X26" s="1">
-        <v>-5810920</v>
+        <v>25017900000000</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="0"/>
-        <v>3971.6970999999999</v>
+        <f t="shared" si="1"/>
+        <v>6627480014.1641998</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
@@ -11666,7 +11666,7 @@
         <v>-14.7195</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.78640000000000043</v>
       </c>
       <c r="U27">
@@ -11677,14 +11677,14 @@
         <v>22</v>
       </c>
       <c r="W27" s="1">
-        <v>5075.01</v>
+        <v>2703590000</v>
       </c>
       <c r="X27" s="1">
-        <v>-3736390</v>
+        <v>11039100000000</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="0"/>
-        <v>5090.0271000000002</v>
+        <f t="shared" si="1"/>
+        <v>2703590014.1641998</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
         <v>-14.875299999999999</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.23040000000000127</v>
       </c>
       <c r="U28">
@@ -11720,14 +11720,14 @@
         <v>23</v>
       </c>
       <c r="W28" s="1">
-        <v>5567.45</v>
+        <v>1068190000</v>
       </c>
       <c r="X28" s="1">
-        <v>-661914</v>
+        <v>4718280000000</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="0"/>
-        <v>5582.4670999999998</v>
+        <f t="shared" si="1"/>
+        <v>1068190014.1641999</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
@@ -11752,7 +11752,7 @@
         <v>-14.9276</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8600000000000847E-2</v>
       </c>
       <c r="U29">
@@ -11763,14 +11763,14 @@
         <v>24</v>
       </c>
       <c r="W29" s="1">
-        <v>5383.21</v>
+        <v>407448000</v>
       </c>
       <c r="X29" s="1">
-        <v>2337450</v>
+        <v>1948090000000</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="0"/>
-        <v>5398.2271000000001</v>
+        <f t="shared" si="1"/>
+        <v>407448014.16420001</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
@@ -11795,7 +11795,7 @@
         <v>-14.7729</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U30">
@@ -11806,14 +11806,14 @@
         <v>25</v>
       </c>
       <c r="W30" s="1">
-        <v>4686.41</v>
+        <v>149460000</v>
       </c>
       <c r="X30" s="1">
-        <v>4393730</v>
+        <v>774406000000</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="0"/>
-        <v>4701.4270999999999</v>
+        <f t="shared" si="1"/>
+        <v>149460014.16420001</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
@@ -11838,7 +11838,7 @@
         <v>-14.518800000000001</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U31">
@@ -11849,14 +11849,14 @@
         <v>26</v>
       </c>
       <c r="W31" s="1">
-        <v>3734.09</v>
+        <v>52474300</v>
       </c>
       <c r="X31" s="1">
-        <v>5238780</v>
+        <v>295186000000</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="0"/>
-        <v>3749.1071000000002</v>
+        <f t="shared" si="1"/>
+        <v>52474314.1642</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
@@ -11881,7 +11881,7 @@
         <v>-14.197800000000001</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U32">
@@ -11892,14 +11892,14 @@
         <v>27</v>
       </c>
       <c r="W32" s="1">
-        <v>2757.48</v>
+        <v>17528400</v>
       </c>
       <c r="X32" s="1">
-        <v>5076660</v>
+        <v>107347000000</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="0"/>
-        <v>2772.4971</v>
+        <f t="shared" si="1"/>
+        <v>17528414.1642</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.2">
@@ -11924,7 +11924,7 @@
         <v>-13.8301</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U33">
@@ -11935,14 +11935,14 @@
         <v>28</v>
       </c>
       <c r="W33" s="1">
-        <v>1905.12</v>
+        <v>5527900</v>
       </c>
       <c r="X33" s="1">
-        <v>4306980</v>
+        <v>37002500000</v>
       </c>
       <c r="AC33" s="1">
-        <f t="shared" si="0"/>
-        <v>1920.1370999999999</v>
+        <f t="shared" si="1"/>
+        <v>5527914.1642000005</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -11967,7 +11967,7 @@
         <v>-13.446400000000001</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U34">
@@ -11978,14 +11978,14 @@
         <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>1240.1600000000001</v>
+        <v>1628820</v>
       </c>
       <c r="X34" s="1">
-        <v>3310820</v>
+        <v>11986800000</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="0"/>
-        <v>1255.1771000000001</v>
+        <f t="shared" si="1"/>
+        <v>1628834.1642</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
@@ -12010,7 +12010,7 @@
         <v>-13.079000000000001</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U35">
@@ -12021,14 +12021,14 @@
         <v>30</v>
       </c>
       <c r="W35" s="1">
-        <v>764.50900000000001</v>
+        <v>441775</v>
       </c>
       <c r="X35" s="1">
-        <v>2351340</v>
+        <v>3606290000</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="0"/>
-        <v>779.52610000000004</v>
+        <f t="shared" si="1"/>
+        <v>441789.1642</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.2">
@@ -12053,7 +12053,7 @@
         <v>-12.7529</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U36">
@@ -12064,14 +12064,14 @@
         <v>31</v>
       </c>
       <c r="W36" s="1">
-        <v>447.71300000000002</v>
+        <v>107749</v>
       </c>
       <c r="X36" s="1">
-        <v>1562330</v>
+        <v>990210000</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="0"/>
-        <v>462.73009999999999</v>
+        <f t="shared" si="1"/>
+        <v>107763.1642</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.2">
@@ -12096,7 +12096,7 @@
         <v>-12.478999999999999</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U37">
@@ -12107,14 +12107,14 @@
         <v>32</v>
       </c>
       <c r="W37" s="1">
-        <v>249.172</v>
+        <v>22659</v>
       </c>
       <c r="X37" s="1">
-        <v>980155</v>
+        <v>241183000</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="0"/>
-        <v>264.1891</v>
+        <f t="shared" si="1"/>
+        <v>22673.164199999999</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.2">
@@ -12139,7 +12139,7 @@
         <v>-12.2531</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U38">
@@ -12150,14 +12150,14 @@
         <v>33</v>
       </c>
       <c r="W38" s="1">
-        <v>131.11699999999999</v>
+        <v>3722.13</v>
       </c>
       <c r="X38" s="1">
-        <v>585185</v>
+        <v>49333000</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" si="0"/>
-        <v>146.13409999999999</v>
+        <f t="shared" si="1"/>
+        <v>3736.2942000000003</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
@@ -12182,7 +12182,7 @@
         <v>-12.060600000000001</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U39">
@@ -12193,14 +12193,14 @@
         <v>34</v>
       </c>
       <c r="W39" s="1">
-        <v>63.998899999999999</v>
+        <v>307.471</v>
       </c>
       <c r="X39" s="1">
-        <v>335254</v>
+        <v>7325350</v>
       </c>
       <c r="AC39" s="1">
-        <f t="shared" si="0"/>
-        <v>79.015999999999991</v>
+        <f t="shared" si="1"/>
+        <v>321.6352</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
@@ -12225,7 +12225,7 @@
         <v>-11.883900000000001</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U40">
@@ -12236,14 +12236,14 @@
         <v>35</v>
       </c>
       <c r="W40" s="1">
-        <v>27.179200000000002</v>
+        <v>-80.888199999999998</v>
       </c>
       <c r="X40" s="1">
-        <v>186310</v>
+        <v>260144</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="0"/>
-        <v>42.196300000000001</v>
+        <f t="shared" si="1"/>
+        <v>-66.724000000000004</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
@@ -12268,7 +12268,7 @@
         <v>-11.7096</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U41">
@@ -12279,14 +12279,14 @@
         <v>36</v>
       </c>
       <c r="W41" s="1">
-        <v>7.4396699999999996</v>
+        <v>-55.613399999999999</v>
       </c>
       <c r="X41" s="1">
-        <v>102043</v>
+        <v>-300593</v>
       </c>
       <c r="AC41" s="1">
-        <f t="shared" si="0"/>
-        <v>22.456769999999999</v>
+        <f t="shared" si="1"/>
+        <v>-41.449199999999998</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
@@ -12311,7 +12311,7 @@
         <v>-11.531599999999999</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U42">
@@ -12322,14 +12322,14 @@
         <v>37</v>
       </c>
       <c r="W42" s="1">
-        <v>-3.1002800000000001</v>
+        <v>-25.459599999999998</v>
       </c>
       <c r="X42" s="1">
-        <v>56371.3</v>
+        <v>-134860</v>
       </c>
       <c r="AC42" s="1">
-        <f t="shared" si="0"/>
-        <v>11.91682</v>
+        <f t="shared" si="1"/>
+        <v>-11.295399999999999</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
@@ -12354,7 +12354,7 @@
         <v>-11.351000000000001</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U43">
@@ -12365,14 +12365,14 @@
         <v>38</v>
       </c>
       <c r="W43" s="1">
-        <v>-8.8533600000000003</v>
+        <v>-14.9536</v>
       </c>
       <c r="X43" s="1">
-        <v>32323.3</v>
+        <v>-37900</v>
       </c>
       <c r="AC43" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1637399999999989</v>
+        <f t="shared" si="1"/>
+        <v>-0.78940000000000055</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
@@ -12397,7 +12397,7 @@
         <v>-11.1754</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U44">
@@ -12408,14 +12408,14 @@
         <v>39</v>
       </c>
       <c r="W44" s="1">
-        <v>-12.155200000000001</v>
+        <v>-12.520799999999999</v>
       </c>
       <c r="X44" s="1">
-        <v>19715</v>
+        <v>-5422.33</v>
       </c>
       <c r="AC44" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8618999999999986</v>
+        <f t="shared" si="1"/>
+        <v>1.6433999999999997</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
@@ -12440,7 +12440,7 @@
         <v>-11.016999999999999</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U45">
@@ -12451,14 +12451,14 @@
         <v>40</v>
       </c>
       <c r="W45" s="1">
-        <v>-14.1821</v>
+        <v>-12.6234</v>
       </c>
       <c r="X45" s="1">
-        <v>12860.9</v>
+        <v>5109.43</v>
       </c>
       <c r="AC45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.83499999999999908</v>
+        <f t="shared" si="1"/>
+        <v>1.5407999999999991</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
@@ -12483,7 +12483,7 @@
         <v>-10.890700000000001</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U46">
@@ -12494,14 +12494,14 @@
         <v>41</v>
       </c>
       <c r="W46" s="1">
-        <v>-15.504799999999999</v>
+        <v>-13.485799999999999</v>
       </c>
       <c r="X46" s="1">
-        <v>8801.5400000000009</v>
+        <v>8069.99</v>
       </c>
       <c r="AC46" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.48770000000000024</v>
+        <f t="shared" si="1"/>
+        <v>0.67839999999999989</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
@@ -12526,7 +12526,7 @@
         <v>-10.810700000000001</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U47">
@@ -12537,14 +12537,14 @@
         <v>42</v>
       </c>
       <c r="W47" s="1">
-        <v>-16.396899999999999</v>
+        <v>-14.4648</v>
       </c>
       <c r="X47" s="1">
-        <v>6103.4</v>
+        <v>7761.58</v>
       </c>
       <c r="AC47" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3797999999999995</v>
+        <f t="shared" si="1"/>
+        <v>-0.30060000000000109</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
@@ -12569,7 +12569,7 @@
         <v>-10.785600000000001</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U48">
@@ -12580,14 +12580,14 @@
         <v>43</v>
       </c>
       <c r="W48" s="1">
-        <v>-16.995999999999999</v>
+        <v>-15.2879</v>
       </c>
       <c r="X48" s="1">
-        <v>4121.1899999999996</v>
+        <v>6049.25</v>
       </c>
       <c r="AC48" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.9788999999999994</v>
+        <f t="shared" si="1"/>
+        <v>-1.1237000000000013</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
@@ -12612,7 +12612,7 @@
         <v>-10.814399999999999</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U49">
@@ -12623,14 +12623,14 @@
         <v>44</v>
       </c>
       <c r="W49" s="1">
-        <v>-17.3797</v>
+        <v>-15.8721</v>
       </c>
       <c r="X49" s="1">
-        <v>2580.7199999999998</v>
+        <v>4082.78</v>
       </c>
       <c r="AC49" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.3626000000000005</v>
+        <f t="shared" si="1"/>
+        <v>-1.7079000000000004</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
         <v>-10.8851</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U50">
@@ -12666,14 +12666,14 @@
         <v>45</v>
       </c>
       <c r="W50" s="1">
-        <v>-17.599900000000002</v>
+        <v>-16.235399999999998</v>
       </c>
       <c r="X50" s="1">
-        <v>1362.62</v>
+        <v>2413.9899999999998</v>
       </c>
       <c r="AC50" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.5828000000000024</v>
+        <f t="shared" si="1"/>
+        <v>-2.0711999999999993</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -12698,7 +12698,7 @@
         <v>-10.977600000000001</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U51">
@@ -12709,14 +12709,14 @@
         <v>46</v>
       </c>
       <c r="W51" s="1">
-        <v>-17.695499999999999</v>
+        <v>-16.4297</v>
       </c>
       <c r="X51" s="1">
-        <v>402.46800000000002</v>
+        <v>1164.2</v>
       </c>
       <c r="AC51" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.6783999999999999</v>
+        <f t="shared" si="1"/>
+        <v>-2.2655000000000012</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
@@ -12741,7 +12741,7 @@
         <v>-11.069000000000001</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U52">
@@ -12752,14 +12752,14 @@
         <v>47</v>
       </c>
       <c r="W52" s="1">
-        <v>-17.696899999999999</v>
+        <v>-16.5044</v>
       </c>
       <c r="X52" s="1">
-        <v>-347.25</v>
+        <v>263.51900000000001</v>
       </c>
       <c r="AC52" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.6798000000000002</v>
+        <f t="shared" si="1"/>
+        <v>-2.3402000000000012</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
@@ -12784,7 +12784,7 @@
         <v>-11.1396</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U53">
@@ -12795,14 +12795,14 @@
         <v>48</v>
       </c>
       <c r="W53" s="1">
-        <v>-17.6282</v>
+        <v>-16.496099999999998</v>
       </c>
       <c r="X53" s="1">
-        <v>-926.45600000000002</v>
+        <v>-387.24</v>
       </c>
       <c r="AC53" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.6111000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-2.3318999999999992</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
@@ -12827,7 +12827,7 @@
         <v>-11.1776</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U54">
@@ -12838,14 +12838,14 @@
         <v>49</v>
       </c>
       <c r="W54" s="1">
-        <v>-17.508199999999999</v>
+        <v>-16.430299999999999</v>
       </c>
       <c r="X54" s="1">
-        <v>-1366.81</v>
+        <v>-856.47699999999998</v>
       </c>
       <c r="AC54" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.4910999999999994</v>
+        <f t="shared" si="1"/>
+        <v>-2.2660999999999998</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
@@ -12870,7 +12870,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U55">
@@ -12881,14 +12881,14 @@
         <v>50</v>
       </c>
       <c r="W55" s="1">
-        <v>-17.351800000000001</v>
+        <v>-16.325500000000002</v>
       </c>
       <c r="X55" s="1">
-        <v>-1690.27</v>
+        <v>-1181.81</v>
       </c>
       <c r="AC55" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.3347000000000016</v>
+        <f t="shared" si="1"/>
+        <v>-2.1613000000000024</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
@@ -12913,7 +12913,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U56">
@@ -12924,14 +12924,14 @@
         <v>51</v>
       </c>
       <c r="W56" s="1">
-        <v>-17.171399999999998</v>
+        <v>-16.1965</v>
       </c>
       <c r="X56" s="1">
-        <v>-1910.06</v>
+        <v>-1387.52</v>
       </c>
       <c r="AC56" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1542999999999992</v>
+        <f t="shared" si="1"/>
+        <v>-2.0323000000000011</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
@@ -12956,7 +12956,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U57">
@@ -12967,14 +12967,14 @@
         <v>52</v>
       </c>
       <c r="W57" s="1">
-        <v>-16.977699999999999</v>
+        <v>-16.0547</v>
       </c>
       <c r="X57" s="1">
-        <v>-2034.1</v>
+        <v>-1496.84</v>
       </c>
       <c r="AC57" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.9605999999999995</v>
+        <f t="shared" si="1"/>
+        <v>-1.8905000000000012</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
@@ -12999,7 +12999,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U58">
@@ -13010,14 +13010,14 @@
         <v>53</v>
       </c>
       <c r="W58" s="1">
-        <v>-16.779900000000001</v>
+        <v>-15.9086</v>
       </c>
       <c r="X58" s="1">
-        <v>-2069.11</v>
+        <v>-1534.22</v>
       </c>
       <c r="AC58" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7628000000000021</v>
+        <f t="shared" si="1"/>
+        <v>-1.7444000000000006</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
@@ -13042,7 +13042,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U59">
@@ -13053,14 +13053,14 @@
         <v>54</v>
       </c>
       <c r="W59" s="1">
-        <v>-16.586400000000001</v>
+        <v>-15.7643</v>
       </c>
       <c r="X59" s="1">
-        <v>-2024.14</v>
+        <v>-1521.63</v>
       </c>
       <c r="AC59" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.5693000000000019</v>
+        <f t="shared" si="1"/>
+        <v>-1.6001000000000012</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
@@ -13085,7 +13085,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U60">
@@ -13096,14 +13096,14 @@
         <v>55</v>
       </c>
       <c r="W60" s="1">
-        <v>-16.403700000000001</v>
+        <v>-15.625299999999999</v>
       </c>
       <c r="X60" s="1">
-        <v>-1912.21</v>
+        <v>-1474.77</v>
       </c>
       <c r="AC60" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.3866000000000014</v>
+        <f t="shared" si="1"/>
+        <v>-1.4611000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U61">
@@ -13139,14 +13139,14 @@
         <v>56</v>
       </c>
       <c r="W61" s="1">
-        <v>-16.236899999999999</v>
+        <v>-15.494300000000001</v>
       </c>
       <c r="X61" s="1">
-        <v>-1750.18</v>
+        <v>-1402.48</v>
       </c>
       <c r="AC61" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2197999999999993</v>
+        <f t="shared" si="1"/>
+        <v>-1.3301000000000016</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
@@ -13171,7 +13171,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U62">
@@ -13182,14 +13182,14 @@
         <v>57</v>
       </c>
       <c r="W62" s="1">
-        <v>-16.088899999999999</v>
+        <v>-15.372999999999999</v>
       </c>
       <c r="X62" s="1">
-        <v>-1557.18</v>
+        <v>-1309.24</v>
       </c>
       <c r="AC62" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0717999999999996</v>
+        <f t="shared" si="1"/>
+        <v>-1.2088000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
@@ -13214,7 +13214,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U63">
@@ -13225,14 +13225,14 @@
         <v>58</v>
       </c>
       <c r="W63" s="1">
-        <v>-15.9611</v>
+        <v>-15.262700000000001</v>
       </c>
       <c r="X63" s="1">
-        <v>-1352.32</v>
+        <v>-1198.72</v>
       </c>
       <c r="AC63" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.94400000000000084</v>
+        <f t="shared" si="1"/>
+        <v>-1.0985000000000014</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U64">
@@ -13268,14 +13268,14 @@
         <v>59</v>
       </c>
       <c r="W64" s="1">
-        <v>-15.853</v>
+        <v>-15.164400000000001</v>
       </c>
       <c r="X64" s="1">
-        <v>-1152.54</v>
+        <v>-1076.18</v>
       </c>
       <c r="AC64" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.83590000000000053</v>
+        <f t="shared" si="1"/>
+        <v>-1.0002000000000013</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
@@ -13300,7 +13300,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U65">
@@ -13311,14 +13311,14 @@
         <v>60</v>
       </c>
       <c r="W65" s="1">
-        <v>-15.763</v>
+        <v>-15.0784</v>
       </c>
       <c r="X65" s="1">
-        <v>-970.923</v>
+        <v>-948.91</v>
       </c>
       <c r="AC65" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.74590000000000067</v>
+        <f t="shared" si="1"/>
+        <v>-0.91420000000000101</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -13343,7 +13343,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U66">
@@ -13354,14 +13354,14 @@
         <v>61</v>
       </c>
       <c r="W66" s="1">
-        <v>-15.688499999999999</v>
+        <v>-15.0044</v>
       </c>
       <c r="X66" s="1">
-        <v>-815.94600000000003</v>
+        <v>-824.95699999999999</v>
       </c>
       <c r="AC66" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.67140000000000022</v>
+        <f t="shared" si="1"/>
+        <v>-0.84020000000000117</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13386,7 +13386,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U67">
@@ -13397,14 +13397,14 @@
         <v>62</v>
       </c>
       <c r="W67" s="1">
-        <v>-15.6267</v>
+        <v>-14.9413</v>
       </c>
       <c r="X67" s="1">
-        <v>-691.41300000000001</v>
+        <v>-711.36</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.60960000000000036</v>
+        <f t="shared" si="1"/>
+        <v>-0.77710000000000079</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
@@ -13429,7 +13429,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U68">
@@ -13440,14 +13440,14 @@
         <v>63</v>
       </c>
       <c r="W68" s="1">
-        <v>-15.5748</v>
+        <v>-14.8878</v>
       </c>
       <c r="X68" s="1">
-        <v>-597.04600000000005</v>
+        <v>-612.80700000000002</v>
       </c>
       <c r="AC68" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.55770000000000053</v>
+        <f t="shared" si="1"/>
+        <v>-0.72360000000000113</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -13472,7 +13472,7 @@
         <v>-11.1859</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U69">
@@ -13483,14 +13483,14 @@
         <v>64</v>
       </c>
       <c r="W69" s="1">
-        <v>-15.530099999999999</v>
+        <v>-14.8423</v>
       </c>
       <c r="X69" s="1">
-        <v>-529.42499999999995</v>
+        <v>-531.25599999999997</v>
       </c>
       <c r="AC69" s="1">
         <f t="shared" ref="AC69:AC104" si="5">W69-$W$105</f>
-        <v>-0.5129999999999999</v>
+        <v>-0.67810000000000059</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
@@ -13526,14 +13526,14 @@
         <v>65</v>
       </c>
       <c r="W70" s="1">
-        <v>-15.490500000000001</v>
+        <v>-14.8033</v>
       </c>
       <c r="X70" s="1">
-        <v>-483.06900000000002</v>
+        <v>-466.41199999999998</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" si="5"/>
-        <v>-0.4734000000000016</v>
+        <v>-0.63910000000000089</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -13569,14 +13569,14 @@
         <v>66</v>
       </c>
       <c r="W71" s="1">
-        <v>-15.454499999999999</v>
+        <v>-14.769299999999999</v>
       </c>
       <c r="X71" s="1">
-        <v>-451.46199999999999</v>
+        <v>-416.65</v>
       </c>
       <c r="AC71" s="1">
         <f t="shared" si="5"/>
-        <v>-0.43740000000000023</v>
+        <v>-0.60510000000000019</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -13612,14 +13612,14 @@
         <v>67</v>
       </c>
       <c r="W72" s="1">
-        <v>-15.420999999999999</v>
+        <v>-14.739000000000001</v>
       </c>
       <c r="X72" s="1">
-        <v>-427.94499999999999</v>
+        <v>-379.92</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" si="5"/>
-        <v>-0.40390000000000015</v>
+        <v>-0.57480000000000153</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -13655,14 +13655,14 @@
         <v>68</v>
       </c>
       <c r="W73" s="1">
-        <v>-15.389699999999999</v>
+        <v>-14.711600000000001</v>
       </c>
       <c r="X73" s="1">
-        <v>-406.40300000000002</v>
+        <v>-354.34</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="5"/>
-        <v>-0.37260000000000026</v>
+        <v>-0.54740000000000144</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -13698,14 +13698,14 @@
         <v>69</v>
       </c>
       <c r="W74" s="1">
-        <v>-15.3606</v>
+        <v>-14.686</v>
       </c>
       <c r="X74" s="1">
-        <v>-381.77800000000002</v>
+        <v>-338.387</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" si="5"/>
-        <v>-0.34350000000000058</v>
+        <v>-0.52180000000000071</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -13741,14 +13741,14 @@
         <v>70</v>
       </c>
       <c r="W75" s="1">
-        <v>-15.3338</v>
+        <v>-14.6617</v>
       </c>
       <c r="X75" s="1">
-        <v>-350.404</v>
+        <v>-330.767</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="5"/>
-        <v>-0.31670000000000087</v>
+        <v>-0.4975000000000005</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
@@ -13784,14 +13784,14 @@
         <v>71</v>
       </c>
       <c r="W76" s="1">
-        <v>-15.31</v>
+        <v>-14.638</v>
       </c>
       <c r="X76" s="1">
-        <v>-310.20499999999998</v>
+        <v>-330.113</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.29290000000000127</v>
+        <v>-0.47380000000000067</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
@@ -13827,14 +13827,14 @@
         <v>72</v>
       </c>
       <c r="W77" s="1">
-        <v>-15.2897</v>
+        <v>-14.6144</v>
       </c>
       <c r="X77" s="1">
-        <v>-260.76900000000001</v>
+        <v>-334.68200000000002</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="5"/>
-        <v>-0.27260000000000062</v>
+        <v>-0.4502000000000006</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
@@ -13870,14 +13870,14 @@
         <v>73</v>
       </c>
       <c r="W78" s="1">
-        <v>-15.2735</v>
+        <v>-14.5908</v>
       </c>
       <c r="X78" s="1">
-        <v>-203.30799999999999</v>
+        <v>-342.197</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25640000000000107</v>
+        <v>-0.42660000000000053</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -13913,14 +13913,14 @@
         <v>74</v>
       </c>
       <c r="W79" s="1">
-        <v>-15.2616</v>
+        <v>-14.5669</v>
       </c>
       <c r="X79" s="1">
-        <v>-140.5</v>
+        <v>-349.90199999999999</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="5"/>
-        <v>-0.24450000000000038</v>
+        <v>-0.40270000000000117</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
@@ -13956,14 +13956,14 @@
         <v>75</v>
       </c>
       <c r="W80" s="1">
-        <v>-15.254200000000001</v>
+        <v>-14.542899999999999</v>
       </c>
       <c r="X80" s="1">
-        <v>-76.2102</v>
+        <v>-354.87099999999998</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23710000000000164</v>
+        <v>-0.37870000000000026</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
@@ -13999,14 +13999,14 @@
         <v>76</v>
       </c>
       <c r="W81" s="1">
-        <v>-15.251200000000001</v>
+        <v>-14.5191</v>
       </c>
       <c r="X81" s="1">
-        <v>-15.113300000000001</v>
+        <v>-354.51900000000001</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23410000000000153</v>
+        <v>-0.35490000000000066</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
@@ -14042,14 +14042,14 @@
         <v>77</v>
       </c>
       <c r="W82" s="1">
-        <v>-15.252000000000001</v>
+        <v>-14.495699999999999</v>
       </c>
       <c r="X82" s="1">
-        <v>37.786099999999998</v>
+        <v>-347.19099999999997</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23490000000000144</v>
+        <v>-0.33150000000000013</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
@@ -14085,14 +14085,14 @@
         <v>78</v>
       </c>
       <c r="W83" s="1">
-        <v>-15.255800000000001</v>
+        <v>-14.4735</v>
       </c>
       <c r="X83" s="1">
-        <v>77.671000000000006</v>
+        <v>-332.66699999999997</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23870000000000147</v>
+        <v>-0.30930000000000035</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
@@ -14128,14 +14128,14 @@
         <v>79</v>
       </c>
       <c r="W84" s="1">
-        <v>-15.261699999999999</v>
+        <v>-14.4526</v>
       </c>
       <c r="X84" s="1">
-        <v>100.42400000000001</v>
+        <v>-312.40300000000002</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" si="5"/>
-        <v>-0.24460000000000015</v>
+        <v>-0.2884000000000011</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.2">
@@ -14171,14 +14171,14 @@
         <v>80</v>
       </c>
       <c r="W85" s="1">
-        <v>-15.2683</v>
+        <v>-14.433400000000001</v>
       </c>
       <c r="X85" s="1">
-        <v>103.068</v>
+        <v>-289.36900000000003</v>
       </c>
       <c r="AC85" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25120000000000076</v>
+        <v>-0.26920000000000144</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.2">
@@ -14214,14 +14214,14 @@
         <v>81</v>
       </c>
       <c r="W86" s="1">
-        <v>-15.2743</v>
+        <v>-14.415800000000001</v>
       </c>
       <c r="X86" s="1">
-        <v>84.079700000000003</v>
+        <v>-267.49799999999999</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25720000000000098</v>
+        <v>-0.2516000000000016</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
@@ -14257,14 +14257,14 @@
         <v>82</v>
       </c>
       <c r="W87" s="1">
-        <v>-15.2784</v>
+        <v>-14.399699999999999</v>
       </c>
       <c r="X87" s="1">
-        <v>43.552999999999997</v>
+        <v>-250.85900000000001</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" si="5"/>
-        <v>-0.26130000000000031</v>
+        <v>-0.23550000000000004</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
@@ -14300,14 +14300,14 @@
         <v>83</v>
       </c>
       <c r="W88" s="1">
-        <v>-15.279299999999999</v>
+        <v>-14.384600000000001</v>
       </c>
       <c r="X88" s="1">
-        <v>-16.8035</v>
+        <v>-242.78899999999999</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="5"/>
-        <v>-0.26219999999999999</v>
+        <v>-0.22040000000000148</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
@@ -14343,14 +14343,14 @@
         <v>84</v>
       </c>
       <c r="W89" s="1">
-        <v>-15.276</v>
+        <v>-14.3698</v>
       </c>
       <c r="X89" s="1">
-        <v>-93.786299999999997</v>
+        <v>-245.239</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25890000000000057</v>
+        <v>-0.20560000000000045</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
@@ -14386,14 +14386,14 @@
         <v>85</v>
       </c>
       <c r="W90" s="1">
-        <v>-15.267799999999999</v>
+        <v>-14.354699999999999</v>
       </c>
       <c r="X90" s="1">
-        <v>-182.88800000000001</v>
+        <v>-258.49299999999999</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="5"/>
-        <v>-0.25070000000000014</v>
+        <v>-0.19050000000000011</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
@@ -14429,14 +14429,14 @@
         <v>86</v>
       </c>
       <c r="W91" s="1">
-        <v>-15.254099999999999</v>
+        <v>-14.338699999999999</v>
       </c>
       <c r="X91" s="1">
-        <v>-278.48700000000002</v>
+        <v>-281.29399999999998</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="5"/>
-        <v>-0.2370000000000001</v>
+        <v>-0.1745000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.2">
@@ -14472,14 +14472,14 @@
         <v>87</v>
       </c>
       <c r="W92" s="1">
-        <v>-15.2349</v>
+        <v>-14.321400000000001</v>
       </c>
       <c r="X92" s="1">
-        <v>-373.99599999999998</v>
+        <v>-311.20100000000002</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" si="5"/>
-        <v>-0.21780000000000044</v>
+        <v>-0.15720000000000134</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
@@ -14515,14 +14515,14 @@
         <v>88</v>
       </c>
       <c r="W93" s="1">
-        <v>-15.210599999999999</v>
+        <v>-14.302300000000001</v>
       </c>
       <c r="X93" s="1">
-        <v>-461.959</v>
+        <v>-344.928</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" si="5"/>
-        <v>-0.19350000000000023</v>
+        <v>-0.13810000000000144</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.2">
@@ -14558,14 +14558,14 @@
         <v>89</v>
       </c>
       <c r="W94" s="1">
-        <v>-15.181900000000001</v>
+        <v>-14.281599999999999</v>
       </c>
       <c r="X94" s="1">
-        <v>-534.13599999999997</v>
+        <v>-378.40199999999999</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" si="5"/>
-        <v>-0.16480000000000139</v>
+        <v>-0.11739999999999995</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
@@ -14601,14 +14601,14 @@
         <v>90</v>
       </c>
       <c r="W95" s="1">
-        <v>-15.1501</v>
+        <v>-14.2593</v>
       </c>
       <c r="X95" s="1">
-        <v>-581.73400000000004</v>
+        <v>-406.43900000000002</v>
       </c>
       <c r="AC95" s="1">
         <f t="shared" si="5"/>
-        <v>-0.1330000000000009</v>
+        <v>-9.5100000000000406E-2</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
@@ -14644,14 +14644,14 @@
         <v>91</v>
       </c>
       <c r="W96" s="1">
-        <v>-15.116899999999999</v>
+        <v>-14.235900000000001</v>
       </c>
       <c r="X96" s="1">
-        <v>-595.93299999999999</v>
+        <v>-422.17099999999999</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="5"/>
-        <v>-9.9800000000000111E-2</v>
+        <v>-7.1700000000001651E-2</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
@@ -14687,14 +14687,14 @@
         <v>92</v>
       </c>
       <c r="W97" s="1">
-        <v>-15.084300000000001</v>
+        <v>-14.2125</v>
       </c>
       <c r="X97" s="1">
-        <v>-568.98900000000003</v>
+        <v>-416.74599999999998</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="5"/>
-        <v>-6.7200000000001481E-2</v>
+        <v>-4.830000000000112E-2</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
@@ -14730,14 +14730,14 @@
         <v>93</v>
       </c>
       <c r="W98" s="1">
-        <v>-15.0548</v>
+        <v>-14.1904</v>
       </c>
       <c r="X98" s="1">
-        <v>-496.10500000000002</v>
+        <v>-380.12400000000002</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="5"/>
-        <v>-3.7700000000000955E-2</v>
+        <v>-2.6200000000001111E-2</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
@@ -14773,14 +14773,14 @@
         <v>94</v>
       </c>
       <c r="W99" s="1">
-        <v>-15.030900000000001</v>
+        <v>-14.1716</v>
       </c>
       <c r="X99" s="1">
-        <v>-378.20499999999998</v>
+        <v>-303.95800000000003</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="5"/>
-        <v>-1.3800000000001589E-2</v>
+        <v>-7.4000000000005173E-3</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
@@ -14816,14 +14816,14 @@
         <v>95</v>
       </c>
       <c r="W100" s="1">
-        <v>-15.0145</v>
+        <v>-14.158300000000001</v>
       </c>
       <c r="X100" s="1">
-        <v>-225.50800000000001</v>
+        <v>-187.23</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="5"/>
-        <v>2.5999999999992696E-3</v>
+        <v>5.8999999999986841E-3</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
@@ -14859,14 +14859,14 @@
         <v>96</v>
       </c>
       <c r="W101" s="1">
-        <v>-15.0069</v>
+        <v>-14.151999999999999</v>
       </c>
       <c r="X101" s="1">
-        <v>-61.422600000000003</v>
+        <v>-44.3371</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" si="5"/>
-        <v>1.0199999999999321E-2</v>
+        <v>1.2199999999999989E-2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
@@ -14902,14 +14902,14 @@
         <v>97</v>
       </c>
       <c r="W102" s="1">
-        <v>-15.007400000000001</v>
+        <v>-14.1533</v>
       </c>
       <c r="X102" s="1">
-        <v>73.936400000000006</v>
+        <v>86.241500000000002</v>
       </c>
       <c r="AC102" s="1">
         <f t="shared" si="5"/>
-        <v>9.6999999999987097E-3</v>
+        <v>1.0899999999999466E-2</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
@@ -14945,14 +14945,14 @@
         <v>98</v>
       </c>
       <c r="W103" s="1">
-        <v>-15.0131</v>
+        <v>-14.159599999999999</v>
       </c>
       <c r="X103" s="1">
-        <v>121.265</v>
+        <v>135.49199999999999</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" si="5"/>
-        <v>3.9999999999995595E-3</v>
+        <v>4.5999999999999375E-3</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
@@ -14988,10 +14988,10 @@
         <v>99</v>
       </c>
       <c r="W104" s="1">
-        <v>-15.017099999999999</v>
+        <v>-14.164199999999999</v>
       </c>
       <c r="X104" s="1">
-        <v>5.0848099999999999E-11</v>
+        <v>5.8056300000000001E-11</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" si="5"/>
@@ -15031,7 +15031,7 @@
         <v>100</v>
       </c>
       <c r="W105" s="1">
-        <v>-15.017099999999999</v>
+        <v>-14.164199999999999</v>
       </c>
       <c r="X105" s="1">
         <v>0</v>

--- a/MTP_fitting/pair_test.xlsx
+++ b/MTP_fitting/pair_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/MTP_fitting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/MTP_fitting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EDABD-E5E3-3843-A1C5-3BA01C1B21EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBCF370-CD02-9D42-BD7C-6B4D106D2743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{D8F89370-B072-8E41-8427-7AB1739BAF13}"/>
   </bookViews>
@@ -3897,307 +3897,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>6230900000000000</c:v>
+                  <c:v>-150269000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6230900000000000</c:v>
+                  <c:v>-150269000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3564460000000000</c:v>
+                  <c:v>-91761100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018800000000000</c:v>
+                  <c:v>-55643800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1131540000000000</c:v>
+                  <c:v>-33500800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>627386000000000</c:v>
+                  <c:v>-20020700000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343937000000000</c:v>
+                  <c:v>-11873800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186329000000000</c:v>
+                  <c:v>-6986680000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99702100000000</c:v>
+                  <c:v>-4077620000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52661200000000</c:v>
+                  <c:v>-2359730000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27438700000000</c:v>
+                  <c:v>-1353590000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14093400000000</c:v>
+                  <c:v>-769332000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7130570000000</c:v>
+                  <c:v>-433063000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3550780000000</c:v>
+                  <c:v>-241313000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1738680000000</c:v>
+                  <c:v>-133030000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>836329000000</c:v>
+                  <c:v>-72503700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394741000000</c:v>
+                  <c:v>-39036200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182595000000</c:v>
+                  <c:v>-20742600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82661800000</c:v>
+                  <c:v>-10865600</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36566600000</c:v>
+                  <c:v>-5603430</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15778200000</c:v>
+                  <c:v>-2840130</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6627480000</c:v>
+                  <c:v>-1411930</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2703590000</c:v>
+                  <c:v>-686666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1068190000</c:v>
+                  <c:v>-325579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>407448000</c:v>
+                  <c:v>-149810</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>149460000</c:v>
+                  <c:v>-66454.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52474300</c:v>
+                  <c:v>-28130.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17528400</c:v>
+                  <c:v>-11165.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5527900</c:v>
+                  <c:v>-4011.47</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1628820</c:v>
+                  <c:v>-1190.49</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>441775</c:v>
+                  <c:v>-188.22399999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>107749</c:v>
+                  <c:v>102.262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22659</c:v>
+                  <c:v>142.97800000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3722.13</c:v>
+                  <c:v>112.958</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>307.471</c:v>
+                  <c:v>73.953800000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-80.888199999999998</c:v>
+                  <c:v>42.858699999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-55.613399999999999</c:v>
+                  <c:v>21.456800000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-25.459599999999998</c:v>
+                  <c:v>7.6059400000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-14.9536</c:v>
+                  <c:v>-1.13456</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.520799999999999</c:v>
+                  <c:v>-6.6567499999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-12.6234</c:v>
+                  <c:v>-10.257899999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-13.485799999999999</c:v>
+                  <c:v>-12.6349</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-14.4648</c:v>
+                  <c:v>-14.192600000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-15.2879</c:v>
+                  <c:v>-15.1945</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-15.8721</c:v>
+                  <c:v>-15.8156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-16.235399999999998</c:v>
+                  <c:v>-16.173300000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.4297</c:v>
+                  <c:v>-16.3459</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-16.5044</c:v>
+                  <c:v>-16.385899999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-16.496099999999998</c:v>
+                  <c:v>-16.329899999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-16.430299999999999</c:v>
+                  <c:v>-16.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-16.325500000000002</c:v>
+                  <c:v>-16.032599999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-16.1965</c:v>
+                  <c:v>-15.8307</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-16.0547</c:v>
+                  <c:v>-15.614800000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-15.9086</c:v>
+                  <c:v>-15.397600000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-15.7643</c:v>
+                  <c:v>-15.1889</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-15.625299999999999</c:v>
+                  <c:v>-14.995799999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-15.494300000000001</c:v>
+                  <c:v>-14.8225</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-15.372999999999999</c:v>
+                  <c:v>-14.6707</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-15.262700000000001</c:v>
+                  <c:v>-14.5403</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.164400000000001</c:v>
+                  <c:v>-14.429399999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.0784</c:v>
+                  <c:v>-14.335699999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.0044</c:v>
+                  <c:v>-14.256</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-14.9413</c:v>
+                  <c:v>-14.1877</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-14.8878</c:v>
+                  <c:v>-14.1279</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-14.8423</c:v>
+                  <c:v>-14.0746</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-14.8033</c:v>
+                  <c:v>-14.026300000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-14.769299999999999</c:v>
+                  <c:v>-13.9817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-14.739000000000001</c:v>
+                  <c:v>-13.9405</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-14.711600000000001</c:v>
+                  <c:v>-13.9025</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-14.686</c:v>
+                  <c:v>-13.867800000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-14.6617</c:v>
+                  <c:v>-13.837</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-14.638</c:v>
+                  <c:v>-13.8104</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-14.6144</c:v>
+                  <c:v>-13.788399999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-14.5908</c:v>
+                  <c:v>-13.7713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-14.5669</c:v>
+                  <c:v>-13.7591</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-14.542899999999999</c:v>
+                  <c:v>-13.7515</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-14.5191</c:v>
+                  <c:v>-13.7479</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-14.495699999999999</c:v>
+                  <c:v>-13.747400000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-14.4735</c:v>
+                  <c:v>-13.7486</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-14.4526</c:v>
+                  <c:v>-13.750400000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-14.433400000000001</c:v>
+                  <c:v>-13.7509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-14.415800000000001</c:v>
+                  <c:v>-13.748799999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-14.399699999999999</c:v>
+                  <c:v>-13.742599999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-14.384600000000001</c:v>
+                  <c:v>-13.731</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-14.3698</c:v>
+                  <c:v>-13.712999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-14.354699999999999</c:v>
+                  <c:v>-13.6882</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-14.338699999999999</c:v>
+                  <c:v>-13.6564</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-14.321400000000001</c:v>
+                  <c:v>-13.6182</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-14.302300000000001</c:v>
+                  <c:v>-13.5745</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-14.281599999999999</c:v>
+                  <c:v>-13.526999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-14.2593</c:v>
+                  <c:v>-13.4777</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-14.235900000000001</c:v>
+                  <c:v>-13.429399999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.2125</c:v>
+                  <c:v>-13.3849</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-14.1904</c:v>
+                  <c:v>-13.347200000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-14.1716</c:v>
+                  <c:v>-13.318899999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-14.158300000000001</c:v>
+                  <c:v>-13.302</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-14.151999999999999</c:v>
+                  <c:v>-13.296799999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-14.1533</c:v>
+                  <c:v>-13.301500000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-14.159599999999999</c:v>
+                  <c:v>-13.311199999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-14.164199999999999</c:v>
+                  <c:v>-13.3172</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-14.164199999999999</c:v>
+                  <c:v>-13.3172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,307 +4750,307 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>6230900000000000</c:v>
+                  <c:v>-150269000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6230900000000000</c:v>
+                  <c:v>-150269000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3564460000000000</c:v>
+                  <c:v>-91761100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018800000000000</c:v>
+                  <c:v>-55643800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1131540000000000</c:v>
+                  <c:v>-33500800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>627386000000000</c:v>
+                  <c:v>-20020700000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343937000000000</c:v>
+                  <c:v>-11873800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186329000000000</c:v>
+                  <c:v>-6986680000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99702100000000</c:v>
+                  <c:v>-4077620000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52661200000000</c:v>
+                  <c:v>-2359730000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27438700000000</c:v>
+                  <c:v>-1353590000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14093400000000</c:v>
+                  <c:v>-769332000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7130570000000</c:v>
+                  <c:v>-433063000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3550780000000</c:v>
+                  <c:v>-241313000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1738680000000</c:v>
+                  <c:v>-133030000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>836329000000</c:v>
+                  <c:v>-72503700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394741000000</c:v>
+                  <c:v>-39036200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182595000000</c:v>
+                  <c:v>-20742600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82661800000</c:v>
+                  <c:v>-10865600</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36566600000</c:v>
+                  <c:v>-5603430</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15778200000</c:v>
+                  <c:v>-2840130</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6627480000</c:v>
+                  <c:v>-1411930</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2703590000</c:v>
+                  <c:v>-686666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1068190000</c:v>
+                  <c:v>-325579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>407448000</c:v>
+                  <c:v>-149810</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>149460000</c:v>
+                  <c:v>-66454.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52474300</c:v>
+                  <c:v>-28130.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17528400</c:v>
+                  <c:v>-11165.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5527900</c:v>
+                  <c:v>-4011.47</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1628820</c:v>
+                  <c:v>-1190.49</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>441775</c:v>
+                  <c:v>-188.22399999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>107749</c:v>
+                  <c:v>102.262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22659</c:v>
+                  <c:v>142.97800000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3722.13</c:v>
+                  <c:v>112.958</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>307.471</c:v>
+                  <c:v>73.953800000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-80.888199999999998</c:v>
+                  <c:v>42.858699999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-55.613399999999999</c:v>
+                  <c:v>21.456800000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-25.459599999999998</c:v>
+                  <c:v>7.6059400000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-14.9536</c:v>
+                  <c:v>-1.13456</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12.520799999999999</c:v>
+                  <c:v>-6.6567499999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-12.6234</c:v>
+                  <c:v>-10.257899999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-13.485799999999999</c:v>
+                  <c:v>-12.6349</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-14.4648</c:v>
+                  <c:v>-14.192600000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-15.2879</c:v>
+                  <c:v>-15.1945</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-15.8721</c:v>
+                  <c:v>-15.8156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-16.235399999999998</c:v>
+                  <c:v>-16.173300000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.4297</c:v>
+                  <c:v>-16.3459</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-16.5044</c:v>
+                  <c:v>-16.385899999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-16.496099999999998</c:v>
+                  <c:v>-16.329899999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-16.430299999999999</c:v>
+                  <c:v>-16.204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-16.325500000000002</c:v>
+                  <c:v>-16.032599999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-16.1965</c:v>
+                  <c:v>-15.8307</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-16.0547</c:v>
+                  <c:v>-15.614800000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-15.9086</c:v>
+                  <c:v>-15.397600000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-15.7643</c:v>
+                  <c:v>-15.1889</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-15.625299999999999</c:v>
+                  <c:v>-14.995799999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-15.494300000000001</c:v>
+                  <c:v>-14.8225</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-15.372999999999999</c:v>
+                  <c:v>-14.6707</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-15.262700000000001</c:v>
+                  <c:v>-14.5403</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.164400000000001</c:v>
+                  <c:v>-14.429399999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.0784</c:v>
+                  <c:v>-14.335699999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.0044</c:v>
+                  <c:v>-14.256</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-14.9413</c:v>
+                  <c:v>-14.1877</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-14.8878</c:v>
+                  <c:v>-14.1279</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-14.8423</c:v>
+                  <c:v>-14.0746</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-14.8033</c:v>
+                  <c:v>-14.026300000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-14.769299999999999</c:v>
+                  <c:v>-13.9817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-14.739000000000001</c:v>
+                  <c:v>-13.9405</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-14.711600000000001</c:v>
+                  <c:v>-13.9025</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-14.686</c:v>
+                  <c:v>-13.867800000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-14.6617</c:v>
+                  <c:v>-13.837</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-14.638</c:v>
+                  <c:v>-13.8104</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-14.6144</c:v>
+                  <c:v>-13.788399999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-14.5908</c:v>
+                  <c:v>-13.7713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-14.5669</c:v>
+                  <c:v>-13.7591</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-14.542899999999999</c:v>
+                  <c:v>-13.7515</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-14.5191</c:v>
+                  <c:v>-13.7479</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-14.495699999999999</c:v>
+                  <c:v>-13.747400000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-14.4735</c:v>
+                  <c:v>-13.7486</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-14.4526</c:v>
+                  <c:v>-13.750400000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-14.433400000000001</c:v>
+                  <c:v>-13.7509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-14.415800000000001</c:v>
+                  <c:v>-13.748799999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-14.399699999999999</c:v>
+                  <c:v>-13.742599999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-14.384600000000001</c:v>
+                  <c:v>-13.731</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-14.3698</c:v>
+                  <c:v>-13.712999999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-14.354699999999999</c:v>
+                  <c:v>-13.6882</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-14.338699999999999</c:v>
+                  <c:v>-13.6564</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-14.321400000000001</c:v>
+                  <c:v>-13.6182</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-14.302300000000001</c:v>
+                  <c:v>-13.5745</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-14.281599999999999</c:v>
+                  <c:v>-13.526999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-14.2593</c:v>
+                  <c:v>-13.4777</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-14.235900000000001</c:v>
+                  <c:v>-13.429399999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.2125</c:v>
+                  <c:v>-13.3849</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-14.1904</c:v>
+                  <c:v>-13.347200000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-14.1716</c:v>
+                  <c:v>-13.318899999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-14.158300000000001</c:v>
+                  <c:v>-13.302</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-14.151999999999999</c:v>
+                  <c:v>-13.296799999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-14.1533</c:v>
+                  <c:v>-13.301500000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-14.159599999999999</c:v>
+                  <c:v>-13.311199999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-14.164199999999999</c:v>
+                  <c:v>-13.3172</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-14.164199999999999</c:v>
+                  <c:v>-13.3172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,301 +5607,301 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>6230900000000014</c:v>
+                  <c:v>-150268999986.6828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6230900000000014</c:v>
+                  <c:v>-150268999986.6828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3564460000000014</c:v>
+                  <c:v>-91761099986.6828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018800000000014.2</c:v>
+                  <c:v>-55643799986.6828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1131540000000014.2</c:v>
+                  <c:v>-33500799986.6828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>627386000000014.12</c:v>
+                  <c:v>-20020699986.6828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343937000000014.19</c:v>
+                  <c:v>-11873799986.6828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186329000000014.16</c:v>
+                  <c:v>-6986679986.6828003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99702100000014.172</c:v>
+                  <c:v>-4077619986.6827998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52661200000014.164</c:v>
+                  <c:v>-2359729986.6827998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27438700000014.164</c:v>
+                  <c:v>-1353589986.6828001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14093400000014.164</c:v>
+                  <c:v>-769331986.68280005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7130570000014.1641</c:v>
+                  <c:v>-433062986.68279999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3550780000014.1641</c:v>
+                  <c:v>-241312986.68279999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1738680000014.1643</c:v>
+                  <c:v>-133029986.68279999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>836329000014.16418</c:v>
+                  <c:v>-72503686.682799995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394741000014.16418</c:v>
+                  <c:v>-39036186.682800002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182595000014.16422</c:v>
+                  <c:v>-20742586.682799999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82661800014.1642</c:v>
+                  <c:v>-10865586.682800001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36566600014.1642</c:v>
+                  <c:v>-5603416.6827999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15778200014.1642</c:v>
+                  <c:v>-2840116.6828000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6627480014.1641998</c:v>
+                  <c:v>-1411916.6828000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2703590014.1641998</c:v>
+                  <c:v>-686652.68279999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1068190014.1641999</c:v>
+                  <c:v>-325565.68280000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>407448014.16420001</c:v>
+                  <c:v>-149796.68280000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>149460014.16420001</c:v>
+                  <c:v>-66441.182799999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52474314.1642</c:v>
+                  <c:v>-28116.782799999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17528414.1642</c:v>
+                  <c:v>-11151.782800000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5527914.1642000005</c:v>
+                  <c:v>-3998.1527999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1628834.1642</c:v>
+                  <c:v>-1177.1728000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>441789.1642</c:v>
+                  <c:v>-174.90679999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>107763.1642</c:v>
+                  <c:v>115.5792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22673.164199999999</c:v>
+                  <c:v>156.29520000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3736.2942000000003</c:v>
+                  <c:v>126.2752</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>321.6352</c:v>
+                  <c:v>87.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-66.724000000000004</c:v>
+                  <c:v>56.175899999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-41.449199999999998</c:v>
+                  <c:v>34.774000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-11.295399999999999</c:v>
+                  <c:v>20.92314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.78940000000000055</c:v>
+                  <c:v>12.182639999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6433999999999997</c:v>
+                  <c:v>6.66045</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5407999999999991</c:v>
+                  <c:v>3.0593000000000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.67839999999999989</c:v>
+                  <c:v>0.68229999999999968</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.30060000000000109</c:v>
+                  <c:v>-0.87540000000000084</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.1237000000000013</c:v>
+                  <c:v>-1.8773</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.7079000000000004</c:v>
+                  <c:v>-2.4984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.0711999999999993</c:v>
+                  <c:v>-2.8561000000000014</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.2655000000000012</c:v>
+                  <c:v>-3.0287000000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.3402000000000012</c:v>
+                  <c:v>-3.0686999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.3318999999999992</c:v>
+                  <c:v>-3.0126999999999988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.2660999999999998</c:v>
+                  <c:v>-2.8877999999999986</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.1613000000000024</c:v>
+                  <c:v>-2.7153999999999989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.0323000000000011</c:v>
+                  <c:v>-2.5135000000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.8905000000000012</c:v>
+                  <c:v>-2.297600000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.7444000000000006</c:v>
+                  <c:v>-2.0804000000000009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.6001000000000012</c:v>
+                  <c:v>-1.8717000000000006</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.4611000000000001</c:v>
+                  <c:v>-1.6785999999999994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.3301000000000016</c:v>
+                  <c:v>-1.5053000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.2088000000000001</c:v>
+                  <c:v>-1.3535000000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.0985000000000014</c:v>
+                  <c:v>-1.2231000000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.0002000000000013</c:v>
+                  <c:v>-1.1121999999999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.91420000000000101</c:v>
+                  <c:v>-1.0184999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.84020000000000117</c:v>
+                  <c:v>-0.93880000000000052</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.77710000000000079</c:v>
+                  <c:v>-0.87049999999999983</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.72360000000000113</c:v>
+                  <c:v>-0.81070000000000064</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.67810000000000059</c:v>
+                  <c:v>-0.75740000000000052</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.63910000000000089</c:v>
+                  <c:v>-0.70910000000000117</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.60510000000000019</c:v>
+                  <c:v>-0.66450000000000031</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.57480000000000153</c:v>
+                  <c:v>-0.62330000000000041</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.54740000000000144</c:v>
+                  <c:v>-0.58530000000000015</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.52180000000000071</c:v>
+                  <c:v>-0.55060000000000109</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.4975000000000005</c:v>
+                  <c:v>-0.51980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.47380000000000067</c:v>
+                  <c:v>-0.49319999999999986</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.4502000000000006</c:v>
+                  <c:v>-0.47119999999999962</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.42660000000000053</c:v>
+                  <c:v>-0.45410000000000039</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.40270000000000117</c:v>
+                  <c:v>-0.4419000000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.37870000000000026</c:v>
+                  <c:v>-0.43430000000000035</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.35490000000000066</c:v>
+                  <c:v>-0.43069999999999986</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.33150000000000013</c:v>
+                  <c:v>-0.43020000000000103</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.30930000000000035</c:v>
+                  <c:v>-0.43140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.2884000000000011</c:v>
+                  <c:v>-0.43320000000000114</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.26920000000000144</c:v>
+                  <c:v>-0.43369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.2516000000000016</c:v>
+                  <c:v>-0.43159999999999954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.23550000000000004</c:v>
+                  <c:v>-0.42539999999999978</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.22040000000000148</c:v>
+                  <c:v>-0.41380000000000017</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.20560000000000045</c:v>
+                  <c:v>-0.39579999999999949</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.19050000000000011</c:v>
+                  <c:v>-0.37100000000000044</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.1745000000000001</c:v>
+                  <c:v>-0.33919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.15720000000000134</c:v>
+                  <c:v>-0.30100000000000016</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.13810000000000144</c:v>
+                  <c:v>-0.25730000000000075</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.11739999999999995</c:v>
+                  <c:v>-0.20979999999999954</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-9.5100000000000406E-2</c:v>
+                  <c:v>-0.16050000000000075</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-7.1700000000001651E-2</c:v>
+                  <c:v>-0.11219999999999963</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-4.830000000000112E-2</c:v>
+                  <c:v>-6.7700000000000315E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.6200000000001111E-2</c:v>
+                  <c:v>-3.0000000000001137E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-7.4000000000005173E-3</c:v>
+                  <c:v>-1.6999999999995907E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.8999999999986841E-3</c:v>
+                  <c:v>1.5200000000000102E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.2199999999999989E-2</c:v>
+                  <c:v>2.0400000000000418E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0899999999999466E-2</c:v>
+                  <c:v>1.5699999999998937E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.5999999999999375E-3</c:v>
+                  <c:v>6.0000000000002274E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -6000,6 +6000,863 @@
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1976352736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$5:$U$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.1499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.6499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$5:$X$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-28650300000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28650300000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-26611800000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21823200000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16661200000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12124100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8514420000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5812990000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3876100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2532020000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1623760000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1023700000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-635105000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-387975000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-233451000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-138380000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-80795200000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-46451800000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-26284200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14626300000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7996000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4288690000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2252810000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1156330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-578198000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-280503000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-131267000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-58746000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-24788600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9603670</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3212290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-747250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72209</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>262058</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>245467</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182318</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>123791</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80824.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52119.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34259.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23188.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15645.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10415.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6747.35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4148.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2279.2399999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>906.56500000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-122.378</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-900.18600000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1478.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1884.91</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2137.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2253.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2253.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2160.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2002.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1804.24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1590.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1381.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1189.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1023.31</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-887.255</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-780.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-699.96400000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-640.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-595.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-558.51</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-524.62699999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-488.678</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-447.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-398.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-341.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-277.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-210.554</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-143.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-80.826499999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-28.370899999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0248500000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.904800000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.881699999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-7.9877900000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-62.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-141.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-239.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-353.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-474.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-594.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-705.173</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-795.35400000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-854.47299999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-872.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-840.23400000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-752.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-610.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-421.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-205.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.9611099999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>158.81100000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>187.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.0527599999999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5339-764E-9ABF-F5348F5F0AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1976352736"/>
+        <c:axId val="1837806864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1976352736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837806864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1837806864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="-10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6390,6 +7247,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9487,6 +10384,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10263,6 +11676,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C87BBC5-AE85-3C42-84C0-23387BEAE50B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10590,8 +12041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFC2F2-B2E1-BA4C-83BC-6A37C3092F9C}">
   <dimension ref="B1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O14" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="T14" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10731,14 +12182,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>6230900000000000</v>
+        <v>-150269000000</v>
       </c>
       <c r="X5" s="1">
-        <v>1.3428E+18</v>
+        <v>-28650300000000</v>
       </c>
       <c r="AC5" s="1">
         <f>W5-$W$105</f>
-        <v>6230900000000014</v>
+        <v>-150268999986.6828</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
@@ -10774,14 +12225,14 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>6230900000000000</v>
+        <v>-150269000000</v>
       </c>
       <c r="X6" s="1">
-        <v>1.3428E+18</v>
+        <v>-28650300000000</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" ref="AC6:AC68" si="1">W6-$W$105</f>
-        <v>6230900000000014</v>
+        <v>-150268999986.6828</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
@@ -10817,14 +12268,14 @@
         <v>2</v>
       </c>
       <c r="W7" s="1">
-        <v>3564460000000000</v>
+        <v>-91761100000</v>
       </c>
       <c r="X7" s="1">
-        <v>1.17265E+18</v>
+        <v>-26611800000000</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" si="1"/>
-        <v>3564460000000014</v>
+        <v>-91761099986.6828</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
@@ -10860,14 +12311,14 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
-        <v>2018800000000000</v>
+        <v>-55643800000</v>
       </c>
       <c r="X8" s="1">
-        <v>9.01573E+17</v>
+        <v>-21823200000000</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="1"/>
-        <v>2018800000000014.2</v>
+        <v>-55643799986.6828</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
@@ -10903,14 +12354,14 @@
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>1131540000000000</v>
+        <v>-33500800000</v>
       </c>
       <c r="X9" s="1">
-        <v>6.43372E+17</v>
+        <v>-16661200000000</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" si="1"/>
-        <v>1131540000000014.2</v>
+        <v>-33500799986.6828</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
@@ -10946,14 +12397,14 @@
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>627386000000000</v>
+        <v>-20020700000</v>
       </c>
       <c r="X10" s="1">
-        <v>4.36184E+17</v>
+        <v>-12124100000000</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="1"/>
-        <v>627386000000014.12</v>
+        <v>-20020699986.6828</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
@@ -10989,14 +12440,14 @@
         <v>6</v>
       </c>
       <c r="W11" s="1">
-        <v>343937000000000</v>
+        <v>-11873800000</v>
       </c>
       <c r="X11" s="1">
-        <v>2.84396E+17</v>
+        <v>-8514420000000</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="1"/>
-        <v>343937000000014.19</v>
+        <v>-11873799986.6828</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
@@ -11032,14 +12483,14 @@
         <v>7</v>
       </c>
       <c r="W12" s="1">
-        <v>186329000000000</v>
+        <v>-6986680000</v>
       </c>
       <c r="X12" s="1">
-        <v>1.79595E+17</v>
+        <v>-5812990000000</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="1"/>
-        <v>186329000000014.16</v>
+        <v>-6986679986.6828003</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
@@ -11075,14 +12526,14 @@
         <v>8</v>
       </c>
       <c r="W13" s="1">
-        <v>99702100000000</v>
+        <v>-4077620000</v>
       </c>
       <c r="X13" s="1">
-        <v>1.10325E+17</v>
+        <v>-3876100000000</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="1"/>
-        <v>99702100000014.172</v>
+        <v>-4077619986.6827998</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
@@ -11118,14 +12569,14 @@
         <v>9</v>
       </c>
       <c r="W14" s="1">
-        <v>52661200000000</v>
+        <v>-2359730000</v>
       </c>
       <c r="X14" s="1">
-        <v>6.61088E+16</v>
+        <v>-2532020000000</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>52661200000014.164</v>
+        <v>-2359729986.6827998</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
@@ -11161,14 +12612,14 @@
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>27438700000000</v>
+        <v>-1353590000</v>
       </c>
       <c r="X15" s="1">
-        <v>3.87099E+16</v>
+        <v>-1623760000000</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="1"/>
-        <v>27438700000014.164</v>
+        <v>-1353589986.6828001</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
@@ -11204,14 +12655,14 @@
         <v>11</v>
       </c>
       <c r="W16" s="1">
-        <v>14093400000000</v>
+        <v>-769332000</v>
       </c>
       <c r="X16" s="1">
-        <v>2.21736E+16</v>
+        <v>-1023700000000</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="1"/>
-        <v>14093400000014.164</v>
+        <v>-769331986.68280005</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -11247,14 +12698,14 @@
         <v>12</v>
       </c>
       <c r="W17" s="1">
-        <v>7130570000000</v>
+        <v>-433063000</v>
       </c>
       <c r="X17" s="1">
-        <v>1.24329E+16</v>
+        <v>-635105000000</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="1"/>
-        <v>7130570000014.1641</v>
+        <v>-433062986.68279999</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -11290,14 +12741,14 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>3550780000000</v>
+        <v>-241313000</v>
       </c>
       <c r="X18" s="1">
-        <v>6825540000000000</v>
+        <v>-387975000000</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="1"/>
-        <v>3550780000014.1641</v>
+        <v>-241312986.68279999</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
@@ -11333,14 +12784,14 @@
         <v>14</v>
       </c>
       <c r="W19" s="1">
-        <v>1738680000000</v>
+        <v>-133030000</v>
       </c>
       <c r="X19" s="1">
-        <v>3668760000000000</v>
+        <v>-233451000000</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="1"/>
-        <v>1738680000014.1643</v>
+        <v>-133029986.68279999</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
@@ -11376,14 +12827,14 @@
         <v>15</v>
       </c>
       <c r="W20" s="1">
-        <v>836329000000</v>
+        <v>-72503700</v>
       </c>
       <c r="X20" s="1">
-        <v>1930180000000000</v>
+        <v>-138380000000</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>836329000014.16418</v>
+        <v>-72503686.682799995</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.2">
@@ -11419,14 +12870,14 @@
         <v>16</v>
       </c>
       <c r="W21" s="1">
-        <v>394741000000</v>
+        <v>-39036200</v>
       </c>
       <c r="X21" s="1">
-        <v>993472000000000</v>
+        <v>-80795200000</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" si="1"/>
-        <v>394741000014.16418</v>
+        <v>-39036186.682800002</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.2">
@@ -11462,14 +12913,14 @@
         <v>17</v>
       </c>
       <c r="W22" s="1">
-        <v>182595000000</v>
+        <v>-20742600</v>
       </c>
       <c r="X22" s="1">
-        <v>499909000000000</v>
+        <v>-46451800000</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="1"/>
-        <v>182595000014.16422</v>
+        <v>-20742586.682799999</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.2">
@@ -11505,14 +12956,14 @@
         <v>18</v>
       </c>
       <c r="W23" s="1">
-        <v>82661800000</v>
+        <v>-10865600</v>
       </c>
       <c r="X23" s="1">
-        <v>245701000000000</v>
+        <v>-26284200000</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" si="1"/>
-        <v>82661800014.1642</v>
+        <v>-10865586.682800001</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
@@ -11548,14 +12999,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <v>36566600000</v>
+        <v>-5603430</v>
       </c>
       <c r="X24" s="1">
-        <v>117820000000000</v>
+        <v>-14626300000</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="1"/>
-        <v>36566600014.1642</v>
+        <v>-5603416.6827999996</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
@@ -11591,14 +13042,14 @@
         <v>20</v>
       </c>
       <c r="W25" s="1">
-        <v>15778200000</v>
+        <v>-2840130</v>
       </c>
       <c r="X25" s="1">
-        <v>55047000000000</v>
+        <v>-7996000000</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="1"/>
-        <v>15778200014.1642</v>
+        <v>-2840116.6828000001</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -11634,14 +13085,14 @@
         <v>21</v>
       </c>
       <c r="W26" s="1">
-        <v>6627480000</v>
+        <v>-1411930</v>
       </c>
       <c r="X26" s="1">
-        <v>25017900000000</v>
+        <v>-4288690000</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="1"/>
-        <v>6627480014.1641998</v>
+        <v>-1411916.6828000001</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
@@ -11677,14 +13128,14 @@
         <v>22</v>
       </c>
       <c r="W27" s="1">
-        <v>2703590000</v>
+        <v>-686666</v>
       </c>
       <c r="X27" s="1">
-        <v>11039100000000</v>
+        <v>-2252810000</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>2703590014.1641998</v>
+        <v>-686652.68279999995</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
@@ -11720,14 +13171,14 @@
         <v>23</v>
       </c>
       <c r="W28" s="1">
-        <v>1068190000</v>
+        <v>-325579</v>
       </c>
       <c r="X28" s="1">
-        <v>4718280000000</v>
+        <v>-1156330000</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>1068190014.1641999</v>
+        <v>-325565.68280000001</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
@@ -11763,14 +13214,14 @@
         <v>24</v>
       </c>
       <c r="W29" s="1">
-        <v>407448000</v>
+        <v>-149810</v>
       </c>
       <c r="X29" s="1">
-        <v>1948090000000</v>
+        <v>-578198000</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" si="1"/>
-        <v>407448014.16420001</v>
+        <v>-149796.68280000001</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
@@ -11806,14 +13257,14 @@
         <v>25</v>
       </c>
       <c r="W30" s="1">
-        <v>149460000</v>
+        <v>-66454.5</v>
       </c>
       <c r="X30" s="1">
-        <v>774406000000</v>
+        <v>-280503000</v>
       </c>
       <c r="AC30" s="1">
         <f t="shared" si="1"/>
-        <v>149460014.16420001</v>
+        <v>-66441.182799999995</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
@@ -11849,14 +13300,14 @@
         <v>26</v>
       </c>
       <c r="W31" s="1">
-        <v>52474300</v>
+        <v>-28130.1</v>
       </c>
       <c r="X31" s="1">
-        <v>295186000000</v>
+        <v>-131267000</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>52474314.1642</v>
+        <v>-28116.782799999997</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
@@ -11892,14 +13343,14 @@
         <v>27</v>
       </c>
       <c r="W32" s="1">
-        <v>17528400</v>
+        <v>-11165.1</v>
       </c>
       <c r="X32" s="1">
-        <v>107347000000</v>
+        <v>-58746000</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="1"/>
-        <v>17528414.1642</v>
+        <v>-11151.782800000001</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.2">
@@ -11935,14 +13386,14 @@
         <v>28</v>
       </c>
       <c r="W33" s="1">
-        <v>5527900</v>
+        <v>-4011.47</v>
       </c>
       <c r="X33" s="1">
-        <v>37002500000</v>
+        <v>-24788600</v>
       </c>
       <c r="AC33" s="1">
         <f t="shared" si="1"/>
-        <v>5527914.1642000005</v>
+        <v>-3998.1527999999998</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -11978,14 +13429,14 @@
         <v>29</v>
       </c>
       <c r="W34" s="1">
-        <v>1628820</v>
+        <v>-1190.49</v>
       </c>
       <c r="X34" s="1">
-        <v>11986800000</v>
+        <v>-9603670</v>
       </c>
       <c r="AC34" s="1">
         <f t="shared" si="1"/>
-        <v>1628834.1642</v>
+        <v>-1177.1728000000001</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
@@ -12021,14 +13472,14 @@
         <v>30</v>
       </c>
       <c r="W35" s="1">
-        <v>441775</v>
+        <v>-188.22399999999999</v>
       </c>
       <c r="X35" s="1">
-        <v>3606290000</v>
+        <v>-3212290</v>
       </c>
       <c r="AC35" s="1">
         <f t="shared" si="1"/>
-        <v>441789.1642</v>
+        <v>-174.90679999999998</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.2">
@@ -12064,14 +13515,14 @@
         <v>31</v>
       </c>
       <c r="W36" s="1">
-        <v>107749</v>
+        <v>102.262</v>
       </c>
       <c r="X36" s="1">
-        <v>990210000</v>
+        <v>-747250</v>
       </c>
       <c r="AC36" s="1">
         <f t="shared" si="1"/>
-        <v>107763.1642</v>
+        <v>115.5792</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.2">
@@ -12107,14 +13558,14 @@
         <v>32</v>
       </c>
       <c r="W37" s="1">
-        <v>22659</v>
+        <v>142.97800000000001</v>
       </c>
       <c r="X37" s="1">
-        <v>241183000</v>
+        <v>72209</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="1"/>
-        <v>22673.164199999999</v>
+        <v>156.29520000000002</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.2">
@@ -12150,14 +13601,14 @@
         <v>33</v>
       </c>
       <c r="W38" s="1">
-        <v>3722.13</v>
+        <v>112.958</v>
       </c>
       <c r="X38" s="1">
-        <v>49333000</v>
+        <v>262058</v>
       </c>
       <c r="AC38" s="1">
         <f t="shared" si="1"/>
-        <v>3736.2942000000003</v>
+        <v>126.2752</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
@@ -12193,14 +13644,14 @@
         <v>34</v>
       </c>
       <c r="W39" s="1">
-        <v>307.471</v>
+        <v>73.953800000000001</v>
       </c>
       <c r="X39" s="1">
-        <v>7325350</v>
+        <v>245467</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="1"/>
-        <v>321.6352</v>
+        <v>87.271000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
@@ -12236,14 +13687,14 @@
         <v>35</v>
       </c>
       <c r="W40" s="1">
-        <v>-80.888199999999998</v>
+        <v>42.858699999999999</v>
       </c>
       <c r="X40" s="1">
-        <v>260144</v>
+        <v>182318</v>
       </c>
       <c r="AC40" s="1">
         <f t="shared" si="1"/>
-        <v>-66.724000000000004</v>
+        <v>56.175899999999999</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
@@ -12279,14 +13730,14 @@
         <v>36</v>
       </c>
       <c r="W41" s="1">
-        <v>-55.613399999999999</v>
+        <v>21.456800000000001</v>
       </c>
       <c r="X41" s="1">
-        <v>-300593</v>
+        <v>123791</v>
       </c>
       <c r="AC41" s="1">
         <f t="shared" si="1"/>
-        <v>-41.449199999999998</v>
+        <v>34.774000000000001</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
@@ -12322,14 +13773,14 @@
         <v>37</v>
       </c>
       <c r="W42" s="1">
-        <v>-25.459599999999998</v>
+        <v>7.6059400000000004</v>
       </c>
       <c r="X42" s="1">
-        <v>-134860</v>
+        <v>80824.899999999994</v>
       </c>
       <c r="AC42" s="1">
         <f t="shared" si="1"/>
-        <v>-11.295399999999999</v>
+        <v>20.92314</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
@@ -12365,14 +13816,14 @@
         <v>38</v>
       </c>
       <c r="W43" s="1">
-        <v>-14.9536</v>
+        <v>-1.13456</v>
       </c>
       <c r="X43" s="1">
-        <v>-37900</v>
+        <v>52119.1</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="1"/>
-        <v>-0.78940000000000055</v>
+        <v>12.182639999999999</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
@@ -12408,14 +13859,14 @@
         <v>39</v>
       </c>
       <c r="W44" s="1">
-        <v>-12.520799999999999</v>
+        <v>-6.6567499999999997</v>
       </c>
       <c r="X44" s="1">
-        <v>-5422.33</v>
+        <v>34259.300000000003</v>
       </c>
       <c r="AC44" s="1">
         <f t="shared" si="1"/>
-        <v>1.6433999999999997</v>
+        <v>6.66045</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
@@ -12451,14 +13902,14 @@
         <v>40</v>
       </c>
       <c r="W45" s="1">
-        <v>-12.6234</v>
+        <v>-10.257899999999999</v>
       </c>
       <c r="X45" s="1">
-        <v>5109.43</v>
+        <v>23188.9</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="1"/>
-        <v>1.5407999999999991</v>
+        <v>3.0593000000000004</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
@@ -12494,14 +13945,14 @@
         <v>41</v>
       </c>
       <c r="W46" s="1">
-        <v>-13.485799999999999</v>
+        <v>-12.6349</v>
       </c>
       <c r="X46" s="1">
-        <v>8069.99</v>
+        <v>15645.5</v>
       </c>
       <c r="AC46" s="1">
         <f t="shared" si="1"/>
-        <v>0.67839999999999989</v>
+        <v>0.68229999999999968</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
@@ -12537,14 +13988,14 @@
         <v>42</v>
       </c>
       <c r="W47" s="1">
-        <v>-14.4648</v>
+        <v>-14.192600000000001</v>
       </c>
       <c r="X47" s="1">
-        <v>7761.58</v>
+        <v>10415.299999999999</v>
       </c>
       <c r="AC47" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30060000000000109</v>
+        <v>-0.87540000000000084</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
@@ -12580,14 +14031,14 @@
         <v>43</v>
       </c>
       <c r="W48" s="1">
-        <v>-15.2879</v>
+        <v>-15.1945</v>
       </c>
       <c r="X48" s="1">
-        <v>6049.25</v>
+        <v>6747.35</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="1"/>
-        <v>-1.1237000000000013</v>
+        <v>-1.8773</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
@@ -12623,14 +14074,14 @@
         <v>44</v>
       </c>
       <c r="W49" s="1">
-        <v>-15.8721</v>
+        <v>-15.8156</v>
       </c>
       <c r="X49" s="1">
-        <v>4082.78</v>
+        <v>4148.45</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7079000000000004</v>
+        <v>-2.4984000000000002</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
@@ -12666,14 +14117,14 @@
         <v>45</v>
       </c>
       <c r="W50" s="1">
-        <v>-16.235399999999998</v>
+        <v>-16.173300000000001</v>
       </c>
       <c r="X50" s="1">
-        <v>2413.9899999999998</v>
+        <v>2279.2399999999998</v>
       </c>
       <c r="AC50" s="1">
         <f t="shared" si="1"/>
-        <v>-2.0711999999999993</v>
+        <v>-2.8561000000000014</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -12709,14 +14160,14 @@
         <v>46</v>
       </c>
       <c r="W51" s="1">
-        <v>-16.4297</v>
+        <v>-16.3459</v>
       </c>
       <c r="X51" s="1">
-        <v>1164.2</v>
+        <v>906.56500000000005</v>
       </c>
       <c r="AC51" s="1">
         <f t="shared" si="1"/>
-        <v>-2.2655000000000012</v>
+        <v>-3.0287000000000006</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
@@ -12752,14 +14203,14 @@
         <v>47</v>
       </c>
       <c r="W52" s="1">
-        <v>-16.5044</v>
+        <v>-16.385899999999999</v>
       </c>
       <c r="X52" s="1">
-        <v>263.51900000000001</v>
+        <v>-122.378</v>
       </c>
       <c r="AC52" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3402000000000012</v>
+        <v>-3.0686999999999998</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
@@ -12795,14 +14246,14 @@
         <v>48</v>
       </c>
       <c r="W53" s="1">
-        <v>-16.496099999999998</v>
+        <v>-16.329899999999999</v>
       </c>
       <c r="X53" s="1">
-        <v>-387.24</v>
+        <v>-900.18600000000004</v>
       </c>
       <c r="AC53" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3318999999999992</v>
+        <v>-3.0126999999999988</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
@@ -12838,14 +14289,14 @@
         <v>49</v>
       </c>
       <c r="W54" s="1">
-        <v>-16.430299999999999</v>
+        <v>-16.204999999999998</v>
       </c>
       <c r="X54" s="1">
-        <v>-856.47699999999998</v>
+        <v>-1478.4</v>
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="1"/>
-        <v>-2.2660999999999998</v>
+        <v>-2.8877999999999986</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
@@ -12881,14 +14332,14 @@
         <v>50</v>
       </c>
       <c r="W55" s="1">
-        <v>-16.325500000000002</v>
+        <v>-16.032599999999999</v>
       </c>
       <c r="X55" s="1">
-        <v>-1181.81</v>
+        <v>-1884.91</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="1"/>
-        <v>-2.1613000000000024</v>
+        <v>-2.7153999999999989</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
@@ -12924,14 +14375,14 @@
         <v>51</v>
       </c>
       <c r="W56" s="1">
-        <v>-16.1965</v>
+        <v>-15.8307</v>
       </c>
       <c r="X56" s="1">
-        <v>-1387.52</v>
+        <v>-2137.6799999999998</v>
       </c>
       <c r="AC56" s="1">
         <f t="shared" si="1"/>
-        <v>-2.0323000000000011</v>
+        <v>-2.5135000000000005</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
@@ -12967,14 +14418,14 @@
         <v>52</v>
       </c>
       <c r="W57" s="1">
-        <v>-16.0547</v>
+        <v>-15.614800000000001</v>
       </c>
       <c r="X57" s="1">
-        <v>-1496.84</v>
+        <v>-2253.6799999999998</v>
       </c>
       <c r="AC57" s="1">
         <f t="shared" si="1"/>
-        <v>-1.8905000000000012</v>
+        <v>-2.297600000000001</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
@@ -13010,14 +14461,14 @@
         <v>53</v>
       </c>
       <c r="W58" s="1">
-        <v>-15.9086</v>
+        <v>-15.397600000000001</v>
       </c>
       <c r="X58" s="1">
-        <v>-1534.22</v>
+        <v>-2253.1999999999998</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7444000000000006</v>
+        <v>-2.0804000000000009</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
@@ -13053,14 +14504,14 @@
         <v>54</v>
       </c>
       <c r="W59" s="1">
-        <v>-15.7643</v>
+        <v>-15.1889</v>
       </c>
       <c r="X59" s="1">
-        <v>-1521.63</v>
+        <v>-2160.46</v>
       </c>
       <c r="AC59" s="1">
         <f t="shared" si="1"/>
-        <v>-1.6001000000000012</v>
+        <v>-1.8717000000000006</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
@@ -13096,14 +14547,14 @@
         <v>55</v>
       </c>
       <c r="W60" s="1">
-        <v>-15.625299999999999</v>
+        <v>-14.995799999999999</v>
       </c>
       <c r="X60" s="1">
-        <v>-1474.77</v>
+        <v>-2002.02</v>
       </c>
       <c r="AC60" s="1">
         <f t="shared" si="1"/>
-        <v>-1.4611000000000001</v>
+        <v>-1.6785999999999994</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
@@ -13139,14 +14590,14 @@
         <v>56</v>
       </c>
       <c r="W61" s="1">
-        <v>-15.494300000000001</v>
+        <v>-14.8225</v>
       </c>
       <c r="X61" s="1">
-        <v>-1402.48</v>
+        <v>-1804.24</v>
       </c>
       <c r="AC61" s="1">
         <f t="shared" si="1"/>
-        <v>-1.3301000000000016</v>
+        <v>-1.5053000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
@@ -13182,14 +14633,14 @@
         <v>57</v>
       </c>
       <c r="W62" s="1">
-        <v>-15.372999999999999</v>
+        <v>-14.6707</v>
       </c>
       <c r="X62" s="1">
-        <v>-1309.24</v>
+        <v>-1590.85</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="1"/>
-        <v>-1.2088000000000001</v>
+        <v>-1.3535000000000004</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
@@ -13225,14 +14676,14 @@
         <v>58</v>
       </c>
       <c r="W63" s="1">
-        <v>-15.262700000000001</v>
+        <v>-14.5403</v>
       </c>
       <c r="X63" s="1">
-        <v>-1198.72</v>
+        <v>-1381.16</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0985000000000014</v>
+        <v>-1.2231000000000005</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
@@ -13268,14 +14719,14 @@
         <v>59</v>
       </c>
       <c r="W64" s="1">
-        <v>-15.164400000000001</v>
+        <v>-14.429399999999999</v>
       </c>
       <c r="X64" s="1">
-        <v>-1076.18</v>
+        <v>-1189.1400000000001</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0002000000000013</v>
+        <v>-1.1121999999999996</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
@@ -13311,14 +14762,14 @@
         <v>60</v>
       </c>
       <c r="W65" s="1">
-        <v>-15.0784</v>
+        <v>-14.335699999999999</v>
       </c>
       <c r="X65" s="1">
-        <v>-948.91</v>
+        <v>-1023.31</v>
       </c>
       <c r="AC65" s="1">
         <f t="shared" si="1"/>
-        <v>-0.91420000000000101</v>
+        <v>-1.0184999999999995</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -13354,14 +14805,14 @@
         <v>61</v>
       </c>
       <c r="W66" s="1">
-        <v>-15.0044</v>
+        <v>-14.256</v>
       </c>
       <c r="X66" s="1">
-        <v>-824.95699999999999</v>
+        <v>-887.255</v>
       </c>
       <c r="AC66" s="1">
         <f t="shared" si="1"/>
-        <v>-0.84020000000000117</v>
+        <v>-0.93880000000000052</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.2">
@@ -13397,14 +14848,14 @@
         <v>62</v>
       </c>
       <c r="W67" s="1">
-        <v>-14.9413</v>
+        <v>-14.1877</v>
       </c>
       <c r="X67" s="1">
-        <v>-711.36</v>
+        <v>-780.58699999999999</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" si="1"/>
-        <v>-0.77710000000000079</v>
+        <v>-0.87049999999999983</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
@@ -13440,14 +14891,14 @@
         <v>63</v>
       </c>
       <c r="W68" s="1">
-        <v>-14.8878</v>
+        <v>-14.1279</v>
       </c>
       <c r="X68" s="1">
-        <v>-612.80700000000002</v>
+        <v>-699.96400000000006</v>
       </c>
       <c r="AC68" s="1">
         <f t="shared" si="1"/>
-        <v>-0.72360000000000113</v>
+        <v>-0.81070000000000064</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -13483,14 +14934,14 @@
         <v>64</v>
       </c>
       <c r="W69" s="1">
-        <v>-14.8423</v>
+        <v>-14.0746</v>
       </c>
       <c r="X69" s="1">
-        <v>-531.25599999999997</v>
+        <v>-640.17999999999995</v>
       </c>
       <c r="AC69" s="1">
         <f t="shared" ref="AC69:AC104" si="5">W69-$W$105</f>
-        <v>-0.67810000000000059</v>
+        <v>-0.75740000000000052</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
@@ -13526,14 +14977,14 @@
         <v>65</v>
       </c>
       <c r="W70" s="1">
-        <v>-14.8033</v>
+        <v>-14.026300000000001</v>
       </c>
       <c r="X70" s="1">
-        <v>-466.41199999999998</v>
+        <v>-595.11099999999999</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" si="5"/>
-        <v>-0.63910000000000089</v>
+        <v>-0.70910000000000117</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -13569,14 +15020,14 @@
         <v>66</v>
       </c>
       <c r="W71" s="1">
-        <v>-14.769299999999999</v>
+        <v>-13.9817</v>
       </c>
       <c r="X71" s="1">
-        <v>-416.65</v>
+        <v>-558.51</v>
       </c>
       <c r="AC71" s="1">
         <f t="shared" si="5"/>
-        <v>-0.60510000000000019</v>
+        <v>-0.66450000000000031</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -13612,14 +15063,14 @@
         <v>67</v>
       </c>
       <c r="W72" s="1">
-        <v>-14.739000000000001</v>
+        <v>-13.9405</v>
       </c>
       <c r="X72" s="1">
-        <v>-379.92</v>
+        <v>-524.62699999999995</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" si="5"/>
-        <v>-0.57480000000000153</v>
+        <v>-0.62330000000000041</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -13655,14 +15106,14 @@
         <v>68</v>
       </c>
       <c r="W73" s="1">
-        <v>-14.711600000000001</v>
+        <v>-13.9025</v>
       </c>
       <c r="X73" s="1">
-        <v>-354.34</v>
+        <v>-488.678</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="5"/>
-        <v>-0.54740000000000144</v>
+        <v>-0.58530000000000015</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -13698,14 +15149,14 @@
         <v>69</v>
       </c>
       <c r="W74" s="1">
-        <v>-14.686</v>
+        <v>-13.867800000000001</v>
       </c>
       <c r="X74" s="1">
-        <v>-338.387</v>
+        <v>-447.18599999999998</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" si="5"/>
-        <v>-0.52180000000000071</v>
+        <v>-0.55060000000000109</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -13741,14 +15192,14 @@
         <v>70</v>
       </c>
       <c r="W75" s="1">
-        <v>-14.6617</v>
+        <v>-13.837</v>
       </c>
       <c r="X75" s="1">
-        <v>-330.767</v>
+        <v>-398.18599999999998</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="5"/>
-        <v>-0.4975000000000005</v>
+        <v>-0.51980000000000004</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
@@ -13784,14 +15235,14 @@
         <v>71</v>
       </c>
       <c r="W76" s="1">
-        <v>-14.638</v>
+        <v>-13.8104</v>
       </c>
       <c r="X76" s="1">
-        <v>-330.113</v>
+        <v>-341.33300000000003</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="5"/>
-        <v>-0.47380000000000067</v>
+        <v>-0.49319999999999986</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
@@ -13827,14 +15278,14 @@
         <v>72</v>
       </c>
       <c r="W77" s="1">
-        <v>-14.6144</v>
+        <v>-13.788399999999999</v>
       </c>
       <c r="X77" s="1">
-        <v>-334.68200000000002</v>
+        <v>-277.88299999999998</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="5"/>
-        <v>-0.4502000000000006</v>
+        <v>-0.47119999999999962</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
@@ -13870,14 +15321,14 @@
         <v>73</v>
       </c>
       <c r="W78" s="1">
-        <v>-14.5908</v>
+        <v>-13.7713</v>
       </c>
       <c r="X78" s="1">
-        <v>-342.197</v>
+        <v>-210.554</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="5"/>
-        <v>-0.42660000000000053</v>
+        <v>-0.45410000000000039</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -13913,14 +15364,14 @@
         <v>74</v>
       </c>
       <c r="W79" s="1">
-        <v>-14.5669</v>
+        <v>-13.7591</v>
       </c>
       <c r="X79" s="1">
-        <v>-349.90199999999999</v>
+        <v>-143.27699999999999</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="5"/>
-        <v>-0.40270000000000117</v>
+        <v>-0.4419000000000004</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
@@ -13956,14 +15407,14 @@
         <v>75</v>
       </c>
       <c r="W80" s="1">
-        <v>-14.542899999999999</v>
+        <v>-13.7515</v>
       </c>
       <c r="X80" s="1">
-        <v>-354.87099999999998</v>
+        <v>-80.826499999999996</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="5"/>
-        <v>-0.37870000000000026</v>
+        <v>-0.43430000000000035</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
@@ -13999,14 +15450,14 @@
         <v>76</v>
       </c>
       <c r="W81" s="1">
-        <v>-14.5191</v>
+        <v>-13.7479</v>
       </c>
       <c r="X81" s="1">
-        <v>-354.51900000000001</v>
+        <v>-28.370899999999999</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="5"/>
-        <v>-0.35490000000000066</v>
+        <v>-0.43069999999999986</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
@@ -14042,14 +15493,14 @@
         <v>77</v>
       </c>
       <c r="W82" s="1">
-        <v>-14.495699999999999</v>
+        <v>-13.747400000000001</v>
       </c>
       <c r="X82" s="1">
-        <v>-347.19099999999997</v>
+        <v>9.0248500000000007</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="5"/>
-        <v>-0.33150000000000013</v>
+        <v>-0.43020000000000103</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
@@ -14085,14 +15536,14 @@
         <v>78</v>
       </c>
       <c r="W83" s="1">
-        <v>-14.4735</v>
+        <v>-13.7486</v>
       </c>
       <c r="X83" s="1">
-        <v>-332.66699999999997</v>
+        <v>26.904800000000002</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="5"/>
-        <v>-0.30930000000000035</v>
+        <v>-0.43140000000000001</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
@@ -14128,14 +15579,14 @@
         <v>79</v>
       </c>
       <c r="W84" s="1">
-        <v>-14.4526</v>
+        <v>-13.750400000000001</v>
       </c>
       <c r="X84" s="1">
-        <v>-312.40300000000002</v>
+        <v>21.881699999999999</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" si="5"/>
-        <v>-0.2884000000000011</v>
+        <v>-0.43320000000000114</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.2">
@@ -14171,14 +15622,14 @@
         <v>80</v>
       </c>
       <c r="W85" s="1">
-        <v>-14.433400000000001</v>
+        <v>-13.7509</v>
       </c>
       <c r="X85" s="1">
-        <v>-289.36900000000003</v>
+        <v>-7.9877900000000004</v>
       </c>
       <c r="AC85" s="1">
         <f t="shared" si="5"/>
-        <v>-0.26920000000000144</v>
+        <v>-0.43369999999999997</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.2">
@@ -14214,14 +15665,14 @@
         <v>81</v>
       </c>
       <c r="W86" s="1">
-        <v>-14.415800000000001</v>
+        <v>-13.748799999999999</v>
       </c>
       <c r="X86" s="1">
-        <v>-267.49799999999999</v>
+        <v>-62.941000000000003</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" si="5"/>
-        <v>-0.2516000000000016</v>
+        <v>-0.43159999999999954</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
@@ -14257,14 +15708,14 @@
         <v>82</v>
       </c>
       <c r="W87" s="1">
-        <v>-14.399699999999999</v>
+        <v>-13.742599999999999</v>
       </c>
       <c r="X87" s="1">
-        <v>-250.85900000000001</v>
+        <v>-141.37299999999999</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" si="5"/>
-        <v>-0.23550000000000004</v>
+        <v>-0.42539999999999978</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
@@ -14300,14 +15751,14 @@
         <v>83</v>
       </c>
       <c r="W88" s="1">
-        <v>-14.384600000000001</v>
+        <v>-13.731</v>
       </c>
       <c r="X88" s="1">
-        <v>-242.78899999999999</v>
+        <v>-239.81299999999999</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" si="5"/>
-        <v>-0.22040000000000148</v>
+        <v>-0.41380000000000017</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
@@ -14343,14 +15794,14 @@
         <v>84</v>
       </c>
       <c r="W89" s="1">
-        <v>-14.3698</v>
+        <v>-13.712999999999999</v>
       </c>
       <c r="X89" s="1">
-        <v>-245.239</v>
+        <v>-353.00599999999997</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" si="5"/>
-        <v>-0.20560000000000045</v>
+        <v>-0.39579999999999949</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
@@ -14386,14 +15837,14 @@
         <v>85</v>
       </c>
       <c r="W90" s="1">
-        <v>-14.354699999999999</v>
+        <v>-13.6882</v>
       </c>
       <c r="X90" s="1">
-        <v>-258.49299999999999</v>
+        <v>-474.05500000000001</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="5"/>
-        <v>-0.19050000000000011</v>
+        <v>-0.37100000000000044</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
@@ -14429,14 +15880,14 @@
         <v>86</v>
       </c>
       <c r="W91" s="1">
-        <v>-14.338699999999999</v>
+        <v>-13.6564</v>
       </c>
       <c r="X91" s="1">
-        <v>-281.29399999999998</v>
+        <v>-594.61900000000003</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="5"/>
-        <v>-0.1745000000000001</v>
+        <v>-0.33919999999999995</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.2">
@@ -14472,14 +15923,14 @@
         <v>87</v>
       </c>
       <c r="W92" s="1">
-        <v>-14.321400000000001</v>
+        <v>-13.6182</v>
       </c>
       <c r="X92" s="1">
-        <v>-311.20100000000002</v>
+        <v>-705.173</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" si="5"/>
-        <v>-0.15720000000000134</v>
+        <v>-0.30100000000000016</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
@@ -14515,14 +15966,14 @@
         <v>88</v>
       </c>
       <c r="W93" s="1">
-        <v>-14.302300000000001</v>
+        <v>-13.5745</v>
       </c>
       <c r="X93" s="1">
-        <v>-344.928</v>
+        <v>-795.35400000000004</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" si="5"/>
-        <v>-0.13810000000000144</v>
+        <v>-0.25730000000000075</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.2">
@@ -14558,14 +16009,14 @@
         <v>89</v>
       </c>
       <c r="W94" s="1">
-        <v>-14.281599999999999</v>
+        <v>-13.526999999999999</v>
       </c>
       <c r="X94" s="1">
-        <v>-378.40199999999999</v>
+        <v>-854.47299999999996</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" si="5"/>
-        <v>-0.11739999999999995</v>
+        <v>-0.20979999999999954</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
@@ -14601,14 +16052,14 @@
         <v>90</v>
       </c>
       <c r="W95" s="1">
-        <v>-14.2593</v>
+        <v>-13.4777</v>
       </c>
       <c r="X95" s="1">
-        <v>-406.43900000000002</v>
+        <v>-872.3</v>
       </c>
       <c r="AC95" s="1">
         <f t="shared" si="5"/>
-        <v>-9.5100000000000406E-2</v>
+        <v>-0.16050000000000075</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
@@ -14644,14 +16095,14 @@
         <v>91</v>
       </c>
       <c r="W96" s="1">
-        <v>-14.235900000000001</v>
+        <v>-13.429399999999999</v>
       </c>
       <c r="X96" s="1">
-        <v>-422.17099999999999</v>
+        <v>-840.23400000000004</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="5"/>
-        <v>-7.1700000000001651E-2</v>
+        <v>-0.11219999999999963</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
@@ -14687,14 +16138,14 @@
         <v>92</v>
       </c>
       <c r="W97" s="1">
-        <v>-14.2125</v>
+        <v>-13.3849</v>
       </c>
       <c r="X97" s="1">
-        <v>-416.74599999999998</v>
+        <v>-752.96199999999999</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="5"/>
-        <v>-4.830000000000112E-2</v>
+        <v>-6.7700000000000315E-2</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
@@ -14730,14 +16181,14 @@
         <v>93</v>
       </c>
       <c r="W98" s="1">
-        <v>-14.1904</v>
+        <v>-13.347200000000001</v>
       </c>
       <c r="X98" s="1">
-        <v>-380.12400000000002</v>
+        <v>-610.64800000000002</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="5"/>
-        <v>-2.6200000000001111E-2</v>
+        <v>-3.0000000000001137E-2</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
@@ -14773,14 +16224,14 @@
         <v>94</v>
       </c>
       <c r="W99" s="1">
-        <v>-14.1716</v>
+        <v>-13.318899999999999</v>
       </c>
       <c r="X99" s="1">
-        <v>-303.95800000000003</v>
+        <v>-421.60300000000001</v>
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="5"/>
-        <v>-7.4000000000005173E-3</v>
+        <v>-1.6999999999995907E-3</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
@@ -14816,14 +16267,14 @@
         <v>95</v>
       </c>
       <c r="W100" s="1">
-        <v>-14.158300000000001</v>
+        <v>-13.302</v>
       </c>
       <c r="X100" s="1">
-        <v>-187.23</v>
+        <v>-205.24100000000001</v>
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="5"/>
-        <v>5.8999999999986841E-3</v>
+        <v>1.5200000000000102E-2</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
@@ -14859,14 +16310,14 @@
         <v>96</v>
       </c>
       <c r="W101" s="1">
-        <v>-14.151999999999999</v>
+        <v>-13.296799999999999</v>
       </c>
       <c r="X101" s="1">
-        <v>-44.3371</v>
+        <v>4.9611099999999997</v>
       </c>
       <c r="AC101" s="1">
         <f t="shared" si="5"/>
-        <v>1.2199999999999989E-2</v>
+        <v>2.0400000000000418E-2</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
@@ -14902,14 +16353,14 @@
         <v>97</v>
       </c>
       <c r="W102" s="1">
-        <v>-14.1533</v>
+        <v>-13.301500000000001</v>
       </c>
       <c r="X102" s="1">
-        <v>86.241500000000002</v>
+        <v>158.81100000000001</v>
       </c>
       <c r="AC102" s="1">
         <f t="shared" si="5"/>
-        <v>1.0899999999999466E-2</v>
+        <v>1.5699999999998937E-2</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
@@ -14945,14 +16396,14 @@
         <v>98</v>
       </c>
       <c r="W103" s="1">
-        <v>-14.159599999999999</v>
+        <v>-13.311199999999999</v>
       </c>
       <c r="X103" s="1">
-        <v>135.49199999999999</v>
+        <v>187.19900000000001</v>
       </c>
       <c r="AC103" s="1">
         <f t="shared" si="5"/>
-        <v>4.5999999999999375E-3</v>
+        <v>6.0000000000002274E-3</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
@@ -14988,10 +16439,10 @@
         <v>99</v>
       </c>
       <c r="W104" s="1">
-        <v>-14.164199999999999</v>
+        <v>-13.3172</v>
       </c>
       <c r="X104" s="1">
-        <v>5.8056300000000001E-11</v>
+        <v>7.0527599999999998E-11</v>
       </c>
       <c r="AC104" s="1">
         <f t="shared" si="5"/>
@@ -15031,7 +16482,7 @@
         <v>100</v>
       </c>
       <c r="W105" s="1">
-        <v>-14.164199999999999</v>
+        <v>-13.3172</v>
       </c>
       <c r="X105" s="1">
         <v>0</v>
